--- a/DB設計Withpets.xlsx
+++ b/DB設計Withpets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideyuki/Documents/LaravelSail/WithPets/WP_PJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC87839-9C2B-2546-B822-8BD3CDCB6684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924762F-D033-3848-AF27-4441C3FDEC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コーディング規約" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <definedName name="入力内容をデータベースへ保存し__Thanksページの表示">Controller一覧!$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="356">
   <si>
     <t>種類</t>
   </si>
@@ -1672,6 +1671,26 @@
   </si>
   <si>
     <t>Pass.php</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>goverments</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>managers</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>boolean('plan')</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>plan</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -2306,7 +2325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2851,12 +2870,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2880,45 +2938,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2980,6 +2999,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3482,7 +3504,7 @@
       <c r="D3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="196" t="s">
+      <c r="E3" s="199" t="s">
         <v>110</v>
       </c>
       <c r="F3" s="154" t="s">
@@ -3502,7 +3524,7 @@
       <c r="D4" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="218"/>
+      <c r="E4" s="205"/>
       <c r="F4" s="154" t="s">
         <v>309</v>
       </c>
@@ -3521,7 +3543,7 @@
       <c r="D5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="218"/>
+      <c r="E5" s="205"/>
       <c r="F5" s="154" t="s">
         <v>308</v>
       </c>
@@ -3536,7 +3558,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="167"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="218"/>
+      <c r="E6" s="205"/>
       <c r="F6" s="12"/>
       <c r="G6" s="153"/>
       <c r="H6" s="12"/>
@@ -3546,7 +3568,7 @@
     <row r="7" spans="2:10" ht="45" customHeight="1">
       <c r="C7" s="167"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="218"/>
+      <c r="E7" s="205"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="169"/>
@@ -3556,7 +3578,7 @@
     <row r="8" spans="2:10" ht="45" customHeight="1">
       <c r="C8" s="167"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="197"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3615,7 +3637,7 @@
       <c r="D12" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E12" s="218"/>
+      <c r="E12" s="205"/>
       <c r="F12" s="154" t="s">
         <v>272</v>
       </c>
@@ -3631,7 +3653,7 @@
       <c r="D13" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E13" s="218"/>
+      <c r="E13" s="205"/>
       <c r="F13" s="154" t="s">
         <v>274</v>
       </c>
@@ -3647,7 +3669,7 @@
       <c r="D14" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="218"/>
+      <c r="E14" s="205"/>
       <c r="F14" s="154" t="s">
         <v>275</v>
       </c>
@@ -3663,7 +3685,7 @@
       <c r="D15" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E15" s="218"/>
+      <c r="E15" s="205"/>
       <c r="F15" s="154" t="s">
         <v>276</v>
       </c>
@@ -3679,7 +3701,7 @@
       <c r="D16" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E16" s="218"/>
+      <c r="E16" s="205"/>
       <c r="F16" s="154" t="s">
         <v>277</v>
       </c>
@@ -3695,7 +3717,7 @@
       <c r="D17" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="197"/>
+      <c r="E17" s="206"/>
       <c r="F17" s="154" t="s">
         <v>278</v>
       </c>
@@ -3757,7 +3779,7 @@
       <c r="D21" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="218"/>
+      <c r="E21" s="205"/>
       <c r="F21" s="154" t="s">
         <v>275</v>
       </c>
@@ -3773,7 +3795,7 @@
       <c r="D22" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E22" s="218"/>
+      <c r="E22" s="205"/>
       <c r="F22" s="179" t="s">
         <v>112</v>
       </c>
@@ -3789,7 +3811,7 @@
       <c r="D23" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E23" s="218"/>
+      <c r="E23" s="205"/>
       <c r="F23" s="181" t="s">
         <v>273</v>
       </c>
@@ -3805,7 +3827,7 @@
       <c r="D24" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E24" s="218"/>
+      <c r="E24" s="205"/>
       <c r="F24" s="154" t="s">
         <v>276</v>
       </c>
@@ -3821,7 +3843,7 @@
       <c r="D25" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E25" s="218"/>
+      <c r="E25" s="205"/>
       <c r="F25" s="154" t="s">
         <v>277</v>
       </c>
@@ -3837,7 +3859,7 @@
       <c r="D26" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="197"/>
+      <c r="E26" s="206"/>
       <c r="F26" s="154" t="s">
         <v>278</v>
       </c>
@@ -3897,7 +3919,7 @@
       <c r="D30" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E30" s="218"/>
+      <c r="E30" s="205"/>
       <c r="F30" s="154" t="s">
         <v>272</v>
       </c>
@@ -3911,7 +3933,7 @@
       <c r="D31" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E31" s="218"/>
+      <c r="E31" s="205"/>
       <c r="F31" s="154" t="s">
         <v>274</v>
       </c>
@@ -3925,7 +3947,7 @@
       <c r="D32" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E32" s="218"/>
+      <c r="E32" s="205"/>
       <c r="F32" s="154" t="s">
         <v>275</v>
       </c>
@@ -3939,7 +3961,7 @@
       <c r="D33" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E33" s="218"/>
+      <c r="E33" s="205"/>
       <c r="F33" s="154" t="s">
         <v>276</v>
       </c>
@@ -3955,7 +3977,7 @@
       <c r="D34" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E34" s="218"/>
+      <c r="E34" s="205"/>
       <c r="F34" s="154" t="s">
         <v>277</v>
       </c>
@@ -3971,7 +3993,7 @@
       <c r="D35" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E35" s="197"/>
+      <c r="E35" s="206"/>
       <c r="F35" s="154" t="s">
         <v>278</v>
       </c>
@@ -4027,7 +4049,7 @@
       <c r="D39" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E39" s="218"/>
+      <c r="E39" s="205"/>
       <c r="F39" s="154" t="s">
         <v>275</v>
       </c>
@@ -4041,7 +4063,7 @@
       <c r="D40" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E40" s="218"/>
+      <c r="E40" s="205"/>
       <c r="F40" s="179" t="s">
         <v>112</v>
       </c>
@@ -4055,7 +4077,7 @@
       <c r="D41" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E41" s="218"/>
+      <c r="E41" s="205"/>
       <c r="F41" s="181" t="s">
         <v>273</v>
       </c>
@@ -4069,7 +4091,7 @@
       <c r="D42" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="218"/>
+      <c r="E42" s="205"/>
       <c r="F42" s="154" t="s">
         <v>276</v>
       </c>
@@ -4083,7 +4105,7 @@
       <c r="D43" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E43" s="218"/>
+      <c r="E43" s="205"/>
       <c r="F43" s="154" t="s">
         <v>277</v>
       </c>
@@ -4097,7 +4119,7 @@
       <c r="D44" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E44" s="197"/>
+      <c r="E44" s="206"/>
       <c r="F44" s="154" t="s">
         <v>278</v>
       </c>
@@ -5807,14 +5829,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="196" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" customHeight="1">
       <c r="B2" s="72"/>
@@ -5848,10 +5870,10 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1">
       <c r="B4" s="76"/>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="196" t="s">
+      <c r="D4" s="199" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="44" t="s">
@@ -5865,8 +5887,8 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1">
       <c r="B5" s="76"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
       <c r="E5" s="44" t="s">
         <v>80</v>
       </c>
@@ -5878,8 +5900,8 @@
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1">
       <c r="B6" s="76"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="44" t="s">
         <v>82</v>
       </c>
@@ -5891,10 +5913,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1">
       <c r="B7" s="76"/>
-      <c r="C7" s="210" t="s">
+      <c r="C7" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="196" t="s">
+      <c r="D7" s="199" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="44" t="s">
@@ -5908,8 +5930,8 @@
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1">
       <c r="B8" s="76"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="44" t="s">
         <v>82</v>
       </c>
@@ -5960,8 +5982,8 @@
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1">
       <c r="B12" s="82"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="216" t="s">
+      <c r="C12" s="199"/>
+      <c r="D12" s="202" t="s">
         <v>148</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -5975,8 +5997,8 @@
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1">
       <c r="B13" s="82"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="216"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="202"/>
       <c r="E13" s="27" t="s">
         <v>164</v>
       </c>
@@ -5988,8 +6010,8 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1">
       <c r="B14" s="82"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="216"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="202"/>
       <c r="E14" s="27" t="s">
         <v>150</v>
       </c>
@@ -6001,8 +6023,8 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1">
       <c r="B15" s="82"/>
-      <c r="C15" s="214"/>
-      <c r="D15" s="216"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="202"/>
       <c r="E15" s="27" t="s">
         <v>151</v>
       </c>
@@ -6014,8 +6036,8 @@
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1">
       <c r="B16" s="82"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="216"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="202"/>
       <c r="E16" s="27" t="s">
         <v>152</v>
       </c>
@@ -6027,8 +6049,8 @@
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1">
       <c r="B17" s="82"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="216"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="202"/>
       <c r="E17" s="27" t="s">
         <v>155</v>
       </c>
@@ -6040,8 +6062,8 @@
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1">
       <c r="B18" s="82"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="216"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="202"/>
       <c r="E18" s="27" t="s">
         <v>166</v>
       </c>
@@ -6053,8 +6075,8 @@
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1">
       <c r="B19" s="82"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="216"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="202"/>
       <c r="E19" s="27" t="s">
         <v>167</v>
       </c>
@@ -6066,8 +6088,8 @@
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1">
       <c r="B20" s="82"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="216"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="202"/>
       <c r="E20" s="27" t="s">
         <v>154</v>
       </c>
@@ -6079,8 +6101,8 @@
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1">
       <c r="B21" s="82"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="216"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="202"/>
       <c r="E21" s="27" t="s">
         <v>156</v>
       </c>
@@ -6092,8 +6114,8 @@
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
       <c r="B22" s="82"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="217"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="42"/>
       <c r="F22" s="66"/>
       <c r="G22" s="71"/>
@@ -6109,14 +6131,14 @@
       <c r="H23" s="87"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="208" t="s">
+      <c r="B25" s="196" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1">
       <c r="B26" s="72"/>
@@ -6150,10 +6172,10 @@
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1">
       <c r="B28" s="76"/>
-      <c r="C28" s="210" t="s">
+      <c r="C28" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="196" t="s">
+      <c r="D28" s="199" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="88" t="s">
@@ -6167,8 +6189,8 @@
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1">
       <c r="B29" s="76"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
       <c r="E29" s="88" t="s">
         <v>151</v>
       </c>
@@ -6189,11 +6211,11 @@
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1">
       <c r="B31" s="76"/>
-      <c r="C31" s="213" t="s">
+      <c r="C31" s="198" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="213"/>
-      <c r="E31" s="213"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
       <c r="F31" s="79"/>
       <c r="G31" s="79"/>
       <c r="H31" s="78"/>
@@ -6219,8 +6241,8 @@
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1">
       <c r="B33" s="76"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="207" t="s">
+      <c r="C33" s="207"/>
+      <c r="D33" s="208" t="s">
         <v>194</v>
       </c>
       <c r="E33" s="93" t="s">
@@ -6234,8 +6256,8 @@
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1">
       <c r="B34" s="76"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="208"/>
       <c r="E34" s="94" t="s">
         <v>163</v>
       </c>
@@ -6247,8 +6269,8 @@
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1">
       <c r="B35" s="76"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="207"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="208"/>
       <c r="E35" s="95" t="s">
         <v>164</v>
       </c>
@@ -6260,8 +6282,8 @@
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1">
       <c r="B36" s="76"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="208"/>
       <c r="E36" s="95" t="s">
         <v>150</v>
       </c>
@@ -6273,8 +6295,8 @@
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1">
       <c r="B37" s="82"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="207"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="208"/>
       <c r="E37" s="95" t="s">
         <v>151</v>
       </c>
@@ -6286,8 +6308,8 @@
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1">
       <c r="B38" s="82"/>
-      <c r="C38" s="206"/>
-      <c r="D38" s="207"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="208"/>
       <c r="E38" s="95" t="s">
         <v>182</v>
       </c>
@@ -6299,8 +6321,8 @@
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1">
       <c r="B39" s="82"/>
-      <c r="C39" s="206"/>
-      <c r="D39" s="207"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="208"/>
       <c r="E39" s="95" t="s">
         <v>152</v>
       </c>
@@ -6312,8 +6334,8 @@
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1">
       <c r="B40" s="82"/>
-      <c r="C40" s="206"/>
-      <c r="D40" s="207"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="208"/>
       <c r="E40" s="95" t="s">
         <v>155</v>
       </c>
@@ -6325,8 +6347,8 @@
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
       <c r="B41" s="82"/>
-      <c r="C41" s="206"/>
-      <c r="D41" s="207"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="208"/>
       <c r="E41" s="95" t="s">
         <v>166</v>
       </c>
@@ -6338,8 +6360,8 @@
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
       <c r="B42" s="82"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="207"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="208"/>
       <c r="E42" s="95" t="s">
         <v>167</v>
       </c>
@@ -6351,8 +6373,8 @@
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1">
       <c r="B43" s="82"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="207"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="208"/>
       <c r="E43" s="95" t="s">
         <v>154</v>
       </c>
@@ -6364,8 +6386,8 @@
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1">
       <c r="B44" s="82"/>
-      <c r="C44" s="206"/>
-      <c r="D44" s="207"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
       <c r="E44" s="95" t="s">
         <v>156</v>
       </c>
@@ -6385,10 +6407,10 @@
       <c r="H45" s="87"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B47" s="211" t="s">
+      <c r="B47" s="209" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="212"/>
+      <c r="C47" s="210"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
       <c r="B48" s="97"/>
@@ -6422,8 +6444,8 @@
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
       <c r="B50" s="82"/>
-      <c r="C50" s="200"/>
-      <c r="D50" s="203" t="s">
+      <c r="C50" s="213"/>
+      <c r="D50" s="216" t="s">
         <v>288</v>
       </c>
       <c r="E50" s="93" t="s">
@@ -6437,8 +6459,8 @@
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
       <c r="B51" s="82"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="204"/>
+      <c r="C51" s="214"/>
+      <c r="D51" s="217"/>
       <c r="E51" s="94" t="s">
         <v>184</v>
       </c>
@@ -6450,8 +6472,8 @@
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
       <c r="B52" s="82"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="204"/>
+      <c r="C52" s="214"/>
+      <c r="D52" s="217"/>
       <c r="E52" s="95" t="s">
         <v>185</v>
       </c>
@@ -6463,8 +6485,8 @@
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
       <c r="B53" s="82"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="204"/>
+      <c r="C53" s="214"/>
+      <c r="D53" s="217"/>
       <c r="E53" s="95" t="s">
         <v>186</v>
       </c>
@@ -6476,8 +6498,8 @@
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
       <c r="B54" s="82"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="204"/>
+      <c r="C54" s="214"/>
+      <c r="D54" s="217"/>
       <c r="E54" s="95" t="s">
         <v>187</v>
       </c>
@@ -6489,8 +6511,8 @@
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
       <c r="B55" s="82"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="204"/>
+      <c r="C55" s="214"/>
+      <c r="D55" s="217"/>
       <c r="E55" s="95" t="s">
         <v>156</v>
       </c>
@@ -6502,8 +6524,8 @@
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
       <c r="B56" s="82"/>
-      <c r="C56" s="201"/>
-      <c r="D56" s="204"/>
+      <c r="C56" s="214"/>
+      <c r="D56" s="217"/>
       <c r="E56" s="95" t="s">
         <v>188</v>
       </c>
@@ -6515,8 +6537,8 @@
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
       <c r="B57" s="82"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="204"/>
+      <c r="C57" s="214"/>
+      <c r="D57" s="217"/>
       <c r="E57" s="95" t="s">
         <v>190</v>
       </c>
@@ -6528,8 +6550,8 @@
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
       <c r="B58" s="82"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="204"/>
+      <c r="C58" s="214"/>
+      <c r="D58" s="217"/>
       <c r="E58" s="95" t="s">
         <v>192</v>
       </c>
@@ -6541,8 +6563,8 @@
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
       <c r="B59" s="82"/>
-      <c r="C59" s="202"/>
-      <c r="D59" s="205"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="218"/>
       <c r="E59" s="95" t="s">
         <v>193</v>
       </c>
@@ -6584,8 +6606,8 @@
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
       <c r="B63" s="82"/>
-      <c r="C63" s="196"/>
-      <c r="D63" s="198" t="s">
+      <c r="C63" s="199"/>
+      <c r="D63" s="211" t="s">
         <v>161</v>
       </c>
       <c r="E63" s="27" t="s">
@@ -6599,8 +6621,8 @@
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
       <c r="B64" s="82"/>
-      <c r="C64" s="197"/>
-      <c r="D64" s="199"/>
+      <c r="C64" s="206"/>
+      <c r="D64" s="212"/>
       <c r="E64" s="27" t="s">
         <v>178</v>
       </c>
@@ -6640,8 +6662,8 @@
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1">
       <c r="B68" s="82"/>
-      <c r="C68" s="196"/>
-      <c r="D68" s="198" t="s">
+      <c r="C68" s="199"/>
+      <c r="D68" s="211" t="s">
         <v>175</v>
       </c>
       <c r="E68" s="27" t="s">
@@ -6655,8 +6677,8 @@
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1">
       <c r="B69" s="82"/>
-      <c r="C69" s="197"/>
-      <c r="D69" s="199"/>
+      <c r="C69" s="206"/>
+      <c r="D69" s="212"/>
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
       <c r="G69" s="67"/>
@@ -6694,8 +6716,8 @@
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1">
       <c r="B73" s="82"/>
-      <c r="C73" s="206"/>
-      <c r="D73" s="207" t="s">
+      <c r="C73" s="207"/>
+      <c r="D73" s="208" t="s">
         <v>201</v>
       </c>
       <c r="E73" s="91" t="s">
@@ -6709,8 +6731,8 @@
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1">
       <c r="B74" s="82"/>
-      <c r="C74" s="206"/>
-      <c r="D74" s="207"/>
+      <c r="C74" s="207"/>
+      <c r="D74" s="208"/>
       <c r="E74" s="101" t="s">
         <v>150</v>
       </c>
@@ -6722,8 +6744,8 @@
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1">
       <c r="B75" s="82"/>
-      <c r="C75" s="206"/>
-      <c r="D75" s="207"/>
+      <c r="C75" s="207"/>
+      <c r="D75" s="208"/>
       <c r="E75" s="101" t="s">
         <v>152</v>
       </c>
@@ -6735,8 +6757,8 @@
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1">
       <c r="B76" s="82"/>
-      <c r="C76" s="206"/>
-      <c r="D76" s="207"/>
+      <c r="C76" s="207"/>
+      <c r="D76" s="208"/>
       <c r="E76" s="101" t="s">
         <v>202</v>
       </c>
@@ -6748,8 +6770,8 @@
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1">
       <c r="B77" s="82"/>
-      <c r="C77" s="206"/>
-      <c r="D77" s="207"/>
+      <c r="C77" s="207"/>
+      <c r="D77" s="208"/>
       <c r="E77" s="101" t="s">
         <v>182</v>
       </c>
@@ -6770,14 +6792,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C12:C22"/>
-    <mergeCell ref="D12:D22"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="C73:C77"/>
     <mergeCell ref="D73:D77"/>
     <mergeCell ref="B25:G25"/>
@@ -6792,6 +6806,14 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="C50:C59"/>
     <mergeCell ref="D50:D59"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C12:C22"/>
+    <mergeCell ref="D12:D22"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6804,10 +6826,10 @@
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S145"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="41" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8229,15 +8251,17 @@
     </row>
     <row r="78" spans="2:19" ht="15" customHeight="1">
       <c r="B78" s="127"/>
-      <c r="C78" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="138" t="s">
-        <v>222</v>
+      <c r="C78" s="242" t="s">
+        <v>355</v>
+      </c>
+      <c r="D78" s="131" t="s">
+        <v>354</v>
       </c>
       <c r="E78" s="136"/>
       <c r="F78" s="136"/>
-      <c r="G78" s="136"/>
+      <c r="G78" s="136" t="s">
+        <v>211</v>
+      </c>
       <c r="H78" s="131"/>
       <c r="I78" s="131"/>
       <c r="J78" s="163"/>
@@ -8247,92 +8271,90 @@
     </row>
     <row r="79" spans="2:19" ht="15" customHeight="1">
       <c r="B79" s="127"/>
-      <c r="J79" s="164"/>
+      <c r="C79" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="136"/>
+      <c r="F79" s="136"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="163"/>
       <c r="K79"/>
       <c r="R79"/>
       <c r="S79"/>
     </row>
     <row r="80" spans="2:19" ht="15" customHeight="1">
       <c r="B80" s="127"/>
-      <c r="C80" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80" s="106"/>
+      <c r="J80" s="164"/>
       <c r="K80"/>
       <c r="R80"/>
       <c r="S80"/>
     </row>
     <row r="81" spans="2:19" ht="15" customHeight="1">
       <c r="B81" s="127"/>
-      <c r="C81" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="D81" s="132" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="F81" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="G81" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="133" t="s">
-        <v>345</v>
-      </c>
-      <c r="J81" s="162"/>
+      <c r="C81" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81" s="106"/>
       <c r="K81"/>
       <c r="R81"/>
       <c r="S81"/>
     </row>
     <row r="82" spans="2:19" ht="15" customHeight="1">
       <c r="B82" s="127"/>
-      <c r="C82" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E82" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F82" s="135"/>
-      <c r="G82" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="H82" s="134"/>
-      <c r="I82" s="134"/>
-      <c r="J82" s="163"/>
+      <c r="C82" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="133" t="s">
+        <v>345</v>
+      </c>
+      <c r="J82" s="162"/>
       <c r="K82"/>
       <c r="R82"/>
       <c r="S82"/>
     </row>
     <row r="83" spans="2:19" ht="15" customHeight="1">
       <c r="B83" s="127"/>
-      <c r="C83" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="138" t="s">
-        <v>340</v>
-      </c>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
-      <c r="G83" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
+      <c r="C83" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83" s="135"/>
+      <c r="G83" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
       <c r="J83" s="163"/>
       <c r="K83"/>
       <c r="R83"/>
@@ -8341,22 +8363,18 @@
     <row r="84" spans="2:19" ht="15" customHeight="1">
       <c r="B84" s="127"/>
       <c r="C84" s="131" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="113" t="s">
-        <v>226</v>
+        <v>149</v>
+      </c>
+      <c r="D84" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="E84" s="136"/>
       <c r="F84" s="136"/>
       <c r="G84" s="136" t="s">
         <v>211</v>
       </c>
-      <c r="H84" s="131" t="s">
-        <v>314</v>
-      </c>
-      <c r="I84" s="155" t="s">
-        <v>93</v>
-      </c>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131"/>
       <c r="J84" s="163"/>
       <c r="K84"/>
       <c r="R84"/>
@@ -8364,184 +8382,195 @@
     </row>
     <row r="85" spans="2:19" ht="15" customHeight="1">
       <c r="B85" s="127"/>
-      <c r="C85" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="117" t="s">
-        <v>222</v>
+      <c r="C85" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" s="113" t="s">
+        <v>226</v>
       </c>
       <c r="E85" s="136"/>
       <c r="F85" s="136"/>
-      <c r="G85" s="136"/>
-      <c r="H85" s="131"/>
-      <c r="I85" s="131"/>
+      <c r="G85" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H85" s="131" t="s">
+        <v>314</v>
+      </c>
+      <c r="I85" s="155" t="s">
+        <v>93</v>
+      </c>
       <c r="J85" s="163"/>
       <c r="K85"/>
       <c r="R85"/>
-    </row>
-    <row r="86" spans="2:19" ht="15" customHeight="1" thickBot="1">
-      <c r="B86" s="128"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="107"/>
-      <c r="J86" s="108"/>
+      <c r="S85"/>
+    </row>
+    <row r="86" spans="2:19" ht="15" customHeight="1">
+      <c r="B86" s="127"/>
+      <c r="C86" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
+      <c r="G86" s="136"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
+      <c r="J86" s="163"/>
       <c r="K86"/>
       <c r="R86"/>
-      <c r="S86"/>
     </row>
     <row r="87" spans="2:19" ht="15" customHeight="1" thickBot="1">
+      <c r="B87" s="128"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="108"/>
+      <c r="K87"/>
+      <c r="R87"/>
       <c r="S87"/>
     </row>
-    <row r="88" spans="2:19" ht="15" customHeight="1">
-      <c r="B88" s="185" t="s">
+    <row r="88" spans="2:19" ht="15" customHeight="1" thickBot="1">
+      <c r="S88"/>
+    </row>
+    <row r="89" spans="2:19" ht="15" customHeight="1">
+      <c r="B89" s="185" t="s">
         <v>221</v>
       </c>
-      <c r="C88" s="186"/>
-      <c r="D88" s="104"/>
-      <c r="E88" s="104"/>
-      <c r="F88" s="104"/>
-      <c r="G88" s="104"/>
-      <c r="H88" s="104"/>
-      <c r="I88" s="104"/>
-      <c r="J88" s="105"/>
-      <c r="S88"/>
-    </row>
-    <row r="89" spans="2:19" ht="15" customHeight="1">
-      <c r="B89" s="148"/>
-      <c r="C89" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89" s="106"/>
+      <c r="C89" s="186"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="104"/>
+      <c r="F89" s="104"/>
+      <c r="G89" s="104"/>
+      <c r="H89" s="104"/>
+      <c r="I89" s="104"/>
+      <c r="J89" s="105"/>
       <c r="S89"/>
     </row>
     <row r="90" spans="2:19" ht="15" customHeight="1">
       <c r="B90" s="148"/>
-      <c r="C90" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" s="132" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="G90" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="H90" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="I90" s="133" t="s">
-        <v>345</v>
-      </c>
+      <c r="C90" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
       <c r="J90" s="106"/>
       <c r="S90"/>
     </row>
     <row r="91" spans="2:19" ht="15" customHeight="1">
       <c r="B91" s="148"/>
-      <c r="C91" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E91" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F91" s="135"/>
-      <c r="G91" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="H91" s="134"/>
-      <c r="I91" s="134"/>
+      <c r="C91" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="I91" s="133" t="s">
+        <v>345</v>
+      </c>
       <c r="J91" s="106"/>
       <c r="S91"/>
     </row>
     <row r="92" spans="2:19" ht="15" customHeight="1">
       <c r="B92" s="148"/>
-      <c r="C92" s="131" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" s="136"/>
-      <c r="F92" s="136"/>
-      <c r="G92" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="H92" s="131" t="s">
-        <v>219</v>
-      </c>
-      <c r="I92" s="155" t="s">
-        <v>93</v>
-      </c>
+      <c r="C92" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F92" s="135"/>
+      <c r="G92" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H92" s="134"/>
+      <c r="I92" s="134"/>
       <c r="J92" s="106"/>
-      <c r="R92"/>
+      <c r="S92"/>
     </row>
     <row r="93" spans="2:19" ht="15" customHeight="1">
       <c r="B93" s="148"/>
       <c r="C93" s="131" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D93" s="113" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E93" s="136"/>
       <c r="F93" s="136"/>
-      <c r="G93" s="136"/>
+      <c r="G93" s="136" t="s">
+        <v>211</v>
+      </c>
       <c r="H93" s="131" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="I93" s="155" t="s">
         <v>93</v>
       </c>
       <c r="J93" s="106"/>
+      <c r="R93"/>
     </row>
     <row r="94" spans="2:19" ht="15" customHeight="1">
       <c r="B94" s="148"/>
-      <c r="C94" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D94" s="117" t="s">
-        <v>222</v>
+      <c r="C94" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="113" t="s">
+        <v>226</v>
       </c>
       <c r="E94" s="136"/>
       <c r="F94" s="136"/>
       <c r="G94" s="136"/>
-      <c r="H94" s="131"/>
-      <c r="I94" s="131"/>
+      <c r="H94" s="131" t="s">
+        <v>314</v>
+      </c>
+      <c r="I94" s="155" t="s">
+        <v>93</v>
+      </c>
       <c r="J94" s="106"/>
     </row>
     <row r="95" spans="2:19" ht="15" customHeight="1">
       <c r="B95" s="148"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
+      <c r="C95" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="136"/>
+      <c r="F95" s="136"/>
+      <c r="G95" s="136"/>
+      <c r="H95" s="131"/>
+      <c r="I95" s="131"/>
       <c r="J95" s="106"/>
     </row>
     <row r="96" spans="2:19" ht="15" customHeight="1">
       <c r="B96" s="148"/>
-      <c r="C96" s="59" t="s">
-        <v>320</v>
-      </c>
+      <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
@@ -8552,76 +8581,68 @@
     </row>
     <row r="97" spans="2:19" ht="15" customHeight="1">
       <c r="B97" s="148"/>
-      <c r="C97" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="D97" s="132" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="F97" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="G97" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="H97" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="I97" s="133" t="s">
-        <v>345</v>
-      </c>
+      <c r="C97" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
       <c r="J97" s="106"/>
     </row>
     <row r="98" spans="2:19" ht="15" customHeight="1">
       <c r="B98" s="148"/>
-      <c r="C98" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E98" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F98" s="135"/>
-      <c r="G98" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="H98" s="134"/>
-      <c r="I98" s="134"/>
+      <c r="C98" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="F98" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H98" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="I98" s="133" t="s">
+        <v>345</v>
+      </c>
       <c r="J98" s="106"/>
     </row>
     <row r="99" spans="2:19" ht="15" customHeight="1">
       <c r="B99" s="148"/>
-      <c r="C99" s="131" t="s">
-        <v>218</v>
-      </c>
-      <c r="D99" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="E99" s="136"/>
-      <c r="F99" s="136"/>
-      <c r="G99" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="H99" s="131" t="s">
-        <v>219</v>
-      </c>
-      <c r="I99" s="155" t="s">
-        <v>93</v>
-      </c>
+      <c r="C99" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" s="135"/>
+      <c r="G99" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="134"/>
+      <c r="I99" s="134"/>
       <c r="J99" s="106"/>
     </row>
     <row r="100" spans="2:19" ht="15" customHeight="1">
       <c r="B100" s="148"/>
       <c r="C100" s="131" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D100" s="113" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E100" s="136"/>
       <c r="F100" s="136"/>
@@ -8629,7 +8650,7 @@
         <v>211</v>
       </c>
       <c r="H100" s="131" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="I100" s="155" t="s">
         <v>93</v>
@@ -8638,37 +8659,44 @@
     </row>
     <row r="101" spans="2:19" ht="15" customHeight="1">
       <c r="B101" s="148"/>
-      <c r="C101" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" s="117" t="s">
-        <v>222</v>
+      <c r="C101" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" s="113" t="s">
+        <v>226</v>
       </c>
       <c r="E101" s="136"/>
       <c r="F101" s="136"/>
-      <c r="G101" s="136"/>
-      <c r="H101" s="131"/>
-      <c r="I101" s="131"/>
+      <c r="G101" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H101" s="131" t="s">
+        <v>314</v>
+      </c>
+      <c r="I101" s="155" t="s">
+        <v>93</v>
+      </c>
       <c r="J101" s="106"/>
-      <c r="S101"/>
     </row>
     <row r="102" spans="2:19" ht="15" customHeight="1">
       <c r="B102" s="148"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
+      <c r="C102" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="136"/>
+      <c r="F102" s="136"/>
+      <c r="G102" s="136"/>
+      <c r="H102" s="131"/>
+      <c r="I102" s="131"/>
       <c r="J102" s="106"/>
       <c r="S102"/>
     </row>
     <row r="103" spans="2:19" ht="15" customHeight="1">
       <c r="B103" s="148"/>
-      <c r="C103" s="110" t="s">
-        <v>323</v>
-      </c>
+      <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
@@ -8679,77 +8707,70 @@
       <c r="S103"/>
     </row>
     <row r="104" spans="2:19" ht="15" customHeight="1">
-      <c r="B104" s="127"/>
-      <c r="C104" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="D104" s="132" t="s">
-        <v>210</v>
-      </c>
-      <c r="E104" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="F104" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="G104" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="H104" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="I104" s="133" t="s">
-        <v>345</v>
-      </c>
-      <c r="J104" s="164"/>
+      <c r="B104" s="148"/>
+      <c r="C104" s="110" t="s">
+        <v>323</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104" s="106"/>
+      <c r="S104"/>
     </row>
     <row r="105" spans="2:19" ht="15" customHeight="1">
       <c r="B105" s="127"/>
-      <c r="C105" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E105" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F105" s="135"/>
-      <c r="G105" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="H105" s="134"/>
-      <c r="I105" s="134"/>
+      <c r="C105" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H105" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="I105" s="133" t="s">
+        <v>345</v>
+      </c>
       <c r="J105" s="164"/>
     </row>
     <row r="106" spans="2:19" ht="15" customHeight="1">
       <c r="B106" s="127"/>
-      <c r="C106" s="131" t="s">
-        <v>218</v>
-      </c>
-      <c r="D106" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="E106" s="136"/>
-      <c r="F106" s="136"/>
-      <c r="G106" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="H106" s="131" t="s">
-        <v>219</v>
-      </c>
-      <c r="I106" s="155" t="s">
-        <v>93</v>
-      </c>
+      <c r="C106" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D106" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="E106" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F106" s="135"/>
+      <c r="G106" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H106" s="134"/>
+      <c r="I106" s="134"/>
       <c r="J106" s="164"/>
     </row>
     <row r="107" spans="2:19" ht="15" customHeight="1">
       <c r="B107" s="127"/>
       <c r="C107" s="131" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D107" s="113" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E107" s="136"/>
       <c r="F107" s="136"/>
@@ -8757,7 +8778,7 @@
         <v>211</v>
       </c>
       <c r="H107" s="131" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="I107" s="155" t="s">
         <v>93</v>
@@ -8766,102 +8787,108 @@
     </row>
     <row r="108" spans="2:19" ht="15" customHeight="1">
       <c r="B108" s="127"/>
-      <c r="C108" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D108" s="117" t="s">
-        <v>222</v>
+      <c r="C108" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="113" t="s">
+        <v>226</v>
       </c>
       <c r="E108" s="136"/>
       <c r="F108" s="136"/>
-      <c r="G108" s="136"/>
-      <c r="H108" s="131"/>
-      <c r="I108" s="131"/>
+      <c r="G108" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H108" s="131" t="s">
+        <v>314</v>
+      </c>
+      <c r="I108" s="155" t="s">
+        <v>93</v>
+      </c>
       <c r="J108" s="164"/>
     </row>
-    <row r="109" spans="2:19" ht="15" customHeight="1" thickBot="1">
-      <c r="B109" s="128"/>
-      <c r="C109" s="129"/>
-      <c r="D109" s="129"/>
-      <c r="E109" s="129"/>
-      <c r="F109" s="129"/>
-      <c r="G109" s="129"/>
-      <c r="H109" s="129"/>
-      <c r="I109" s="129"/>
-      <c r="J109" s="166"/>
-    </row>
-    <row r="112" spans="2:19" ht="15" customHeight="1">
-      <c r="C112" s="121" t="s">
+    <row r="109" spans="2:19" ht="15" customHeight="1">
+      <c r="B109" s="127"/>
+      <c r="C109" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" s="136"/>
+      <c r="F109" s="136"/>
+      <c r="G109" s="136"/>
+      <c r="H109" s="131"/>
+      <c r="I109" s="131"/>
+      <c r="J109" s="164"/>
+    </row>
+    <row r="110" spans="2:19" ht="15" customHeight="1" thickBot="1">
+      <c r="B110" s="128"/>
+      <c r="C110" s="129"/>
+      <c r="D110" s="129"/>
+      <c r="E110" s="129"/>
+      <c r="F110" s="129"/>
+      <c r="G110" s="129"/>
+      <c r="H110" s="129"/>
+      <c r="I110" s="129"/>
+      <c r="J110" s="166"/>
+    </row>
+    <row r="113" spans="3:9" ht="15" customHeight="1">
+      <c r="C113" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="D112" s="122"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="123"/>
-      <c r="G112" s="123"/>
-      <c r="H112" s="122"/>
-      <c r="I112" s="122"/>
-    </row>
-    <row r="113" spans="3:9" ht="15" customHeight="1">
-      <c r="C113" s="124" t="s">
+      <c r="D113" s="122"/>
+      <c r="E113" s="123"/>
+      <c r="F113" s="123"/>
+      <c r="G113" s="123"/>
+      <c r="H113" s="122"/>
+      <c r="I113" s="122"/>
+    </row>
+    <row r="114" spans="3:9" ht="15" customHeight="1">
+      <c r="C114" s="124" t="s">
         <v>209</v>
       </c>
-      <c r="D113" s="124" t="s">
+      <c r="D114" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="E113" s="125" t="s">
+      <c r="E114" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="F113" s="125" t="s">
+      <c r="F114" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="G113" s="125" t="s">
+      <c r="G114" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="H113" s="125" t="s">
+      <c r="H114" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="I113" s="133" t="s">
+      <c r="I114" s="133" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="114" spans="3:9" ht="15" customHeight="1">
-      <c r="C114" s="111" t="s">
+    <row r="115" spans="3:9" ht="15" customHeight="1">
+      <c r="C115" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="D114" s="111" t="s">
+      <c r="D115" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="E114" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="F114" s="112"/>
-      <c r="G114" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="H114" s="189"/>
-      <c r="I114" s="134"/>
-    </row>
-    <row r="115" spans="3:9" ht="15" customHeight="1">
-      <c r="C115" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="D115" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="E115" s="115"/>
-      <c r="F115" s="115"/>
-      <c r="G115" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="H115" s="190"/>
-      <c r="I115" s="131"/>
+      <c r="E115" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="F115" s="112"/>
+      <c r="G115" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="H115" s="189"/>
+      <c r="I115" s="134"/>
     </row>
     <row r="116" spans="3:9" ht="15" customHeight="1">
       <c r="C116" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="D116" s="117" t="s">
-        <v>222</v>
+        <v>185</v>
+      </c>
+      <c r="D116" s="114" t="s">
+        <v>230</v>
       </c>
       <c r="E116" s="115"/>
       <c r="F116" s="115"/>
@@ -8872,18 +8899,22 @@
       <c r="I116" s="131"/>
     </row>
     <row r="117" spans="3:9" ht="15" customHeight="1">
-      <c r="C117" s="122"/>
-      <c r="D117" s="122"/>
-      <c r="E117" s="123"/>
-      <c r="F117" s="123"/>
-      <c r="G117" s="123"/>
-      <c r="H117" s="122"/>
-      <c r="I117" s="122"/>
+      <c r="C117" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="D117" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E117" s="115"/>
+      <c r="F117" s="115"/>
+      <c r="G117" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="H117" s="190"/>
+      <c r="I117" s="131"/>
     </row>
     <row r="118" spans="3:9" ht="15" customHeight="1">
-      <c r="C118" s="121" t="s">
-        <v>317</v>
-      </c>
+      <c r="C118" s="122"/>
       <c r="D118" s="122"/>
       <c r="E118" s="123"/>
       <c r="F118" s="123"/>
@@ -8892,64 +8923,62 @@
       <c r="I118" s="122"/>
     </row>
     <row r="119" spans="3:9" ht="15" customHeight="1">
-      <c r="C119" s="132" t="s">
+      <c r="C119" s="121" t="s">
+        <v>317</v>
+      </c>
+      <c r="D119" s="122"/>
+      <c r="E119" s="123"/>
+      <c r="F119" s="123"/>
+      <c r="G119" s="123"/>
+      <c r="H119" s="122"/>
+      <c r="I119" s="122"/>
+    </row>
+    <row r="120" spans="3:9" ht="15" customHeight="1">
+      <c r="C120" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="D119" s="132" t="s">
+      <c r="D120" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="E119" s="133" t="s">
+      <c r="E120" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="F119" s="133" t="s">
+      <c r="F120" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="G119" s="133" t="s">
+      <c r="G120" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="H119" s="133" t="s">
+      <c r="H120" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="I119" s="133" t="s">
+      <c r="I120" s="133" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="120" spans="3:9" ht="15" customHeight="1">
-      <c r="C120" s="134" t="s">
+    <row r="121" spans="3:9" ht="15" customHeight="1">
+      <c r="C121" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D120" s="111" t="s">
+      <c r="D121" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="E120" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F120" s="135"/>
-      <c r="G120" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="H120" s="134"/>
-      <c r="I120" s="134"/>
-    </row>
-    <row r="121" spans="3:9" ht="15" customHeight="1">
-      <c r="C121" s="131" t="s">
-        <v>187</v>
-      </c>
-      <c r="D121" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="E121" s="136"/>
-      <c r="F121" s="136"/>
-      <c r="G121" s="136"/>
-      <c r="H121" s="131"/>
-      <c r="I121" s="131"/>
+      <c r="E121" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F121" s="135"/>
+      <c r="G121" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H121" s="134"/>
+      <c r="I121" s="134"/>
     </row>
     <row r="122" spans="3:9" ht="15" customHeight="1">
       <c r="C122" s="131" t="s">
-        <v>206</v>
-      </c>
-      <c r="D122" s="117" t="s">
-        <v>222</v>
+        <v>187</v>
+      </c>
+      <c r="D122" s="114" t="s">
+        <v>234</v>
       </c>
       <c r="E122" s="136"/>
       <c r="F122" s="136"/>
@@ -8958,19 +8987,21 @@
       <c r="I122" s="131"/>
     </row>
     <row r="123" spans="3:9" ht="15" customHeight="1">
-      <c r="C123" s="109"/>
-      <c r="D123" s="109"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
+      <c r="C123" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E123" s="136"/>
+      <c r="F123" s="136"/>
+      <c r="G123" s="136"/>
+      <c r="H123" s="131"/>
+      <c r="I123" s="131"/>
     </row>
     <row r="124" spans="3:9" ht="15" customHeight="1">
-      <c r="C124" s="110" t="s">
-        <v>315</v>
-      </c>
-      <c r="D124"/>
+      <c r="C124" s="109"/>
+      <c r="D124" s="109"/>
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124"/>
@@ -8978,303 +9009,536 @@
       <c r="I124"/>
     </row>
     <row r="125" spans="3:9" ht="15" customHeight="1">
-      <c r="C125" s="132" t="s">
+      <c r="C125" s="110" t="s">
+        <v>315</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="3:9" ht="15" customHeight="1">
+      <c r="C126" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="D125" s="132" t="s">
+      <c r="D126" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="E125" s="133" t="s">
+      <c r="E126" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="F125" s="133" t="s">
+      <c r="F126" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="G125" s="133" t="s">
+      <c r="G126" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="H125" s="133" t="s">
+      <c r="H126" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="I125" s="133" t="s">
+      <c r="I126" s="133" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="3:9" ht="15" customHeight="1">
-      <c r="C126" s="134" t="s">
+    <row r="127" spans="3:9" ht="15" customHeight="1">
+      <c r="C127" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D126" s="111" t="s">
+      <c r="D127" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="E126" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F126" s="135"/>
-      <c r="G126" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="H126" s="134"/>
-      <c r="I126" s="134"/>
-    </row>
-    <row r="127" spans="3:9" ht="15" customHeight="1">
-      <c r="C127" s="131" t="s">
-        <v>182</v>
-      </c>
-      <c r="D127" s="138" t="s">
-        <v>242</v>
-      </c>
-      <c r="E127" s="136"/>
-      <c r="F127" s="136"/>
-      <c r="G127" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="H127" s="131"/>
-      <c r="I127" s="131"/>
+      <c r="E127" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F127" s="135"/>
+      <c r="G127" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H127" s="134"/>
+      <c r="I127" s="134"/>
     </row>
     <row r="128" spans="3:9" ht="15" customHeight="1">
       <c r="C128" s="131" t="s">
-        <v>218</v>
-      </c>
-      <c r="D128" s="113" t="s">
-        <v>233</v>
+        <v>182</v>
+      </c>
+      <c r="D128" s="138" t="s">
+        <v>242</v>
       </c>
       <c r="E128" s="136"/>
       <c r="F128" s="136"/>
       <c r="G128" s="136" t="s">
         <v>211</v>
       </c>
-      <c r="H128" s="131" t="s">
-        <v>219</v>
-      </c>
+      <c r="H128" s="131"/>
       <c r="I128" s="131"/>
     </row>
     <row r="129" spans="3:9" ht="15" customHeight="1">
       <c r="C129" s="131" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D129" s="113" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E129" s="136"/>
       <c r="F129" s="136"/>
-      <c r="G129" s="136"/>
+      <c r="G129" s="136" t="s">
+        <v>211</v>
+      </c>
       <c r="H129" s="131" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="I129" s="131"/>
     </row>
     <row r="130" spans="3:9" ht="15" customHeight="1">
-      <c r="C130" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D130" s="117" t="s">
-        <v>222</v>
+      <c r="C130" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" s="113" t="s">
+        <v>226</v>
       </c>
       <c r="E130" s="136"/>
       <c r="F130" s="136"/>
       <c r="G130" s="136"/>
-      <c r="H130" s="131"/>
+      <c r="H130" s="131" t="s">
+        <v>314</v>
+      </c>
       <c r="I130" s="131"/>
     </row>
-    <row r="132" spans="3:9" ht="15" customHeight="1">
-      <c r="C132" s="110" t="s">
+    <row r="131" spans="3:9" ht="15" customHeight="1">
+      <c r="C131" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E131" s="136"/>
+      <c r="F131" s="136"/>
+      <c r="G131" s="136"/>
+      <c r="H131" s="131"/>
+      <c r="I131" s="131"/>
+    </row>
+    <row r="133" spans="3:9" ht="15" customHeight="1">
+      <c r="C133" s="110" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="133" spans="3:9" ht="15" customHeight="1">
-      <c r="C133" s="132" t="s">
+    <row r="134" spans="3:9" ht="15" customHeight="1">
+      <c r="C134" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="D133" s="132" t="s">
+      <c r="D134" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="E133" s="133" t="s">
+      <c r="E134" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="F133" s="133" t="s">
+      <c r="F134" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="G133" s="133" t="s">
+      <c r="G134" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="H133" s="133" t="s">
+      <c r="H134" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="I133" s="133" t="s">
+      <c r="I134" s="133" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="3:9" ht="15" customHeight="1">
-      <c r="C134" s="134" t="s">
+    <row r="135" spans="3:9" ht="15" customHeight="1">
+      <c r="C135" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D134" s="111" t="s">
+      <c r="D135" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="E134" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F134" s="135"/>
-      <c r="G134" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="H134" s="134"/>
-      <c r="I134" s="134"/>
-    </row>
-    <row r="135" spans="3:9" ht="15" customHeight="1">
-      <c r="C135" s="131" t="s">
+      <c r="E135" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F135" s="135"/>
+      <c r="G135" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H135" s="134"/>
+      <c r="I135" s="134"/>
+    </row>
+    <row r="136" spans="3:9" ht="15" customHeight="1">
+      <c r="C136" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D135" s="113" t="s">
+      <c r="D136" s="113" t="s">
         <v>241</v>
-      </c>
-      <c r="E135" s="136"/>
-      <c r="F135" s="136"/>
-      <c r="G135" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="H135" s="131"/>
-      <c r="I135" s="131"/>
-    </row>
-    <row r="136" spans="3:9" ht="15" customHeight="1">
-      <c r="C136" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D136" s="117" t="s">
-        <v>222</v>
       </c>
       <c r="E136" s="136"/>
       <c r="F136" s="136"/>
-      <c r="G136" s="136"/>
+      <c r="G136" s="136" t="s">
+        <v>211</v>
+      </c>
       <c r="H136" s="131"/>
       <c r="I136" s="131"/>
     </row>
-    <row r="138" spans="3:9" ht="15" customHeight="1">
-      <c r="C138" s="59" t="s">
+    <row r="137" spans="3:9" ht="15" customHeight="1">
+      <c r="C137" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E137" s="136"/>
+      <c r="F137" s="136"/>
+      <c r="G137" s="136"/>
+      <c r="H137" s="131"/>
+      <c r="I137" s="131"/>
+    </row>
+    <row r="139" spans="3:9" ht="15" customHeight="1">
+      <c r="C139" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-    </row>
-    <row r="139" spans="3:9" ht="15" customHeight="1">
-      <c r="C139" s="132" t="s">
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+    </row>
+    <row r="140" spans="3:9" ht="15" customHeight="1">
+      <c r="C140" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="D139" s="132" t="s">
+      <c r="D140" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="E139" s="133" t="s">
+      <c r="E140" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="F139" s="133" t="s">
+      <c r="F140" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="G139" s="133" t="s">
+      <c r="G140" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="H139" s="133" t="s">
+      <c r="H140" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="I139" s="133" t="s">
+      <c r="I140" s="133" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="140" spans="3:9" ht="15" customHeight="1">
-      <c r="C140" s="134" t="s">
+    <row r="141" spans="3:9" ht="15" customHeight="1">
+      <c r="C141" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D140" s="111" t="s">
+      <c r="D141" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="E140" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F140" s="135"/>
-      <c r="G140" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="H140" s="134"/>
-      <c r="I140" s="134"/>
-    </row>
-    <row r="141" spans="3:9" ht="15" customHeight="1">
-      <c r="C141" s="131" t="s">
-        <v>182</v>
-      </c>
-      <c r="D141" s="138" t="s">
-        <v>342</v>
-      </c>
-      <c r="E141" s="136"/>
-      <c r="F141" s="136"/>
-      <c r="G141" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="H141" s="131"/>
-      <c r="I141" s="131"/>
+      <c r="E141" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F141" s="135"/>
+      <c r="G141" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H141" s="134"/>
+      <c r="I141" s="134"/>
     </row>
     <row r="142" spans="3:9" ht="15" customHeight="1">
       <c r="C142" s="131" t="s">
-        <v>218</v>
-      </c>
-      <c r="D142" s="113" t="s">
-        <v>233</v>
+        <v>182</v>
+      </c>
+      <c r="D142" s="138" t="s">
+        <v>342</v>
       </c>
       <c r="E142" s="136"/>
       <c r="F142" s="136"/>
       <c r="G142" s="136" t="s">
         <v>211</v>
       </c>
-      <c r="H142" s="131" t="s">
-        <v>219</v>
-      </c>
+      <c r="H142" s="131"/>
       <c r="I142" s="131"/>
     </row>
     <row r="143" spans="3:9" ht="15" customHeight="1">
       <c r="C143" s="131" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="D143" s="113" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="E143" s="136"/>
       <c r="F143" s="136"/>
-      <c r="G143" s="136"/>
+      <c r="G143" s="136" t="s">
+        <v>211</v>
+      </c>
       <c r="H143" s="131" t="s">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="I143" s="131"/>
     </row>
     <row r="144" spans="3:9" ht="15" customHeight="1">
       <c r="C144" s="131" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="D144" s="113" t="s">
-        <v>226</v>
+        <v>341</v>
       </c>
       <c r="E144" s="136"/>
       <c r="F144" s="136"/>
       <c r="G144" s="136"/>
       <c r="H144" s="131" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I144" s="131"/>
     </row>
     <row r="145" spans="3:9" ht="15" customHeight="1">
-      <c r="C145" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D145" s="117" t="s">
-        <v>222</v>
+      <c r="C145" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="D145" s="113" t="s">
+        <v>226</v>
       </c>
       <c r="E145" s="136"/>
       <c r="F145" s="136"/>
       <c r="G145" s="136"/>
-      <c r="H145" s="131"/>
+      <c r="H145" s="131" t="s">
+        <v>314</v>
+      </c>
       <c r="I145" s="131"/>
+    </row>
+    <row r="146" spans="3:9" ht="15" customHeight="1">
+      <c r="C146" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D146" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" s="136"/>
+      <c r="F146" s="136"/>
+      <c r="G146" s="136"/>
+      <c r="H146" s="131"/>
+      <c r="I146" s="131"/>
+    </row>
+    <row r="148" spans="3:9" ht="15" customHeight="1">
+      <c r="C148" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+    </row>
+    <row r="149" spans="3:9" ht="15" customHeight="1">
+      <c r="C149" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D149" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="E149" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="G149" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H149" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="I149" s="133" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" ht="15" customHeight="1">
+      <c r="C150" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D150" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="E150" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F150" s="135"/>
+      <c r="G150" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H150" s="134"/>
+      <c r="I150" s="134"/>
+    </row>
+    <row r="151" spans="3:9" ht="15" customHeight="1">
+      <c r="C151" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="E151" s="136"/>
+      <c r="F151" s="136"/>
+      <c r="G151" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H151" s="131"/>
+      <c r="I151" s="155"/>
+    </row>
+    <row r="152" spans="3:9" ht="15" customHeight="1">
+      <c r="C152" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D152" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="E152" s="136"/>
+      <c r="F152" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="G152" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H152" s="131"/>
+      <c r="I152" s="155"/>
+    </row>
+    <row r="153" spans="3:9" ht="15" customHeight="1">
+      <c r="C153" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="D153" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="E153" s="136"/>
+      <c r="F153" s="136"/>
+      <c r="G153" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H153" s="131"/>
+      <c r="I153" s="155"/>
+    </row>
+    <row r="154" spans="3:9" ht="15" customHeight="1">
+      <c r="C154" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D154" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" s="136"/>
+      <c r="F154" s="136"/>
+      <c r="G154" s="136"/>
+      <c r="H154" s="131"/>
+      <c r="I154" s="131"/>
+    </row>
+    <row r="156" spans="3:9" ht="15" customHeight="1">
+      <c r="C156" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+    </row>
+    <row r="157" spans="3:9" ht="15" customHeight="1">
+      <c r="C157" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D157" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="E157" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="F157" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="G157" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H157" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="I157" s="133" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9" ht="15" customHeight="1">
+      <c r="C158" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="E158" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F158" s="135"/>
+      <c r="G158" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H158" s="134"/>
+      <c r="I158" s="134"/>
+    </row>
+    <row r="159" spans="3:9" ht="15" customHeight="1">
+      <c r="C159" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D159" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="E159" s="136"/>
+      <c r="F159" s="136"/>
+      <c r="G159" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H159" s="131"/>
+      <c r="I159" s="155"/>
+    </row>
+    <row r="160" spans="3:9" ht="15" customHeight="1">
+      <c r="C160" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D160" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="E160" s="136"/>
+      <c r="F160" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="G160" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H160" s="131"/>
+      <c r="I160" s="155"/>
+    </row>
+    <row r="161" spans="3:9" ht="15" customHeight="1">
+      <c r="C161" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="D161" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="E161" s="136"/>
+      <c r="F161" s="136"/>
+      <c r="G161" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="H161" s="131"/>
+      <c r="I161" s="155"/>
+    </row>
+    <row r="162" spans="3:9" ht="15" customHeight="1">
+      <c r="C162" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D162" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E162" s="136"/>
+      <c r="F162" s="136"/>
+      <c r="G162" s="136"/>
+      <c r="H162" s="131"/>
+      <c r="I162" s="131"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17"/>
@@ -9431,7 +9695,7 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/DB設計Withpets.xlsx
+++ b/DB設計Withpets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideyuki/Documents/LaravelSail/WithPets/WP_PJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E117E0E-751C-1445-A855-E681DE0768CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE91F7-D594-194A-8D56-05524E0CBBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コーディング規約" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="273">
   <si>
     <t>種類</t>
   </si>
@@ -1324,6 +1324,22 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>string('introduction'255)</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>string('img')</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>catImags</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1644,7 +1660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1954,11 +1970,33 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2496,19 +2534,73 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2521,50 +2613,8 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2622,17 +2672,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2982,8 +3035,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="193"/>
-      <c r="B9" s="193"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3058,7 +3111,7 @@
       <c r="D3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="197" t="s">
+      <c r="E3" s="202" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="152" t="s">
@@ -3078,7 +3131,7 @@
       <c r="D4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="203"/>
+      <c r="E4" s="220"/>
       <c r="F4" s="152" t="s">
         <v>214</v>
       </c>
@@ -3097,7 +3150,7 @@
       <c r="D5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="203"/>
+      <c r="E5" s="220"/>
       <c r="F5" s="152" t="s">
         <v>213</v>
       </c>
@@ -3112,7 +3165,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="165"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="203"/>
+      <c r="E6" s="220"/>
       <c r="F6" s="10"/>
       <c r="G6" s="151"/>
       <c r="H6" s="10"/>
@@ -3122,7 +3175,7 @@
     <row r="7" spans="2:10" ht="45" customHeight="1">
       <c r="C7" s="165"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="203"/>
+      <c r="E7" s="220"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="167"/>
@@ -3132,7 +3185,7 @@
     <row r="8" spans="2:10" ht="45" customHeight="1">
       <c r="C8" s="165"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="204"/>
+      <c r="E8" s="201"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3171,7 +3224,7 @@
       <c r="D11" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="221" t="s">
+      <c r="E11" s="225" t="s">
         <v>185</v>
       </c>
       <c r="F11" s="152" t="s">
@@ -3191,7 +3244,7 @@
       <c r="D12" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="203"/>
+      <c r="E12" s="220"/>
       <c r="F12" s="152" t="s">
         <v>178</v>
       </c>
@@ -3207,7 +3260,7 @@
       <c r="D13" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="203"/>
+      <c r="E13" s="220"/>
       <c r="F13" s="152" t="s">
         <v>180</v>
       </c>
@@ -3223,7 +3276,7 @@
       <c r="D14" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="203"/>
+      <c r="E14" s="220"/>
       <c r="F14" s="152" t="s">
         <v>181</v>
       </c>
@@ -3239,7 +3292,7 @@
       <c r="D15" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="203"/>
+      <c r="E15" s="220"/>
       <c r="F15" s="152" t="s">
         <v>182</v>
       </c>
@@ -3255,7 +3308,7 @@
       <c r="D16" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="203"/>
+      <c r="E16" s="220"/>
       <c r="F16" s="152" t="s">
         <v>183</v>
       </c>
@@ -3271,7 +3324,7 @@
       <c r="D17" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="204"/>
+      <c r="E17" s="201"/>
       <c r="F17" s="152" t="s">
         <v>184</v>
       </c>
@@ -3313,7 +3366,7 @@
       <c r="D20" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="221" t="s">
+      <c r="E20" s="225" t="s">
         <v>202</v>
       </c>
       <c r="F20" s="152" t="s">
@@ -3333,7 +3386,7 @@
       <c r="D21" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="203"/>
+      <c r="E21" s="220"/>
       <c r="F21" s="152" t="s">
         <v>181</v>
       </c>
@@ -3349,7 +3402,7 @@
       <c r="D22" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E22" s="203"/>
+      <c r="E22" s="220"/>
       <c r="F22" s="177" t="s">
         <v>67</v>
       </c>
@@ -3365,7 +3418,7 @@
       <c r="D23" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E23" s="203"/>
+      <c r="E23" s="220"/>
       <c r="F23" s="179" t="s">
         <v>179</v>
       </c>
@@ -3381,7 +3434,7 @@
       <c r="D24" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="203"/>
+      <c r="E24" s="220"/>
       <c r="F24" s="152" t="s">
         <v>182</v>
       </c>
@@ -3397,7 +3450,7 @@
       <c r="D25" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E25" s="203"/>
+      <c r="E25" s="220"/>
       <c r="F25" s="152" t="s">
         <v>183</v>
       </c>
@@ -3413,7 +3466,7 @@
       <c r="D26" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="204"/>
+      <c r="E26" s="201"/>
       <c r="F26" s="152" t="s">
         <v>184</v>
       </c>
@@ -3455,7 +3508,7 @@
       <c r="D29" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E29" s="221" t="s">
+      <c r="E29" s="225" t="s">
         <v>200</v>
       </c>
       <c r="F29" s="152" t="s">
@@ -3473,7 +3526,7 @@
       <c r="D30" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="203"/>
+      <c r="E30" s="220"/>
       <c r="F30" s="152" t="s">
         <v>178</v>
       </c>
@@ -3487,7 +3540,7 @@
       <c r="D31" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="203"/>
+      <c r="E31" s="220"/>
       <c r="F31" s="152" t="s">
         <v>180</v>
       </c>
@@ -3501,7 +3554,7 @@
       <c r="D32" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="203"/>
+      <c r="E32" s="220"/>
       <c r="F32" s="152" t="s">
         <v>181</v>
       </c>
@@ -3515,7 +3568,7 @@
       <c r="D33" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="203"/>
+      <c r="E33" s="220"/>
       <c r="F33" s="152" t="s">
         <v>182</v>
       </c>
@@ -3531,7 +3584,7 @@
       <c r="D34" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="203"/>
+      <c r="E34" s="220"/>
       <c r="F34" s="152" t="s">
         <v>183</v>
       </c>
@@ -3547,7 +3600,7 @@
       <c r="D35" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="204"/>
+      <c r="E35" s="201"/>
       <c r="F35" s="152" t="s">
         <v>184</v>
       </c>
@@ -3587,7 +3640,7 @@
       <c r="D38" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="221" t="s">
+      <c r="E38" s="225" t="s">
         <v>198</v>
       </c>
       <c r="F38" s="152" t="s">
@@ -3603,7 +3656,7 @@
       <c r="D39" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E39" s="203"/>
+      <c r="E39" s="220"/>
       <c r="F39" s="152" t="s">
         <v>181</v>
       </c>
@@ -3617,7 +3670,7 @@
       <c r="D40" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E40" s="203"/>
+      <c r="E40" s="220"/>
       <c r="F40" s="177" t="s">
         <v>67</v>
       </c>
@@ -3631,7 +3684,7 @@
       <c r="D41" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="203"/>
+      <c r="E41" s="220"/>
       <c r="F41" s="179" t="s">
         <v>179</v>
       </c>
@@ -3645,7 +3698,7 @@
       <c r="D42" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="203"/>
+      <c r="E42" s="220"/>
       <c r="F42" s="152" t="s">
         <v>182</v>
       </c>
@@ -3659,7 +3712,7 @@
       <c r="D43" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="203"/>
+      <c r="E43" s="220"/>
       <c r="F43" s="152" t="s">
         <v>183</v>
       </c>
@@ -3673,7 +3726,7 @@
       <c r="D44" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="204"/>
+      <c r="E44" s="201"/>
       <c r="F44" s="152" t="s">
         <v>184</v>
       </c>
@@ -3713,7 +3766,7 @@
       <c r="D47" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="221" t="s">
+      <c r="E47" s="225" t="s">
         <v>199</v>
       </c>
       <c r="F47" s="152" t="s">
@@ -3729,7 +3782,7 @@
       <c r="D48" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="222"/>
+      <c r="E48" s="226"/>
       <c r="F48" s="152" t="s">
         <v>181</v>
       </c>
@@ -3743,7 +3796,7 @@
       <c r="D49" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="222"/>
+      <c r="E49" s="226"/>
       <c r="F49" s="177" t="s">
         <v>67</v>
       </c>
@@ -3757,7 +3810,7 @@
       <c r="D50" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="222"/>
+      <c r="E50" s="226"/>
       <c r="F50" s="179" t="s">
         <v>179</v>
       </c>
@@ -3771,7 +3824,7 @@
       <c r="D51" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="E51" s="222"/>
+      <c r="E51" s="226"/>
       <c r="F51" s="152" t="s">
         <v>182</v>
       </c>
@@ -3785,7 +3838,7 @@
       <c r="D52" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="222"/>
+      <c r="E52" s="226"/>
       <c r="F52" s="152" t="s">
         <v>183</v>
       </c>
@@ -3799,7 +3852,7 @@
       <c r="D53" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="223"/>
+      <c r="E53" s="227"/>
       <c r="F53" s="152" t="s">
         <v>184</v>
       </c>
@@ -3845,8 +3898,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
+      <c r="A1" s="195"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -3870,208 +3923,208 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="230"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="234"/>
       <c r="D3" s="47"/>
       <c r="E3" s="48"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="235"/>
-      <c r="C4" s="225"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="229"/>
       <c r="D4" s="47"/>
       <c r="E4" s="49"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="225"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="229"/>
       <c r="D5" s="47"/>
       <c r="E5" s="49"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="235"/>
-      <c r="C6" s="226"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="230"/>
       <c r="D6" s="47"/>
       <c r="E6" s="49"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="235"/>
-      <c r="C7" s="231"/>
+      <c r="B7" s="239"/>
+      <c r="C7" s="235"/>
       <c r="D7" s="47"/>
       <c r="E7" s="50"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="225"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="229"/>
       <c r="D8" s="51"/>
       <c r="E8" s="50"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="225"/>
+      <c r="B9" s="239"/>
+      <c r="C9" s="229"/>
       <c r="D9" s="52"/>
       <c r="E9" s="50"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="235"/>
-      <c r="C10" s="225"/>
+      <c r="B10" s="239"/>
+      <c r="C10" s="229"/>
       <c r="D10" s="52"/>
       <c r="E10" s="50"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="226"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="230"/>
       <c r="D11" s="47"/>
       <c r="E11" s="50"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="231"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="235"/>
       <c r="D12" s="47"/>
       <c r="E12" s="11"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="225"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="229"/>
       <c r="D13" s="47"/>
       <c r="E13" s="50"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="235"/>
-      <c r="C14" s="225"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="229"/>
       <c r="D14" s="47"/>
       <c r="E14" s="49"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="235"/>
-      <c r="C15" s="225"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="52"/>
       <c r="E15" s="49"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="235"/>
-      <c r="C16" s="225"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="52"/>
       <c r="E16" s="49"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="232"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="236"/>
       <c r="D17" s="52"/>
       <c r="E17" s="49"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="235"/>
-      <c r="C18" s="226"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="230"/>
       <c r="D18" s="47"/>
       <c r="E18" s="50"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="233"/>
+      <c r="B19" s="239"/>
+      <c r="C19" s="237"/>
       <c r="D19" s="47"/>
       <c r="E19" s="12"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="235"/>
-      <c r="C20" s="225"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="235"/>
-      <c r="C21" s="225"/>
+      <c r="B21" s="239"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="235"/>
-      <c r="C22" s="226"/>
+      <c r="B22" s="239"/>
+      <c r="C22" s="230"/>
       <c r="D22" s="47"/>
       <c r="E22" s="54"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="235"/>
-      <c r="C23" s="224"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="228"/>
       <c r="D23" s="47"/>
       <c r="E23" s="49"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="235"/>
-      <c r="C24" s="225"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="47"/>
       <c r="E24" s="49"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="235"/>
-      <c r="C25" s="225"/>
+      <c r="B25" s="239"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="235"/>
-      <c r="C26" s="225"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="13"/>
       <c r="E26" s="55"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="235"/>
-      <c r="C27" s="225"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="236"/>
-      <c r="C28" s="226"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="230"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
       <c r="F28" s="1"/>
@@ -4081,11 +4134,11 @@
       <c r="B29" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="227" t="s">
+      <c r="C29" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="228"/>
-      <c r="E29" s="229"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
@@ -4093,11 +4146,11 @@
       <c r="B30" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="227" t="s">
+      <c r="C30" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="228"/>
-      <c r="E30" s="229"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="233"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -5250,14 +5303,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" customHeight="1">
       <c r="B2" s="70"/>
@@ -5291,10 +5344,10 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1">
       <c r="B4" s="74"/>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="197" t="s">
+      <c r="D4" s="202" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="42"/>
@@ -5304,8 +5357,8 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1">
       <c r="B5" s="74"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
       <c r="G5" s="65"/>
@@ -5313,8 +5366,8 @@
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1">
       <c r="B6" s="74"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="42"/>
       <c r="F6" s="66"/>
       <c r="G6" s="65"/>
@@ -5322,10 +5375,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1">
       <c r="B7" s="74"/>
-      <c r="C7" s="202" t="s">
+      <c r="C7" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="197" t="s">
+      <c r="D7" s="202" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="42"/>
@@ -5335,8 +5388,8 @@
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1">
       <c r="B8" s="74"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
       <c r="E8" s="42"/>
       <c r="F8" s="66"/>
       <c r="G8" s="65"/>
@@ -5379,8 +5432,8 @@
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1">
       <c r="B12" s="80"/>
-      <c r="C12" s="197"/>
-      <c r="D12" s="200"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="218"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="65"/>
@@ -5388,8 +5441,8 @@
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1">
       <c r="B13" s="80"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="200"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="218"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="65"/>
@@ -5397,8 +5450,8 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1">
       <c r="B14" s="80"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="200"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="218"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="65"/>
@@ -5406,8 +5459,8 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1">
       <c r="B15" s="80"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="200"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="218"/>
       <c r="E15" s="25"/>
       <c r="F15" s="68"/>
       <c r="G15" s="69"/>
@@ -5415,8 +5468,8 @@
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1">
       <c r="B16" s="80"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="200"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="25"/>
       <c r="F16" s="68"/>
       <c r="G16" s="69"/>
@@ -5424,8 +5477,8 @@
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1">
       <c r="B17" s="80"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="200"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="218"/>
       <c r="E17" s="25"/>
       <c r="F17" s="68"/>
       <c r="G17" s="69"/>
@@ -5433,8 +5486,8 @@
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1">
       <c r="B18" s="80"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="200"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="218"/>
       <c r="E18" s="25"/>
       <c r="F18" s="68"/>
       <c r="G18" s="69"/>
@@ -5442,8 +5495,8 @@
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1">
       <c r="B19" s="80"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="200"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="218"/>
       <c r="E19" s="25"/>
       <c r="F19" s="68"/>
       <c r="G19" s="69"/>
@@ -5451,8 +5504,8 @@
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1">
       <c r="B20" s="80"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="200"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="218"/>
       <c r="E20" s="25"/>
       <c r="F20" s="68"/>
       <c r="G20" s="69"/>
@@ -5460,8 +5513,8 @@
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1">
       <c r="B21" s="80"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="200"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="218"/>
       <c r="E21" s="25"/>
       <c r="F21" s="68"/>
       <c r="G21" s="69"/>
@@ -5469,8 +5522,8 @@
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
       <c r="B22" s="80"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="201"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="219"/>
       <c r="E22" s="40"/>
       <c r="F22" s="64"/>
       <c r="G22" s="69"/>
@@ -5486,14 +5539,14 @@
       <c r="H23" s="85"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="194" t="s">
+      <c r="B25" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="195"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1">
       <c r="B26" s="70"/>
@@ -5527,8 +5580,8 @@
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1">
       <c r="B28" s="74"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="197"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="202"/>
       <c r="E28" s="86"/>
       <c r="F28" s="67"/>
       <c r="G28" s="65"/>
@@ -5536,8 +5589,8 @@
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
       <c r="E29" s="86"/>
       <c r="F29" s="66"/>
       <c r="G29" s="65"/>
@@ -5554,11 +5607,11 @@
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1">
       <c r="B31" s="74"/>
-      <c r="C31" s="196" t="s">
+      <c r="C31" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
       <c r="H31" s="76"/>
@@ -5584,8 +5637,8 @@
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1">
       <c r="B33" s="74"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="239"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="203"/>
       <c r="E33" s="91"/>
       <c r="F33" s="25"/>
       <c r="G33" s="90"/>
@@ -5593,8 +5646,8 @@
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1">
       <c r="B34" s="74"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="206"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="197"/>
       <c r="E34" s="92"/>
       <c r="F34" s="87"/>
       <c r="G34" s="88"/>
@@ -5602,8 +5655,8 @@
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1">
       <c r="B35" s="74"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="206"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="197"/>
       <c r="E35" s="93"/>
       <c r="F35" s="25"/>
       <c r="G35" s="65"/>
@@ -5611,8 +5664,8 @@
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1">
       <c r="B36" s="74"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="206"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="197"/>
       <c r="E36" s="93"/>
       <c r="F36" s="25"/>
       <c r="G36" s="65"/>
@@ -5620,8 +5673,8 @@
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1">
       <c r="B37" s="80"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="206"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="197"/>
       <c r="E37" s="93"/>
       <c r="F37" s="68"/>
       <c r="G37" s="69"/>
@@ -5629,8 +5682,8 @@
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1">
       <c r="B38" s="80"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="206"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="197"/>
       <c r="E38" s="93"/>
       <c r="F38" s="68"/>
       <c r="G38" s="69"/>
@@ -5638,8 +5691,8 @@
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1">
       <c r="B39" s="80"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="206"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="197"/>
       <c r="E39" s="93"/>
       <c r="F39" s="68"/>
       <c r="G39" s="69"/>
@@ -5647,8 +5700,8 @@
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1">
       <c r="B40" s="80"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="206"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="197"/>
       <c r="E40" s="93"/>
       <c r="F40" s="68"/>
       <c r="G40" s="69"/>
@@ -5656,8 +5709,8 @@
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
       <c r="B41" s="80"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="206"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="197"/>
       <c r="E41" s="93"/>
       <c r="F41" s="68"/>
       <c r="G41" s="69"/>
@@ -5665,8 +5718,8 @@
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
       <c r="B42" s="80"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="206"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="197"/>
       <c r="E42" s="93"/>
       <c r="F42" s="68"/>
       <c r="G42" s="69"/>
@@ -5674,8 +5727,8 @@
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1">
       <c r="B43" s="80"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="206"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="197"/>
       <c r="E43" s="93"/>
       <c r="F43" s="68"/>
       <c r="G43" s="69"/>
@@ -5683,8 +5736,8 @@
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1">
       <c r="B44" s="80"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="206"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="197"/>
       <c r="E44" s="93"/>
       <c r="F44" s="68"/>
       <c r="G44" s="69"/>
@@ -5700,10 +5753,10 @@
       <c r="H45" s="85"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="208"/>
+      <c r="C47" s="205"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
       <c r="B48" s="95"/>
@@ -5737,8 +5790,8 @@
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
       <c r="B50" s="80"/>
-      <c r="C50" s="211"/>
-      <c r="D50" s="214"/>
+      <c r="C50" s="209"/>
+      <c r="D50" s="212"/>
       <c r="E50" s="91"/>
       <c r="F50" s="25"/>
       <c r="G50" s="90"/>
@@ -5746,8 +5799,8 @@
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
       <c r="B51" s="80"/>
-      <c r="C51" s="212"/>
-      <c r="D51" s="215"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="213"/>
       <c r="E51" s="92"/>
       <c r="F51" s="87"/>
       <c r="G51" s="65"/>
@@ -5755,8 +5808,8 @@
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
       <c r="B52" s="80"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="215"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="213"/>
       <c r="E52" s="93"/>
       <c r="F52" s="87"/>
       <c r="G52" s="69"/>
@@ -5764,8 +5817,8 @@
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
       <c r="B53" s="80"/>
-      <c r="C53" s="212"/>
-      <c r="D53" s="215"/>
+      <c r="C53" s="210"/>
+      <c r="D53" s="213"/>
       <c r="E53" s="93"/>
       <c r="F53" s="87"/>
       <c r="G53" s="69"/>
@@ -5773,8 +5826,8 @@
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
       <c r="B54" s="80"/>
-      <c r="C54" s="212"/>
-      <c r="D54" s="215"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="213"/>
       <c r="E54" s="93"/>
       <c r="F54" s="87"/>
       <c r="G54" s="69"/>
@@ -5782,8 +5835,8 @@
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
       <c r="B55" s="80"/>
-      <c r="C55" s="212"/>
-      <c r="D55" s="215"/>
+      <c r="C55" s="210"/>
+      <c r="D55" s="213"/>
       <c r="E55" s="93"/>
       <c r="F55" s="68"/>
       <c r="G55" s="69"/>
@@ -5791,8 +5844,8 @@
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
       <c r="B56" s="80"/>
-      <c r="C56" s="212"/>
-      <c r="D56" s="215"/>
+      <c r="C56" s="210"/>
+      <c r="D56" s="213"/>
       <c r="E56" s="93"/>
       <c r="F56" s="87"/>
       <c r="G56" s="69"/>
@@ -5800,8 +5853,8 @@
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
       <c r="B57" s="80"/>
-      <c r="C57" s="212"/>
-      <c r="D57" s="215"/>
+      <c r="C57" s="210"/>
+      <c r="D57" s="213"/>
       <c r="E57" s="93"/>
       <c r="F57" s="87"/>
       <c r="G57" s="69"/>
@@ -5809,8 +5862,8 @@
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
       <c r="B58" s="80"/>
-      <c r="C58" s="212"/>
-      <c r="D58" s="215"/>
+      <c r="C58" s="210"/>
+      <c r="D58" s="213"/>
       <c r="E58" s="93"/>
       <c r="F58" s="87"/>
       <c r="G58" s="69"/>
@@ -5818,8 +5871,8 @@
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
       <c r="B59" s="80"/>
-      <c r="C59" s="213"/>
-      <c r="D59" s="216"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="214"/>
       <c r="E59" s="93"/>
       <c r="F59" s="87"/>
       <c r="G59" s="69"/>
@@ -5857,8 +5910,8 @@
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
       <c r="B63" s="80"/>
-      <c r="C63" s="197"/>
-      <c r="D63" s="240"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="206"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="65"/>
@@ -5866,8 +5919,8 @@
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
       <c r="B64" s="80"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="210"/>
+      <c r="C64" s="201"/>
+      <c r="D64" s="207"/>
       <c r="E64" s="25"/>
       <c r="F64" s="40"/>
       <c r="G64" s="65"/>
@@ -5905,8 +5958,8 @@
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1">
       <c r="B68" s="80"/>
-      <c r="C68" s="197"/>
-      <c r="D68" s="209"/>
+      <c r="C68" s="202"/>
+      <c r="D68" s="208"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="65"/>
@@ -5914,8 +5967,8 @@
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1">
       <c r="B69" s="80"/>
-      <c r="C69" s="204"/>
-      <c r="D69" s="210"/>
+      <c r="C69" s="201"/>
+      <c r="D69" s="207"/>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
       <c r="G69" s="65"/>
@@ -5953,8 +6006,8 @@
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1">
       <c r="B73" s="80"/>
-      <c r="C73" s="205"/>
-      <c r="D73" s="206"/>
+      <c r="C73" s="196"/>
+      <c r="D73" s="197"/>
       <c r="E73" s="89"/>
       <c r="F73" s="99"/>
       <c r="G73" s="90"/>
@@ -5962,8 +6015,8 @@
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1">
       <c r="B74" s="80"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="206"/>
+      <c r="C74" s="196"/>
+      <c r="D74" s="197"/>
       <c r="E74" s="99"/>
       <c r="F74" s="99"/>
       <c r="G74" s="65"/>
@@ -5971,8 +6024,8 @@
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1">
       <c r="B75" s="80"/>
-      <c r="C75" s="205"/>
-      <c r="D75" s="206"/>
+      <c r="C75" s="196"/>
+      <c r="D75" s="197"/>
       <c r="E75" s="99"/>
       <c r="F75" s="99"/>
       <c r="G75" s="69"/>
@@ -5980,8 +6033,8 @@
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1">
       <c r="B76" s="80"/>
-      <c r="C76" s="205"/>
-      <c r="D76" s="206"/>
+      <c r="C76" s="196"/>
+      <c r="D76" s="197"/>
       <c r="E76" s="99"/>
       <c r="F76" s="99"/>
       <c r="G76" s="69"/>
@@ -5989,8 +6042,8 @@
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1">
       <c r="B77" s="80"/>
-      <c r="C77" s="205"/>
-      <c r="D77" s="206"/>
+      <c r="C77" s="196"/>
+      <c r="D77" s="197"/>
       <c r="E77" s="99"/>
       <c r="F77" s="99"/>
       <c r="G77" s="69"/>
@@ -6007,6 +6060,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C12:C22"/>
+    <mergeCell ref="D12:D22"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="C73:C77"/>
     <mergeCell ref="D73:D77"/>
     <mergeCell ref="B25:G25"/>
@@ -6021,14 +6082,6 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="C50:C59"/>
     <mergeCell ref="D50:D59"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C12:C22"/>
-    <mergeCell ref="D12:D22"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6041,10 +6094,10 @@
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S166"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -6264,7 +6317,7 @@
       <c r="C12" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="238" t="s">
+      <c r="D12" s="194" t="s">
         <v>263</v>
       </c>
       <c r="E12" s="113"/>
@@ -6279,7 +6332,7 @@
       <c r="C13" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="238" t="s">
+      <c r="D13" s="194" t="s">
         <v>264</v>
       </c>
       <c r="E13" s="113"/>
@@ -6294,7 +6347,7 @@
       <c r="C14" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="238" t="s">
+      <c r="D14" s="194" t="s">
         <v>265</v>
       </c>
       <c r="E14" s="113"/>
@@ -6309,7 +6362,7 @@
       <c r="C15" s="114" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="238"/>
+      <c r="D15" s="194"/>
       <c r="E15" s="113"/>
       <c r="F15" s="113"/>
       <c r="G15" s="113"/>
@@ -6883,48 +6936,44 @@
       <c r="G47" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="189"/>
+      <c r="H47" s="243"/>
       <c r="I47" s="129"/>
       <c r="J47" s="161"/>
     </row>
     <row r="48" spans="2:19" ht="15" customHeight="1">
       <c r="B48" s="118"/>
       <c r="C48" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="D48" s="111" t="s">
-        <v>236</v>
+        <v>270</v>
+      </c>
+      <c r="D48" s="112" t="s">
+        <v>271</v>
       </c>
       <c r="E48" s="113"/>
       <c r="F48" s="113"/>
-      <c r="G48" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" s="189" t="s">
-        <v>248</v>
-      </c>
-      <c r="I48" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="G48" s="242" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="245"/>
+      <c r="I48" s="129"/>
       <c r="J48" s="161"/>
     </row>
     <row r="49" spans="2:19" ht="15" customHeight="1">
       <c r="B49" s="118"/>
       <c r="C49" s="111" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="D49" s="111" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="E49" s="113"/>
       <c r="F49" s="113"/>
       <c r="G49" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="H49" s="189" t="s">
-        <v>219</v>
-      </c>
-      <c r="I49" s="153" t="s">
+      <c r="H49" s="244" t="s">
+        <v>248</v>
+      </c>
+      <c r="I49" s="241" t="s">
         <v>54</v>
       </c>
       <c r="J49" s="161"/>
@@ -6932,18 +6981,16 @@
     <row r="50" spans="2:19" ht="15" customHeight="1">
       <c r="B50" s="118"/>
       <c r="C50" s="111" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D50" s="111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
-      <c r="G50" s="113" t="s">
-        <v>134</v>
-      </c>
+      <c r="G50" s="113"/>
       <c r="H50" s="189" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="I50" s="153" t="s">
         <v>54</v>
@@ -6952,28 +6999,32 @@
     </row>
     <row r="51" spans="2:19" ht="15" customHeight="1">
       <c r="B51" s="118"/>
-      <c r="C51" s="124" t="s">
-        <v>116</v>
+      <c r="C51" s="111" t="s">
+        <v>136</v>
       </c>
       <c r="D51" s="111" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="H51" s="189"/>
-      <c r="I51" s="129"/>
+      <c r="H51" s="189" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J51" s="161"/>
     </row>
     <row r="52" spans="2:19" ht="15" customHeight="1">
       <c r="B52" s="118"/>
       <c r="C52" s="124" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D52" s="111" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
@@ -6986,28 +7037,26 @@
     </row>
     <row r="53" spans="2:19" ht="15" customHeight="1">
       <c r="B53" s="118"/>
-      <c r="C53" s="114" t="s">
-        <v>118</v>
+      <c r="C53" s="124" t="s">
+        <v>107</v>
       </c>
       <c r="D53" s="111" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
-      <c r="G53" s="113" t="s">
-        <v>134</v>
-      </c>
+      <c r="G53" s="113"/>
       <c r="H53" s="189"/>
       <c r="I53" s="129"/>
       <c r="J53" s="161"/>
     </row>
     <row r="54" spans="2:19" ht="15" customHeight="1">
-      <c r="B54" s="125"/>
+      <c r="B54" s="118"/>
       <c r="C54" s="114" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D54" s="111" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
@@ -7021,65 +7070,63 @@
     <row r="55" spans="2:19" ht="15" customHeight="1">
       <c r="B55" s="125"/>
       <c r="C55" s="114" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D55" s="111" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="E55" s="113"/>
-      <c r="F55" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="113"/>
-      <c r="H55" s="190" t="s">
-        <v>222</v>
-      </c>
-      <c r="I55" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="189"/>
+      <c r="I55" s="129"/>
       <c r="J55" s="161"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1">
       <c r="B56" s="125"/>
       <c r="C56" s="114" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="D56" s="111" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="E56" s="113"/>
-      <c r="F56" s="113" t="s">
-        <v>134</v>
-      </c>
+      <c r="F56" s="113"/>
       <c r="G56" s="113"/>
       <c r="H56" s="189"/>
       <c r="I56" s="129"/>
-      <c r="J56" s="162"/>
+      <c r="J56" s="161"/>
     </row>
     <row r="57" spans="2:19" ht="15" customHeight="1">
       <c r="B57" s="125"/>
       <c r="C57" s="114" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E57" s="113"/>
       <c r="F57" s="113" t="s">
         <v>134</v>
       </c>
       <c r="G57" s="113"/>
-      <c r="H57" s="189"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="162"/>
+      <c r="H57" s="190" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" s="241" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" s="161"/>
     </row>
     <row r="58" spans="2:19" ht="15" customHeight="1">
       <c r="B58" s="125"/>
       <c r="C58" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="115" t="s">
-        <v>150</v>
+        <v>226</v>
+      </c>
+      <c r="D58" s="111" t="s">
+        <v>242</v>
       </c>
       <c r="E58" s="113"/>
       <c r="F58" s="113" t="s">
@@ -7093,124 +7140,114 @@
     <row r="59" spans="2:19" ht="15" customHeight="1">
       <c r="B59" s="125"/>
       <c r="C59" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="115" t="s">
-        <v>145</v>
+        <v>121</v>
+      </c>
+      <c r="D59" s="111" t="s">
+        <v>243</v>
       </c>
       <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
+      <c r="F59" s="113" t="s">
+        <v>134</v>
+      </c>
       <c r="G59" s="113"/>
-      <c r="H59" s="188"/>
+      <c r="H59" s="189"/>
       <c r="I59" s="129"/>
       <c r="J59" s="162"/>
     </row>
     <row r="60" spans="2:19" ht="15" customHeight="1">
       <c r="B60" s="125"/>
+      <c r="C60" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="113"/>
+      <c r="H60" s="189"/>
+      <c r="I60" s="129"/>
       <c r="J60" s="162"/>
     </row>
     <row r="61" spans="2:19" ht="15" customHeight="1">
       <c r="B61" s="125"/>
-      <c r="C61" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="C61" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="188"/>
+      <c r="I61" s="129"/>
       <c r="J61" s="162"/>
     </row>
     <row r="62" spans="2:19" ht="15" customHeight="1">
       <c r="B62" s="125"/>
-      <c r="C62" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H62" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="J62" s="185"/>
-      <c r="K62" s="145"/>
-      <c r="R62"/>
-      <c r="S62"/>
+      <c r="J62" s="162"/>
     </row>
     <row r="63" spans="2:19" ht="15" customHeight="1">
       <c r="B63" s="125"/>
-      <c r="C63" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="133"/>
-      <c r="G63" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="186"/>
-      <c r="K63" s="120"/>
-      <c r="R63"/>
-      <c r="S63"/>
+      <c r="C63" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63" s="162"/>
     </row>
     <row r="64" spans="2:19" ht="15" customHeight="1">
       <c r="B64" s="125"/>
-      <c r="C64" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
-      <c r="G64" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" s="129"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="186"/>
-      <c r="K64" s="120"/>
+      <c r="C64" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="131" t="s">
+        <v>250</v>
+      </c>
+      <c r="J64" s="185"/>
+      <c r="K64" s="145"/>
       <c r="R64"/>
       <c r="S64"/>
     </row>
     <row r="65" spans="2:19" ht="15" customHeight="1">
       <c r="B65" s="125"/>
-      <c r="C65" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H65" s="129" t="s">
-        <v>142</v>
-      </c>
-      <c r="I65" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="C65" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="133"/>
+      <c r="G65" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" s="132"/>
+      <c r="I65" s="132"/>
       <c r="J65" s="186"/>
       <c r="K65" s="120"/>
       <c r="R65"/>
@@ -7218,162 +7255,163 @@
     </row>
     <row r="66" spans="2:19" ht="15" customHeight="1">
       <c r="B66" s="125"/>
-      <c r="C66" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="D66" s="111" t="s">
-        <v>235</v>
+      <c r="C66" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="136" t="s">
+        <v>157</v>
       </c>
       <c r="E66" s="134"/>
       <c r="F66" s="134"/>
-      <c r="G66" s="134"/>
-      <c r="H66" s="129" t="s">
-        <v>233</v>
-      </c>
-      <c r="I66" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="J66" s="185"/>
-      <c r="K66" s="145"/>
+      <c r="G66" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66" s="129"/>
+      <c r="I66" s="129"/>
+      <c r="J66" s="186"/>
+      <c r="K66" s="120"/>
       <c r="R66"/>
       <c r="S66"/>
     </row>
     <row r="67" spans="2:19" ht="15" customHeight="1">
       <c r="B67" s="125"/>
-      <c r="C67" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="115" t="s">
-        <v>145</v>
+      <c r="C67" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="111" t="s">
+        <v>155</v>
       </c>
       <c r="E67" s="134"/>
       <c r="F67" s="134"/>
-      <c r="G67" s="134"/>
-      <c r="H67" s="129"/>
-      <c r="I67" s="129"/>
+      <c r="G67" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J67" s="186"/>
       <c r="K67" s="120"/>
       <c r="R67"/>
       <c r="S67"/>
     </row>
-    <row r="68" spans="2:19" ht="15" customHeight="1" thickBot="1">
-      <c r="B68" s="126"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="106"/>
-      <c r="K68"/>
+    <row r="68" spans="2:19" ht="15" customHeight="1">
+      <c r="B68" s="125"/>
+      <c r="C68" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="186"/>
+      <c r="K68" s="120"/>
       <c r="R68"/>
       <c r="S68"/>
     </row>
     <row r="69" spans="2:19" ht="15" customHeight="1" thickBot="1">
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="107"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="127"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="106"/>
+      <c r="K69"/>
       <c r="R69"/>
       <c r="S69"/>
     </row>
-    <row r="70" spans="2:19" ht="15" customHeight="1">
-      <c r="B70" s="135"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="102"/>
-      <c r="I70" s="102"/>
-      <c r="J70" s="103"/>
+    <row r="70" spans="2:19" ht="15" customHeight="1" thickBot="1">
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
       <c r="K70" s="107"/>
       <c r="R70"/>
       <c r="S70"/>
     </row>
     <row r="71" spans="2:19" ht="15" customHeight="1">
-      <c r="B71" s="125"/>
-      <c r="C71" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71" s="104"/>
-      <c r="K71"/>
+      <c r="B71" s="135"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="107"/>
       <c r="R71"/>
+      <c r="S71"/>
     </row>
     <row r="72" spans="2:19" ht="15" customHeight="1">
       <c r="B72" s="125"/>
-      <c r="C72" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F72" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G72" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H72" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I72" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="J72" s="160"/>
+      <c r="C72" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72" s="104"/>
       <c r="K72"/>
       <c r="R72"/>
     </row>
     <row r="73" spans="2:19" ht="15" customHeight="1">
       <c r="B73" s="125"/>
-      <c r="C73" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F73" s="133"/>
-      <c r="G73" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73" s="132"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="161"/>
+      <c r="C73" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H73" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="131" t="s">
+        <v>250</v>
+      </c>
+      <c r="J73" s="160"/>
       <c r="K73"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="2:19" ht="15" customHeight="1">
       <c r="B74" s="125"/>
-      <c r="C74" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H74" s="129"/>
-      <c r="I74" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="C74" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" s="133"/>
+      <c r="G74" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
       <c r="J74" s="161"/>
       <c r="K74"/>
       <c r="R74"/>
@@ -7381,15 +7419,13 @@
     <row r="75" spans="2:19" ht="15" customHeight="1">
       <c r="B75" s="125"/>
       <c r="C75" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="129" t="s">
-        <v>159</v>
+        <v>103</v>
+      </c>
+      <c r="D75" s="136" t="s">
+        <v>160</v>
       </c>
       <c r="E75" s="134"/>
-      <c r="F75" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="F75" s="134"/>
       <c r="G75" s="134" t="s">
         <v>134</v>
       </c>
@@ -7400,15 +7436,14 @@
       <c r="J75" s="161"/>
       <c r="K75"/>
       <c r="R75"/>
-      <c r="S75"/>
     </row>
     <row r="76" spans="2:19" ht="15" customHeight="1">
       <c r="B76" s="125"/>
       <c r="C76" s="129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76" s="129" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E76" s="134"/>
       <c r="F76" s="134" t="s">
@@ -7418,7 +7453,9 @@
         <v>134</v>
       </c>
       <c r="H76" s="129"/>
-      <c r="I76" s="153"/>
+      <c r="I76" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J76" s="161"/>
       <c r="K76"/>
       <c r="R76"/>
@@ -7427,18 +7464,20 @@
     <row r="77" spans="2:19" ht="15" customHeight="1">
       <c r="B77" s="125"/>
       <c r="C77" s="129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D77" s="129" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="E77" s="134"/>
       <c r="F77" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="G77" s="134"/>
+      <c r="G77" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="H77" s="129"/>
-      <c r="I77" s="129"/>
+      <c r="I77" s="153"/>
       <c r="J77" s="161"/>
       <c r="K77"/>
       <c r="R77"/>
@@ -7447,18 +7486,18 @@
     <row r="78" spans="2:19" ht="15" customHeight="1">
       <c r="B78" s="125"/>
       <c r="C78" s="129" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D78" s="129" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="E78" s="134"/>
-      <c r="F78" s="134"/>
+      <c r="F78" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="G78" s="134"/>
-      <c r="H78" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="I78" s="153"/>
+      <c r="H78" s="129"/>
+      <c r="I78" s="129"/>
       <c r="J78" s="161"/>
       <c r="K78"/>
       <c r="R78"/>
@@ -7466,17 +7505,19 @@
     </row>
     <row r="79" spans="2:19" ht="15" customHeight="1">
       <c r="B79" s="125"/>
-      <c r="C79" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="111" t="s">
-        <v>153</v>
+      <c r="C79" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="129" t="s">
+        <v>149</v>
       </c>
       <c r="E79" s="134"/>
       <c r="F79" s="134"/>
       <c r="G79" s="134"/>
-      <c r="H79" s="129"/>
-      <c r="I79" s="129"/>
+      <c r="H79" s="129" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" s="153"/>
       <c r="J79" s="161"/>
       <c r="K79"/>
       <c r="R79"/>
@@ -7484,21 +7525,17 @@
     </row>
     <row r="80" spans="2:19" ht="15" customHeight="1">
       <c r="B80" s="125"/>
-      <c r="C80" s="114" t="s">
-        <v>127</v>
+      <c r="C80" s="136" t="s">
+        <v>107</v>
       </c>
       <c r="D80" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="E80" s="113"/>
-      <c r="F80" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="G80" s="113"/>
+        <v>153</v>
+      </c>
+      <c r="E80" s="134"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="134"/>
       <c r="H80" s="129"/>
-      <c r="I80" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="I80" s="129"/>
       <c r="J80" s="161"/>
       <c r="K80"/>
       <c r="R80"/>
@@ -7506,17 +7543,21 @@
     </row>
     <row r="81" spans="2:19" ht="15" customHeight="1">
       <c r="B81" s="125"/>
-      <c r="C81" s="136" t="s">
-        <v>227</v>
-      </c>
-      <c r="D81" s="129" t="s">
-        <v>244</v>
-      </c>
-      <c r="E81" s="134"/>
-      <c r="F81" s="134"/>
-      <c r="G81" s="134"/>
+      <c r="C81" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="113"/>
+      <c r="F81" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" s="113"/>
       <c r="H81" s="129"/>
-      <c r="I81" s="129"/>
+      <c r="I81" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J81" s="161"/>
       <c r="K81"/>
       <c r="R81"/>
@@ -7524,17 +7565,15 @@
     </row>
     <row r="82" spans="2:19" ht="15" customHeight="1">
       <c r="B82" s="125"/>
-      <c r="C82" s="237" t="s">
-        <v>260</v>
+      <c r="C82" s="136" t="s">
+        <v>227</v>
       </c>
       <c r="D82" s="129" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E82" s="134"/>
       <c r="F82" s="134"/>
-      <c r="G82" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="G82" s="134"/>
       <c r="H82" s="129"/>
       <c r="I82" s="129"/>
       <c r="J82" s="161"/>
@@ -7544,15 +7583,17 @@
     </row>
     <row r="83" spans="2:19" ht="15" customHeight="1">
       <c r="B83" s="125"/>
-      <c r="C83" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="136" t="s">
-        <v>145</v>
+      <c r="C83" s="193" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="129" t="s">
+        <v>259</v>
       </c>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
-      <c r="G83" s="134"/>
+      <c r="G83" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="H83" s="129"/>
       <c r="I83" s="129"/>
       <c r="J83" s="161"/>
@@ -7562,92 +7603,90 @@
     </row>
     <row r="84" spans="2:19" ht="15" customHeight="1">
       <c r="B84" s="125"/>
-      <c r="J84" s="162"/>
+      <c r="C84" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="129"/>
+      <c r="I84" s="129"/>
+      <c r="J84" s="161"/>
       <c r="K84"/>
       <c r="R84"/>
       <c r="S84"/>
     </row>
     <row r="85" spans="2:19" ht="15" customHeight="1">
       <c r="B85" s="125"/>
-      <c r="C85" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85" s="104"/>
+      <c r="J85" s="162"/>
       <c r="K85"/>
       <c r="R85"/>
       <c r="S85"/>
     </row>
     <row r="86" spans="2:19" ht="15" customHeight="1">
       <c r="B86" s="125"/>
-      <c r="C86" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F86" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G86" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H86" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I86" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="J86" s="160"/>
+      <c r="C86" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86" s="104"/>
       <c r="K86"/>
       <c r="R86"/>
       <c r="S86"/>
     </row>
     <row r="87" spans="2:19" ht="15" customHeight="1">
       <c r="B87" s="125"/>
-      <c r="C87" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D87" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F87" s="133"/>
-      <c r="G87" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H87" s="132"/>
-      <c r="I87" s="132"/>
-      <c r="J87" s="161"/>
+      <c r="C87" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" s="131" t="s">
+        <v>250</v>
+      </c>
+      <c r="J87" s="160"/>
       <c r="K87"/>
       <c r="R87"/>
       <c r="S87"/>
     </row>
     <row r="88" spans="2:19" ht="15" customHeight="1">
       <c r="B88" s="125"/>
-      <c r="C88" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="D88" s="136" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88" s="134"/>
-      <c r="F88" s="134"/>
-      <c r="G88" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
+      <c r="C88" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" s="133"/>
+      <c r="G88" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" s="132"/>
+      <c r="I88" s="132"/>
       <c r="J88" s="161"/>
       <c r="K88"/>
       <c r="R88"/>
@@ -7656,22 +7695,18 @@
     <row r="89" spans="2:19" ht="15" customHeight="1">
       <c r="B89" s="125"/>
       <c r="C89" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89" s="111" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D89" s="136" t="s">
+        <v>245</v>
       </c>
       <c r="E89" s="134"/>
       <c r="F89" s="134"/>
       <c r="G89" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="H89" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="I89" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="H89" s="129"/>
+      <c r="I89" s="129"/>
       <c r="J89" s="161"/>
       <c r="K89"/>
       <c r="R89"/>
@@ -7679,184 +7714,195 @@
     </row>
     <row r="90" spans="2:19" ht="15" customHeight="1">
       <c r="B90" s="125"/>
-      <c r="C90" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="115" t="s">
-        <v>145</v>
+      <c r="C90" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="111" t="s">
+        <v>148</v>
       </c>
       <c r="E90" s="134"/>
       <c r="F90" s="134"/>
-      <c r="G90" s="134"/>
-      <c r="H90" s="129"/>
-      <c r="I90" s="129"/>
+      <c r="G90" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H90" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="I90" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J90" s="161"/>
       <c r="K90"/>
       <c r="R90"/>
-    </row>
-    <row r="91" spans="2:19" ht="15" customHeight="1" thickBot="1">
-      <c r="B91" s="126"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="105"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="105"/>
-      <c r="J91" s="106"/>
+      <c r="S90"/>
+    </row>
+    <row r="91" spans="2:19" ht="15" customHeight="1">
+      <c r="B91" s="125"/>
+      <c r="C91" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="134"/>
+      <c r="F91" s="134"/>
+      <c r="G91" s="134"/>
+      <c r="H91" s="129"/>
+      <c r="I91" s="129"/>
+      <c r="J91" s="161"/>
       <c r="K91"/>
       <c r="R91"/>
-      <c r="S91"/>
     </row>
     <row r="92" spans="2:19" ht="15" customHeight="1" thickBot="1">
+      <c r="B92" s="126"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="105"/>
+      <c r="H92" s="105"/>
+      <c r="I92" s="105"/>
+      <c r="J92" s="106"/>
+      <c r="K92"/>
+      <c r="R92"/>
       <c r="S92"/>
     </row>
-    <row r="93" spans="2:19" ht="15" customHeight="1">
-      <c r="B93" s="183" t="s">
+    <row r="93" spans="2:19" ht="15" customHeight="1" thickBot="1">
+      <c r="S93"/>
+    </row>
+    <row r="94" spans="2:19" ht="15" customHeight="1">
+      <c r="B94" s="183" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="184"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="102"/>
-      <c r="I93" s="102"/>
-      <c r="J93" s="103"/>
-      <c r="S93"/>
-    </row>
-    <row r="94" spans="2:19" ht="15" customHeight="1">
-      <c r="B94" s="146"/>
-      <c r="C94" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94" s="104"/>
+      <c r="C94" s="184"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
+      <c r="J94" s="103"/>
       <c r="S94"/>
     </row>
     <row r="95" spans="2:19" ht="15" customHeight="1">
       <c r="B95" s="146"/>
-      <c r="C95" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D95" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F95" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G95" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H95" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I95" s="131" t="s">
-        <v>250</v>
-      </c>
+      <c r="C95" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
       <c r="J95" s="104"/>
       <c r="S95"/>
     </row>
     <row r="96" spans="2:19" ht="15" customHeight="1">
       <c r="B96" s="146"/>
-      <c r="C96" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E96" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F96" s="133"/>
-      <c r="G96" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H96" s="132"/>
-      <c r="I96" s="132"/>
+      <c r="C96" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G96" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H96" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I96" s="131" t="s">
+        <v>250</v>
+      </c>
       <c r="J96" s="104"/>
       <c r="S96"/>
     </row>
     <row r="97" spans="2:19" ht="15" customHeight="1">
       <c r="B97" s="146"/>
-      <c r="C97" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E97" s="134"/>
-      <c r="F97" s="134"/>
-      <c r="G97" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H97" s="129" t="s">
-        <v>142</v>
-      </c>
-      <c r="I97" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="C97" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E97" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="133"/>
+      <c r="G97" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H97" s="132"/>
+      <c r="I97" s="132"/>
       <c r="J97" s="104"/>
-      <c r="R97"/>
+      <c r="S97"/>
     </row>
     <row r="98" spans="2:19" ht="15" customHeight="1">
       <c r="B98" s="146"/>
       <c r="C98" s="129" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D98" s="111" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E98" s="134"/>
       <c r="F98" s="134"/>
-      <c r="G98" s="134"/>
+      <c r="G98" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="H98" s="129" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="I98" s="153" t="s">
         <v>54</v>
       </c>
       <c r="J98" s="104"/>
+      <c r="R98"/>
     </row>
     <row r="99" spans="2:19" ht="15" customHeight="1">
       <c r="B99" s="146"/>
-      <c r="C99" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D99" s="115" t="s">
-        <v>145</v>
+      <c r="C99" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="111" t="s">
+        <v>148</v>
       </c>
       <c r="E99" s="134"/>
       <c r="F99" s="134"/>
       <c r="G99" s="134"/>
-      <c r="H99" s="129"/>
-      <c r="I99" s="129"/>
+      <c r="H99" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="I99" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J99" s="104"/>
     </row>
     <row r="100" spans="2:19" ht="15" customHeight="1">
       <c r="B100" s="146"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+      <c r="C100" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" s="134"/>
+      <c r="F100" s="134"/>
+      <c r="G100" s="134"/>
+      <c r="H100" s="129"/>
+      <c r="I100" s="129"/>
       <c r="J100" s="104"/>
     </row>
     <row r="101" spans="2:19" ht="15" customHeight="1">
       <c r="B101" s="146"/>
-      <c r="C101" s="57" t="s">
-        <v>225</v>
-      </c>
+      <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
@@ -7867,76 +7913,68 @@
     </row>
     <row r="102" spans="2:19" ht="15" customHeight="1">
       <c r="B102" s="146"/>
-      <c r="C102" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D102" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F102" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H102" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I102" s="131" t="s">
-        <v>250</v>
-      </c>
+      <c r="C102" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
       <c r="J102" s="104"/>
     </row>
     <row r="103" spans="2:19" ht="15" customHeight="1">
       <c r="B103" s="146"/>
-      <c r="C103" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D103" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E103" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F103" s="133"/>
-      <c r="G103" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H103" s="132"/>
-      <c r="I103" s="132"/>
+      <c r="C103" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I103" s="131" t="s">
+        <v>250</v>
+      </c>
       <c r="J103" s="104"/>
     </row>
     <row r="104" spans="2:19" ht="15" customHeight="1">
       <c r="B104" s="146"/>
-      <c r="C104" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="D104" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E104" s="134"/>
-      <c r="F104" s="134"/>
-      <c r="G104" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H104" s="129" t="s">
-        <v>142</v>
-      </c>
-      <c r="I104" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="C104" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F104" s="133"/>
+      <c r="G104" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H104" s="132"/>
+      <c r="I104" s="132"/>
       <c r="J104" s="104"/>
     </row>
     <row r="105" spans="2:19" ht="15" customHeight="1">
       <c r="B105" s="146"/>
       <c r="C105" s="129" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D105" s="111" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E105" s="134"/>
       <c r="F105" s="134"/>
@@ -7944,7 +7982,7 @@
         <v>134</v>
       </c>
       <c r="H105" s="129" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="I105" s="153" t="s">
         <v>54</v>
@@ -7953,37 +7991,44 @@
     </row>
     <row r="106" spans="2:19" ht="15" customHeight="1">
       <c r="B106" s="146"/>
-      <c r="C106" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D106" s="115" t="s">
-        <v>145</v>
+      <c r="C106" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" s="111" t="s">
+        <v>148</v>
       </c>
       <c r="E106" s="134"/>
       <c r="F106" s="134"/>
-      <c r="G106" s="134"/>
-      <c r="H106" s="129"/>
-      <c r="I106" s="129"/>
+      <c r="G106" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H106" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="I106" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J106" s="104"/>
-      <c r="S106"/>
     </row>
     <row r="107" spans="2:19" ht="15" customHeight="1">
       <c r="B107" s="146"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
+      <c r="C107" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="134"/>
+      <c r="F107" s="134"/>
+      <c r="G107" s="134"/>
+      <c r="H107" s="129"/>
+      <c r="I107" s="129"/>
       <c r="J107" s="104"/>
       <c r="S107"/>
     </row>
     <row r="108" spans="2:19" ht="15" customHeight="1">
       <c r="B108" s="146"/>
-      <c r="C108" s="108" t="s">
-        <v>228</v>
-      </c>
+      <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
@@ -7994,77 +8039,70 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="2:19" ht="15" customHeight="1">
-      <c r="B109" s="125"/>
-      <c r="C109" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D109" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F109" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G109" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H109" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I109" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="J109" s="162"/>
+      <c r="B109" s="146"/>
+      <c r="C109" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109" s="104"/>
+      <c r="S109"/>
     </row>
     <row r="110" spans="2:19" ht="15" customHeight="1">
       <c r="B110" s="125"/>
-      <c r="C110" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D110" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F110" s="133"/>
-      <c r="G110" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H110" s="132"/>
-      <c r="I110" s="132"/>
+      <c r="C110" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D110" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G110" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I110" s="131" t="s">
+        <v>250</v>
+      </c>
       <c r="J110" s="162"/>
     </row>
     <row r="111" spans="2:19" ht="15" customHeight="1">
       <c r="B111" s="125"/>
-      <c r="C111" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="D111" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="134"/>
-      <c r="F111" s="134"/>
-      <c r="G111" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H111" s="129" t="s">
-        <v>142</v>
-      </c>
-      <c r="I111" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="C111" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E111" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111" s="133"/>
+      <c r="G111" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111" s="132"/>
+      <c r="I111" s="132"/>
       <c r="J111" s="162"/>
     </row>
     <row r="112" spans="2:19" ht="15" customHeight="1">
       <c r="B112" s="125"/>
       <c r="C112" s="129" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D112" s="111" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E112" s="134"/>
       <c r="F112" s="134"/>
@@ -8072,7 +8110,7 @@
         <v>134</v>
       </c>
       <c r="H112" s="129" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="I112" s="153" t="s">
         <v>54</v>
@@ -8081,102 +8119,108 @@
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1">
       <c r="B113" s="125"/>
-      <c r="C113" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D113" s="115" t="s">
-        <v>145</v>
+      <c r="C113" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="111" t="s">
+        <v>148</v>
       </c>
       <c r="E113" s="134"/>
       <c r="F113" s="134"/>
-      <c r="G113" s="134"/>
-      <c r="H113" s="129"/>
-      <c r="I113" s="129"/>
+      <c r="G113" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="I113" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J113" s="162"/>
     </row>
-    <row r="114" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B114" s="126"/>
-      <c r="C114" s="127"/>
-      <c r="D114" s="127"/>
-      <c r="E114" s="127"/>
-      <c r="F114" s="127"/>
-      <c r="G114" s="127"/>
-      <c r="H114" s="127"/>
-      <c r="I114" s="127"/>
-      <c r="J114" s="164"/>
-    </row>
-    <row r="117" spans="2:10" ht="15" customHeight="1">
-      <c r="C117" s="119" t="s">
+    <row r="114" spans="2:10" ht="15" customHeight="1">
+      <c r="B114" s="125"/>
+      <c r="C114" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114" s="134"/>
+      <c r="F114" s="134"/>
+      <c r="G114" s="134"/>
+      <c r="H114" s="129"/>
+      <c r="I114" s="129"/>
+      <c r="J114" s="162"/>
+    </row>
+    <row r="115" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B115" s="126"/>
+      <c r="C115" s="127"/>
+      <c r="D115" s="127"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="127"/>
+      <c r="G115" s="127"/>
+      <c r="H115" s="127"/>
+      <c r="I115" s="127"/>
+      <c r="J115" s="164"/>
+    </row>
+    <row r="118" spans="2:10" ht="15" customHeight="1">
+      <c r="C118" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="D117" s="120"/>
-      <c r="E117" s="121"/>
-      <c r="F117" s="121"/>
-      <c r="G117" s="121"/>
-      <c r="H117" s="120"/>
-      <c r="I117" s="120"/>
-    </row>
-    <row r="118" spans="2:10" ht="15" customHeight="1">
-      <c r="C118" s="122" t="s">
+      <c r="D118" s="120"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="121"/>
+      <c r="G118" s="121"/>
+      <c r="H118" s="120"/>
+      <c r="I118" s="120"/>
+    </row>
+    <row r="119" spans="2:10" ht="15" customHeight="1">
+      <c r="C119" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="D118" s="122" t="s">
+      <c r="D119" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="E118" s="123" t="s">
+      <c r="E119" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="F118" s="123" t="s">
+      <c r="F119" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="G118" s="123" t="s">
+      <c r="G119" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="H118" s="123" t="s">
+      <c r="H119" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="I118" s="131" t="s">
+      <c r="I119" s="131" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="15" customHeight="1">
-      <c r="C119" s="109" t="s">
+    <row r="120" spans="2:10" ht="15" customHeight="1">
+      <c r="C120" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D119" s="109" t="s">
+      <c r="D120" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="E119" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="F119" s="110"/>
-      <c r="G119" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="H119" s="187"/>
-      <c r="I119" s="132"/>
-    </row>
-    <row r="120" spans="2:10" ht="15" customHeight="1">
-      <c r="C120" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="E120" s="113"/>
-      <c r="F120" s="113"/>
-      <c r="G120" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="H120" s="188"/>
-      <c r="I120" s="129"/>
+      <c r="E120" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F120" s="110"/>
+      <c r="G120" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="H120" s="187"/>
+      <c r="I120" s="132"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1">
       <c r="C121" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="D121" s="115" t="s">
-        <v>145</v>
+        <v>117</v>
+      </c>
+      <c r="D121" s="112" t="s">
+        <v>152</v>
       </c>
       <c r="E121" s="113"/>
       <c r="F121" s="113"/>
@@ -8187,18 +8231,22 @@
       <c r="I121" s="129"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1">
-      <c r="C122" s="120"/>
-      <c r="D122" s="120"/>
-      <c r="E122" s="121"/>
-      <c r="F122" s="121"/>
-      <c r="G122" s="121"/>
-      <c r="H122" s="120"/>
-      <c r="I122" s="120"/>
+      <c r="C122" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="113"/>
+      <c r="F122" s="113"/>
+      <c r="G122" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="H122" s="188"/>
+      <c r="I122" s="129"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1">
-      <c r="C123" s="119" t="s">
-        <v>222</v>
-      </c>
+      <c r="C123" s="120"/>
       <c r="D123" s="120"/>
       <c r="E123" s="121"/>
       <c r="F123" s="121"/>
@@ -8207,64 +8255,62 @@
       <c r="I123" s="120"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1">
-      <c r="C124" s="130" t="s">
+      <c r="C124" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="120"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
+      <c r="G124" s="121"/>
+      <c r="H124" s="120"/>
+      <c r="I124" s="120"/>
+    </row>
+    <row r="125" spans="2:10" ht="15" customHeight="1">
+      <c r="C125" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="D124" s="130" t="s">
+      <c r="D125" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="E124" s="131" t="s">
+      <c r="E125" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="F124" s="131" t="s">
+      <c r="F125" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G124" s="131" t="s">
+      <c r="G125" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="H124" s="131" t="s">
+      <c r="H125" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="I124" s="131" t="s">
+      <c r="I125" s="131" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="2:10" ht="15" customHeight="1">
-      <c r="C125" s="132" t="s">
+    <row r="126" spans="2:10" ht="15" customHeight="1">
+      <c r="C126" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D125" s="109" t="s">
+      <c r="D126" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="E125" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F125" s="133"/>
-      <c r="G125" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H125" s="132"/>
-      <c r="I125" s="132"/>
-    </row>
-    <row r="126" spans="2:10" ht="15" customHeight="1">
-      <c r="C126" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="D126" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="E126" s="134"/>
-      <c r="F126" s="134"/>
-      <c r="G126" s="134"/>
-      <c r="H126" s="129"/>
-      <c r="I126" s="129"/>
+      <c r="E126" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F126" s="133"/>
+      <c r="G126" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H126" s="132"/>
+      <c r="I126" s="132"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1">
       <c r="C127" s="129" t="s">
-        <v>129</v>
-      </c>
-      <c r="D127" s="115" t="s">
-        <v>145</v>
+        <v>119</v>
+      </c>
+      <c r="D127" s="112" t="s">
+        <v>156</v>
       </c>
       <c r="E127" s="134"/>
       <c r="F127" s="134"/>
@@ -8273,19 +8319,21 @@
       <c r="I127" s="129"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1">
-      <c r="C128" s="107"/>
-      <c r="D128" s="107"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
+      <c r="C128" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="134"/>
+      <c r="F128" s="134"/>
+      <c r="G128" s="134"/>
+      <c r="H128" s="129"/>
+      <c r="I128" s="129"/>
     </row>
     <row r="129" spans="3:9" ht="15" customHeight="1">
-      <c r="C129" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="D129"/>
+      <c r="C129" s="107"/>
+      <c r="D129" s="107"/>
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129"/>
@@ -8293,525 +8341,463 @@
       <c r="I129"/>
     </row>
     <row r="130" spans="3:9" ht="15" customHeight="1">
-      <c r="C130" s="130" t="s">
+      <c r="C130" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+    </row>
+    <row r="131" spans="3:9" ht="15" customHeight="1">
+      <c r="C131" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="D130" s="130" t="s">
+      <c r="D131" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="E130" s="131" t="s">
+      <c r="E131" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="F130" s="131" t="s">
+      <c r="F131" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G130" s="131" t="s">
+      <c r="G131" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="H130" s="131" t="s">
+      <c r="H131" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="I130" s="131" t="s">
+      <c r="I131" s="131" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="3:9" ht="15" customHeight="1">
-      <c r="C131" s="132" t="s">
+    <row r="132" spans="3:9" ht="15" customHeight="1">
+      <c r="C132" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D131" s="109" t="s">
+      <c r="D132" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="E131" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F131" s="133"/>
-      <c r="G131" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H131" s="132"/>
-      <c r="I131" s="132"/>
-    </row>
-    <row r="132" spans="3:9" ht="15" customHeight="1">
-      <c r="C132" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="D132" s="136" t="s">
-        <v>164</v>
-      </c>
-      <c r="E132" s="134"/>
-      <c r="F132" s="134"/>
-      <c r="G132" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H132" s="129"/>
-      <c r="I132" s="129"/>
+      <c r="E132" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" s="133"/>
+      <c r="G132" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H132" s="132"/>
+      <c r="I132" s="132"/>
     </row>
     <row r="133" spans="3:9" ht="15" customHeight="1">
       <c r="C133" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="D133" s="111" t="s">
-        <v>155</v>
+        <v>115</v>
+      </c>
+      <c r="D133" s="136" t="s">
+        <v>164</v>
       </c>
       <c r="E133" s="134"/>
       <c r="F133" s="134"/>
       <c r="G133" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="H133" s="129" t="s">
-        <v>142</v>
-      </c>
+      <c r="H133" s="129"/>
       <c r="I133" s="129"/>
     </row>
     <row r="134" spans="3:9" ht="15" customHeight="1">
       <c r="C134" s="129" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D134" s="111" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E134" s="134"/>
       <c r="F134" s="134"/>
-      <c r="G134" s="134"/>
+      <c r="G134" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="H134" s="129" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="I134" s="129"/>
     </row>
     <row r="135" spans="3:9" ht="15" customHeight="1">
-      <c r="C135" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D135" s="115" t="s">
-        <v>145</v>
+      <c r="C135" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="D135" s="111" t="s">
+        <v>148</v>
       </c>
       <c r="E135" s="134"/>
       <c r="F135" s="134"/>
       <c r="G135" s="134"/>
-      <c r="H135" s="129"/>
+      <c r="H135" s="129" t="s">
+        <v>219</v>
+      </c>
       <c r="I135" s="129"/>
     </row>
-    <row r="137" spans="3:9" ht="15" customHeight="1">
-      <c r="C137" s="108" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="138" spans="3:9" ht="15" customHeight="1">
-      <c r="C138" s="130" t="s">
+    <row r="136" spans="3:9" ht="15" customHeight="1">
+      <c r="C136" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="134"/>
+      <c r="F136" s="134"/>
+      <c r="G136" s="134"/>
+      <c r="H136" s="129"/>
+      <c r="I136" s="129"/>
+    </row>
+    <row r="139" spans="3:9" ht="15" customHeight="1">
+      <c r="C139" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+    </row>
+    <row r="140" spans="3:9" ht="15" customHeight="1">
+      <c r="C140" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="D138" s="130" t="s">
+      <c r="D140" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="E138" s="131" t="s">
+      <c r="E140" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="F138" s="131" t="s">
+      <c r="F140" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G138" s="131" t="s">
+      <c r="G140" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="H138" s="131" t="s">
+      <c r="H140" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="I138" s="131" t="s">
+      <c r="I140" s="131" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="3:9" ht="15" customHeight="1">
-      <c r="C139" s="132" t="s">
+    <row r="141" spans="3:9" ht="15" customHeight="1">
+      <c r="C141" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D139" s="109" t="s">
+      <c r="D141" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="E139" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F139" s="133"/>
-      <c r="G139" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H139" s="132"/>
-      <c r="I139" s="132"/>
-    </row>
-    <row r="140" spans="3:9" ht="15" customHeight="1">
-      <c r="C140" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="D140" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="E140" s="134"/>
-      <c r="F140" s="134"/>
-      <c r="G140" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H140" s="129"/>
-      <c r="I140" s="129"/>
-    </row>
-    <row r="141" spans="3:9" ht="15" customHeight="1">
-      <c r="C141" s="136" t="s">
+      <c r="E141" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F141" s="133"/>
+      <c r="G141" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H141" s="132"/>
+      <c r="I141" s="132"/>
+    </row>
+    <row r="142" spans="3:9" ht="15" customHeight="1">
+      <c r="C142" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D142" s="136" t="s">
+        <v>247</v>
+      </c>
+      <c r="E142" s="134"/>
+      <c r="F142" s="134"/>
+      <c r="G142" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H142" s="129"/>
+      <c r="I142" s="129"/>
+    </row>
+    <row r="143" spans="3:9" ht="15" customHeight="1">
+      <c r="C143" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="E143" s="134"/>
+      <c r="F143" s="134"/>
+      <c r="G143" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H143" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="I143" s="129"/>
+    </row>
+    <row r="144" spans="3:9" ht="15" customHeight="1">
+      <c r="C144" s="129" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="E144" s="134"/>
+      <c r="F144" s="134"/>
+      <c r="G144" s="134"/>
+      <c r="H144" s="129" t="s">
+        <v>221</v>
+      </c>
+      <c r="I144" s="129"/>
+    </row>
+    <row r="145" spans="3:9" ht="15" customHeight="1">
+      <c r="C145" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="D145" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E145" s="134"/>
+      <c r="F145" s="134"/>
+      <c r="G145" s="134"/>
+      <c r="H145" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="I145" s="129"/>
+    </row>
+    <row r="146" spans="3:9" ht="15" customHeight="1">
+      <c r="C146" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="D141" s="115" t="s">
+      <c r="D146" s="115" t="s">
         <v>145</v>
-      </c>
-      <c r="E141" s="134"/>
-      <c r="F141" s="134"/>
-      <c r="G141" s="134"/>
-      <c r="H141" s="129"/>
-      <c r="I141" s="129"/>
-    </row>
-    <row r="143" spans="3:9" ht="15" customHeight="1">
-      <c r="C143" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143"/>
-    </row>
-    <row r="144" spans="3:9" ht="15" customHeight="1">
-      <c r="C144" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D144" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E144" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F144" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G144" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H144" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I144" s="131" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="145" spans="3:9" ht="15" customHeight="1">
-      <c r="C145" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D145" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E145" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F145" s="133"/>
-      <c r="G145" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H145" s="132"/>
-      <c r="I145" s="132"/>
-    </row>
-    <row r="146" spans="3:9" ht="15" customHeight="1">
-      <c r="C146" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="D146" s="136" t="s">
-        <v>247</v>
       </c>
       <c r="E146" s="134"/>
       <c r="F146" s="134"/>
-      <c r="G146" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="G146" s="134"/>
       <c r="H146" s="129"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="3:9" ht="15" customHeight="1">
-      <c r="C147" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="D147" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E147" s="134"/>
-      <c r="F147" s="134"/>
-      <c r="G147" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H147" s="129" t="s">
-        <v>142</v>
-      </c>
-      <c r="I147" s="129"/>
-    </row>
     <row r="148" spans="3:9" ht="15" customHeight="1">
-      <c r="C148" s="129" t="s">
-        <v>176</v>
-      </c>
-      <c r="D148" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="E148" s="134"/>
-      <c r="F148" s="134"/>
-      <c r="G148" s="134"/>
-      <c r="H148" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="I148" s="129"/>
+      <c r="C148" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
     </row>
     <row r="149" spans="3:9" ht="15" customHeight="1">
-      <c r="C149" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D149" s="111" t="s">
-        <v>148</v>
-      </c>
-      <c r="E149" s="134"/>
-      <c r="F149" s="134"/>
-      <c r="G149" s="134"/>
-      <c r="H149" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="I149" s="129"/>
+      <c r="C149" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D149" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F149" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G149" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H149" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I149" s="131" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="150" spans="3:9" ht="15" customHeight="1">
-      <c r="C150" s="136" t="s">
+      <c r="C150" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E150" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F150" s="133"/>
+      <c r="G150" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H150" s="132"/>
+      <c r="I150" s="132"/>
+    </row>
+    <row r="151" spans="3:9" ht="15" customHeight="1">
+      <c r="C151" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D151" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="E151" s="134"/>
+      <c r="F151" s="134"/>
+      <c r="G151" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H151" s="129"/>
+      <c r="I151" s="153"/>
+    </row>
+    <row r="152" spans="3:9" ht="15" customHeight="1">
+      <c r="C152" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="D152" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="E152" s="134"/>
+      <c r="F152" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="G152" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H152" s="129"/>
+      <c r="I152" s="153"/>
+    </row>
+    <row r="153" spans="3:9" ht="15" customHeight="1">
+      <c r="C153" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="D153" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="E153" s="134"/>
+      <c r="F153" s="134"/>
+      <c r="G153" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H153" s="129"/>
+      <c r="I153" s="153"/>
+    </row>
+    <row r="154" spans="3:9" ht="15" customHeight="1">
+      <c r="C154" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="D150" s="115" t="s">
+      <c r="D154" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E150" s="134"/>
-      <c r="F150" s="134"/>
-      <c r="G150" s="134"/>
-      <c r="H150" s="129"/>
-      <c r="I150" s="129"/>
-    </row>
-    <row r="152" spans="3:9" ht="15" customHeight="1">
-      <c r="C152" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-    </row>
-    <row r="153" spans="3:9" ht="15" customHeight="1">
-      <c r="C153" s="130" t="s">
+      <c r="E154" s="134"/>
+      <c r="F154" s="134"/>
+      <c r="G154" s="134"/>
+      <c r="H154" s="129"/>
+      <c r="I154" s="129"/>
+    </row>
+    <row r="156" spans="3:9" ht="15" customHeight="1">
+      <c r="C156" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+    </row>
+    <row r="157" spans="3:9" ht="15" customHeight="1">
+      <c r="C157" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="D153" s="130" t="s">
+      <c r="D157" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="E153" s="131" t="s">
+      <c r="E157" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="F153" s="131" t="s">
+      <c r="F157" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G153" s="131" t="s">
+      <c r="G157" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="H153" s="131" t="s">
+      <c r="H157" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="I153" s="131" t="s">
+      <c r="I157" s="131" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="154" spans="3:9" ht="15" customHeight="1">
-      <c r="C154" s="132" t="s">
+    <row r="158" spans="3:9" ht="15" customHeight="1">
+      <c r="C158" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D154" s="109" t="s">
+      <c r="D158" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="E154" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F154" s="133"/>
-      <c r="G154" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H154" s="132"/>
-      <c r="I154" s="132"/>
-    </row>
-    <row r="155" spans="3:9" ht="15" customHeight="1">
-      <c r="C155" s="129" t="s">
+      <c r="E158" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F158" s="133"/>
+      <c r="G158" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H158" s="132"/>
+      <c r="I158" s="132"/>
+    </row>
+    <row r="159" spans="3:9" ht="15" customHeight="1">
+      <c r="C159" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="D155" s="111" t="s">
+      <c r="D159" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="E155" s="134"/>
-      <c r="F155" s="134"/>
-      <c r="G155" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H155" s="129"/>
-      <c r="I155" s="153"/>
-    </row>
-    <row r="156" spans="3:9" ht="15" customHeight="1">
-      <c r="C156" s="129" t="s">
+      <c r="E159" s="134"/>
+      <c r="F159" s="134"/>
+      <c r="G159" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H159" s="129"/>
+      <c r="I159" s="153"/>
+    </row>
+    <row r="160" spans="3:9" ht="15" customHeight="1">
+      <c r="C160" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="D156" s="111" t="s">
+      <c r="D160" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="E156" s="134"/>
-      <c r="F156" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="G156" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H156" s="129"/>
-      <c r="I156" s="153"/>
-    </row>
-    <row r="157" spans="3:9" ht="15" customHeight="1">
-      <c r="C157" s="129" t="s">
+      <c r="E160" s="134"/>
+      <c r="F160" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="G160" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H160" s="129"/>
+      <c r="I160" s="153"/>
+    </row>
+    <row r="161" spans="3:9" ht="15" customHeight="1">
+      <c r="C161" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="111" t="s">
+      <c r="D161" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="E157" s="134"/>
-      <c r="F157" s="134"/>
-      <c r="G157" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H157" s="129"/>
-      <c r="I157" s="153"/>
-    </row>
-    <row r="158" spans="3:9" ht="15" customHeight="1">
-      <c r="C158" s="136" t="s">
+      <c r="E161" s="134"/>
+      <c r="F161" s="134"/>
+      <c r="G161" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H161" s="129"/>
+      <c r="I161" s="153"/>
+    </row>
+    <row r="162" spans="3:9" ht="15" customHeight="1">
+      <c r="C162" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="D158" s="115" t="s">
+      <c r="D162" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E158" s="134"/>
-      <c r="F158" s="134"/>
-      <c r="G158" s="134"/>
-      <c r="H158" s="129"/>
-      <c r="I158" s="129"/>
-    </row>
-    <row r="160" spans="3:9" ht="15" customHeight="1">
-      <c r="C160" s="108" t="s">
-        <v>256</v>
-      </c>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
-    </row>
-    <row r="161" spans="3:9" ht="15" customHeight="1">
-      <c r="C161" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D161" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E161" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F161" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G161" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H161" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I161" s="131" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="162" spans="3:9" ht="15" customHeight="1">
-      <c r="C162" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D162" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E162" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F162" s="133"/>
-      <c r="G162" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H162" s="132"/>
-      <c r="I162" s="132"/>
-    </row>
-    <row r="163" spans="3:9" ht="15" customHeight="1">
-      <c r="C163" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="D163" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="E163" s="134"/>
-      <c r="F163" s="134"/>
-      <c r="G163" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H163" s="129"/>
-      <c r="I163" s="153"/>
-    </row>
-    <row r="164" spans="3:9" ht="15" customHeight="1">
-      <c r="C164" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="D164" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="E164" s="134"/>
-      <c r="F164" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="G164" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H164" s="129"/>
-      <c r="I164" s="153"/>
-    </row>
-    <row r="165" spans="3:9" ht="15" customHeight="1">
-      <c r="C165" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="D165" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="E165" s="134"/>
-      <c r="F165" s="134"/>
-      <c r="G165" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H165" s="129"/>
-      <c r="I165" s="153"/>
-    </row>
-    <row r="166" spans="3:9" ht="15" customHeight="1">
-      <c r="C166" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D166" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E166" s="134"/>
-      <c r="F166" s="134"/>
-      <c r="G166" s="134"/>
-      <c r="H166" s="129"/>
-      <c r="I166" s="129"/>
+      <c r="E162" s="134"/>
+      <c r="F162" s="134"/>
+      <c r="G162" s="134"/>
+      <c r="H162" s="129"/>
+      <c r="I162" s="129"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17"/>
@@ -8840,8 +8826,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
+      <c r="A1" s="195"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
@@ -8982,8 +8968,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
+      <c r="A1" s="195"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="1"/>
@@ -9010,57 +8996,57 @@
       <c r="D4" s="151"/>
     </row>
     <row r="5" spans="1:5" ht="90" customHeight="1">
-      <c r="B5" s="217"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="155"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="90" customHeight="1">
-      <c r="B6" s="218"/>
+      <c r="B6" s="222"/>
       <c r="C6" s="155"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="90" customHeight="1">
-      <c r="B7" s="218"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="155"/>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="90" customHeight="1">
-      <c r="B8" s="218"/>
+      <c r="B8" s="222"/>
       <c r="C8" s="155"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="90" customHeight="1">
-      <c r="B9" s="218"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="155"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="90" customHeight="1">
-      <c r="B10" s="219"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="156"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="90" customHeight="1">
-      <c r="B11" s="217"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="94"/>
       <c r="D11" s="157"/>
     </row>
     <row r="12" spans="1:5" ht="90" customHeight="1">
-      <c r="B12" s="217"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="94"/>
       <c r="D12" s="158"/>
     </row>
     <row r="13" spans="1:5" ht="90" customHeight="1">
-      <c r="B13" s="217"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="94"/>
       <c r="D13" s="159"/>
     </row>
     <row r="14" spans="1:5" ht="90" customHeight="1">
-      <c r="B14" s="217"/>
+      <c r="B14" s="221"/>
       <c r="C14" s="94"/>
       <c r="D14" s="158"/>
     </row>
     <row r="15" spans="1:5" ht="90" customHeight="1">
-      <c r="B15" s="217"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="94"/>
       <c r="D15" s="158"/>
     </row>
@@ -9112,10 +9098,10 @@
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="224" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="193"/>
+      <c r="C5" s="195"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:7" ht="15.75" customHeight="1"/>

--- a/DB設計Withpets.xlsx
+++ b/DB設計Withpets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideyuki/Documents/LaravelSail/WithPets/WP_PJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE91F7-D594-194A-8D56-05524E0CBBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4FA40-E410-2649-B1FF-AC6436348E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コーディング規約" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="279">
   <si>
     <t>種類</t>
   </si>
@@ -726,10 +726,6 @@
   </si>
   <si>
     <t>integer('birthday',8)</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>integer('postcode',7)</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -1340,6 +1336,34 @@
   </si>
   <si>
     <t>catImags</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>prefecture</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>postcodes</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>postcode_id</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>unsignedBigInteger('postcode_id')</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -2540,28 +2564,61 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2597,24 +2654,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2671,21 +2710,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3035,8 +3059,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="195"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="200"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3106,19 +3130,19 @@
     <row r="3" spans="2:10" ht="45" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="202" t="s">
+      <c r="E3" s="204" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="152" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G3" s="152" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -3126,17 +3150,17 @@
     </row>
     <row r="4" spans="2:10" ht="45" customHeight="1">
       <c r="C4" s="152" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="220"/>
+      <c r="E4" s="210"/>
       <c r="F4" s="152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3145,17 +3169,17 @@
     <row r="5" spans="2:10" ht="45" customHeight="1">
       <c r="B5" s="1"/>
       <c r="C5" s="152" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="220"/>
+      <c r="E5" s="210"/>
       <c r="F5" s="152" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5" s="151" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" s="167"/>
       <c r="I5" s="10"/>
@@ -3165,7 +3189,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="165"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="220"/>
+      <c r="E6" s="210"/>
       <c r="F6" s="10"/>
       <c r="G6" s="151"/>
       <c r="H6" s="10"/>
@@ -3175,7 +3199,7 @@
     <row r="7" spans="2:10" ht="45" customHeight="1">
       <c r="C7" s="165"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="220"/>
+      <c r="E7" s="210"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="167"/>
@@ -3185,7 +3209,7 @@
     <row r="8" spans="2:10" ht="45" customHeight="1">
       <c r="C8" s="165"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="201"/>
+      <c r="E8" s="211"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3222,19 +3246,19 @@
     <row r="11" spans="2:10" ht="45" customHeight="1">
       <c r="C11" s="10"/>
       <c r="D11" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="225" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="230" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="152" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="152" t="s">
-        <v>186</v>
-      </c>
       <c r="H11" s="152" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3242,14 +3266,14 @@
     <row r="12" spans="2:10" ht="45" customHeight="1">
       <c r="C12" s="10"/>
       <c r="D12" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E12" s="210"/>
       <c r="F12" s="152" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -3258,14 +3282,14 @@
     <row r="13" spans="2:10" ht="45" customHeight="1">
       <c r="C13" s="10"/>
       <c r="D13" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E13" s="210"/>
       <c r="F13" s="152" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G13" s="152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H13" s="167"/>
       <c r="I13" s="10"/>
@@ -3274,14 +3298,14 @@
     <row r="14" spans="2:10" ht="45" customHeight="1">
       <c r="C14" s="165"/>
       <c r="D14" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E14" s="210"/>
       <c r="F14" s="152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="152" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="10"/>
@@ -3290,14 +3314,14 @@
     <row r="15" spans="2:10" ht="45" customHeight="1">
       <c r="C15" s="165"/>
       <c r="D15" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E15" s="210"/>
       <c r="F15" s="152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="170" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H15" s="169"/>
       <c r="I15" s="168"/>
@@ -3306,14 +3330,14 @@
     <row r="16" spans="2:10" ht="45" customHeight="1">
       <c r="C16" s="165"/>
       <c r="D16" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E16" s="210"/>
       <c r="F16" s="152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G16" s="170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H16" s="169"/>
       <c r="I16" s="168"/>
@@ -3322,14 +3346,14 @@
     <row r="17" spans="3:10" ht="45" customHeight="1">
       <c r="C17" s="165"/>
       <c r="D17" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="201"/>
+        <v>196</v>
+      </c>
+      <c r="E17" s="211"/>
       <c r="F17" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="10"/>
@@ -3364,19 +3388,19 @@
     <row r="20" spans="3:10" ht="45" customHeight="1">
       <c r="C20" s="10"/>
       <c r="D20" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="225" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="230" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="152" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="152" t="s">
-        <v>203</v>
-      </c>
       <c r="H20" s="152" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -3384,14 +3408,14 @@
     <row r="21" spans="3:10" ht="45" customHeight="1">
       <c r="C21" s="10"/>
       <c r="D21" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E21" s="210"/>
       <c r="F21" s="152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G21" s="151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -3400,14 +3424,14 @@
     <row r="22" spans="3:10" ht="45" customHeight="1">
       <c r="C22" s="10"/>
       <c r="D22" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E22" s="210"/>
       <c r="F22" s="177" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H22" s="167"/>
       <c r="I22" s="10"/>
@@ -3416,14 +3440,14 @@
     <row r="23" spans="3:10" ht="45" customHeight="1">
       <c r="C23" s="165"/>
       <c r="D23" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E23" s="210"/>
       <c r="F23" s="179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="10"/>
@@ -3432,14 +3456,14 @@
     <row r="24" spans="3:10" ht="45" customHeight="1">
       <c r="C24" s="165"/>
       <c r="D24" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E24" s="210"/>
       <c r="F24" s="152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" s="181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H24" s="169"/>
       <c r="I24" s="168"/>
@@ -3448,14 +3472,14 @@
     <row r="25" spans="3:10" ht="45" customHeight="1">
       <c r="C25" s="165"/>
       <c r="D25" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E25" s="210"/>
       <c r="F25" s="152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="170" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H25" s="169"/>
       <c r="I25" s="168"/>
@@ -3464,14 +3488,14 @@
     <row r="26" spans="3:10" ht="45" customHeight="1">
       <c r="C26" s="165"/>
       <c r="D26" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="201"/>
+        <v>196</v>
+      </c>
+      <c r="E26" s="211"/>
       <c r="F26" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="10"/>
@@ -3506,16 +3530,16 @@
     <row r="29" spans="3:10" ht="45" customHeight="1">
       <c r="C29" s="10"/>
       <c r="D29" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="225" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="230" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="151" t="s">
         <v>200</v>
-      </c>
-      <c r="F29" s="152" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="151" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -3524,11 +3548,11 @@
     <row r="30" spans="3:10" ht="45" customHeight="1">
       <c r="C30" s="10"/>
       <c r="D30" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E30" s="210"/>
       <c r="F30" s="152" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G30" s="171"/>
       <c r="H30" s="172"/>
@@ -3538,11 +3562,11 @@
     <row r="31" spans="3:10" ht="45" customHeight="1">
       <c r="C31" s="10"/>
       <c r="D31" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E31" s="210"/>
       <c r="F31" s="152" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G31" s="171"/>
       <c r="H31" s="173"/>
@@ -3552,11 +3576,11 @@
     <row r="32" spans="3:10" ht="45" customHeight="1">
       <c r="C32" s="165"/>
       <c r="D32" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E32" s="210"/>
       <c r="F32" s="152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G32" s="171"/>
       <c r="H32" s="173"/>
@@ -3566,14 +3590,14 @@
     <row r="33" spans="3:10" ht="45" customHeight="1">
       <c r="C33" s="165"/>
       <c r="D33" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E33" s="210"/>
       <c r="F33" s="152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" s="152" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H33" s="169"/>
       <c r="I33" s="168"/>
@@ -3582,14 +3606,14 @@
     <row r="34" spans="3:10" ht="45" customHeight="1">
       <c r="C34" s="165"/>
       <c r="D34" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E34" s="210"/>
       <c r="F34" s="152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G34" s="170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H34" s="169"/>
       <c r="I34" s="168"/>
@@ -3598,11 +3622,11 @@
     <row r="35" spans="3:10" ht="45" customHeight="1">
       <c r="C35" s="165"/>
       <c r="D35" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="201"/>
+        <v>196</v>
+      </c>
+      <c r="E35" s="211"/>
       <c r="F35" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G35" s="171"/>
       <c r="H35" s="173"/>
@@ -3638,13 +3662,13 @@
     <row r="38" spans="3:10" ht="45" customHeight="1">
       <c r="C38" s="10"/>
       <c r="D38" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="225" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="E38" s="230" t="s">
+        <v>197</v>
       </c>
       <c r="F38" s="152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G38" s="152"/>
       <c r="H38" s="152"/>
@@ -3654,11 +3678,11 @@
     <row r="39" spans="3:10" ht="45" customHeight="1">
       <c r="C39" s="10"/>
       <c r="D39" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E39" s="210"/>
       <c r="F39" s="152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G39" s="152"/>
       <c r="H39" s="10"/>
@@ -3668,9 +3692,9 @@
     <row r="40" spans="3:10" ht="45" customHeight="1">
       <c r="C40" s="10"/>
       <c r="D40" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E40" s="210"/>
       <c r="F40" s="177" t="s">
         <v>67</v>
       </c>
@@ -3682,11 +3706,11 @@
     <row r="41" spans="3:10" ht="45" customHeight="1">
       <c r="C41" s="165"/>
       <c r="D41" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E41" s="210"/>
       <c r="F41" s="179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="180"/>
       <c r="H41" s="17"/>
@@ -3696,11 +3720,11 @@
     <row r="42" spans="3:10" ht="45" customHeight="1">
       <c r="C42" s="165"/>
       <c r="D42" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="220"/>
+        <v>195</v>
+      </c>
+      <c r="E42" s="210"/>
       <c r="F42" s="152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G42" s="170"/>
       <c r="H42" s="169"/>
@@ -3710,11 +3734,11 @@
     <row r="43" spans="3:10" ht="45" customHeight="1">
       <c r="C43" s="165"/>
       <c r="D43" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="E43" s="210"/>
       <c r="F43" s="152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G43" s="170"/>
       <c r="H43" s="169"/>
@@ -3724,11 +3748,11 @@
     <row r="44" spans="3:10" ht="45" customHeight="1">
       <c r="C44" s="165"/>
       <c r="D44" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="201"/>
+        <v>196</v>
+      </c>
+      <c r="E44" s="211"/>
       <c r="F44" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G44" s="152"/>
       <c r="H44" s="31"/>
@@ -3764,13 +3788,13 @@
     <row r="47" spans="3:10" ht="45" customHeight="1">
       <c r="C47" s="10"/>
       <c r="D47" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="225" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="E47" s="230" t="s">
+        <v>198</v>
       </c>
       <c r="F47" s="152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G47" s="152"/>
       <c r="H47" s="152"/>
@@ -3780,11 +3804,11 @@
     <row r="48" spans="3:10" ht="45" customHeight="1">
       <c r="C48" s="10"/>
       <c r="D48" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" s="226"/>
+        <v>196</v>
+      </c>
+      <c r="E48" s="231"/>
       <c r="F48" s="152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G48" s="152"/>
       <c r="H48" s="10"/>
@@ -3794,9 +3818,9 @@
     <row r="49" spans="3:10" ht="45" customHeight="1">
       <c r="C49" s="10"/>
       <c r="D49" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="226"/>
+        <v>196</v>
+      </c>
+      <c r="E49" s="231"/>
       <c r="F49" s="177" t="s">
         <v>67</v>
       </c>
@@ -3808,11 +3832,11 @@
     <row r="50" spans="3:10" ht="45" customHeight="1">
       <c r="C50" s="165"/>
       <c r="D50" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="226"/>
+        <v>195</v>
+      </c>
+      <c r="E50" s="231"/>
       <c r="F50" s="179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G50" s="180"/>
       <c r="H50" s="17"/>
@@ -3822,11 +3846,11 @@
     <row r="51" spans="3:10" ht="45" customHeight="1">
       <c r="C51" s="165"/>
       <c r="D51" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="226"/>
+        <v>195</v>
+      </c>
+      <c r="E51" s="231"/>
       <c r="F51" s="152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G51" s="170"/>
       <c r="H51" s="169"/>
@@ -3836,11 +3860,11 @@
     <row r="52" spans="3:10" ht="45" customHeight="1">
       <c r="C52" s="165"/>
       <c r="D52" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E52" s="226"/>
+        <v>196</v>
+      </c>
+      <c r="E52" s="231"/>
       <c r="F52" s="152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="169"/>
@@ -3850,11 +3874,11 @@
     <row r="53" spans="3:10" ht="45" customHeight="1">
       <c r="C53" s="165"/>
       <c r="D53" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="227"/>
+        <v>196</v>
+      </c>
+      <c r="E53" s="232"/>
       <c r="F53" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G53" s="152"/>
       <c r="H53" s="31"/>
@@ -3898,8 +3922,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="195"/>
-      <c r="B1" s="195"/>
+      <c r="A1" s="200"/>
+      <c r="B1" s="200"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -3923,208 +3947,208 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="238"/>
-      <c r="C3" s="234"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="239"/>
       <c r="D3" s="47"/>
       <c r="E3" s="48"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="229"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="234"/>
       <c r="D4" s="47"/>
       <c r="E4" s="49"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="229"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="234"/>
       <c r="D5" s="47"/>
       <c r="E5" s="49"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="230"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="235"/>
       <c r="D6" s="47"/>
       <c r="E6" s="49"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="239"/>
-      <c r="C7" s="235"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="240"/>
       <c r="D7" s="47"/>
       <c r="E7" s="50"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="229"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="234"/>
       <c r="D8" s="51"/>
       <c r="E8" s="50"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="229"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="234"/>
       <c r="D9" s="52"/>
       <c r="E9" s="50"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="239"/>
-      <c r="C10" s="229"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="234"/>
       <c r="D10" s="52"/>
       <c r="E10" s="50"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="230"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="235"/>
       <c r="D11" s="47"/>
       <c r="E11" s="50"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="239"/>
-      <c r="C12" s="235"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="240"/>
       <c r="D12" s="47"/>
       <c r="E12" s="11"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="239"/>
-      <c r="C13" s="229"/>
+      <c r="B13" s="244"/>
+      <c r="C13" s="234"/>
       <c r="D13" s="47"/>
       <c r="E13" s="50"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="239"/>
-      <c r="C14" s="229"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="234"/>
       <c r="D14" s="47"/>
       <c r="E14" s="49"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="229"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="234"/>
       <c r="D15" s="52"/>
       <c r="E15" s="49"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="229"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="234"/>
       <c r="D16" s="52"/>
       <c r="E16" s="49"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="239"/>
-      <c r="C17" s="236"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="241"/>
       <c r="D17" s="52"/>
       <c r="E17" s="49"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="239"/>
-      <c r="C18" s="230"/>
+      <c r="B18" s="244"/>
+      <c r="C18" s="235"/>
       <c r="D18" s="47"/>
       <c r="E18" s="50"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="239"/>
-      <c r="C19" s="237"/>
+      <c r="B19" s="244"/>
+      <c r="C19" s="242"/>
       <c r="D19" s="47"/>
       <c r="E19" s="12"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="239"/>
-      <c r="C20" s="229"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="234"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="239"/>
-      <c r="C21" s="229"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="234"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="239"/>
-      <c r="C22" s="230"/>
+      <c r="B22" s="244"/>
+      <c r="C22" s="235"/>
       <c r="D22" s="47"/>
       <c r="E22" s="54"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="239"/>
-      <c r="C23" s="228"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="47"/>
       <c r="E23" s="49"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="239"/>
-      <c r="C24" s="229"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="234"/>
       <c r="D24" s="47"/>
       <c r="E24" s="49"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="239"/>
-      <c r="C25" s="229"/>
+      <c r="B25" s="244"/>
+      <c r="C25" s="234"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="239"/>
-      <c r="C26" s="229"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="234"/>
       <c r="D26" s="13"/>
       <c r="E26" s="55"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="239"/>
-      <c r="C27" s="229"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="234"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="240"/>
-      <c r="C28" s="230"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="235"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
       <c r="F28" s="1"/>
@@ -4134,11 +4158,11 @@
       <c r="B29" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="231" t="s">
+      <c r="C29" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="238"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
@@ -4146,11 +4170,11 @@
       <c r="B30" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="231" t="s">
+      <c r="C30" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="238"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -5303,14 +5327,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" customHeight="1">
       <c r="B2" s="70"/>
@@ -5344,10 +5368,10 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1">
       <c r="B4" s="74"/>
-      <c r="C4" s="200" t="s">
+      <c r="C4" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="202" t="s">
+      <c r="D4" s="204" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="42"/>
@@ -5357,8 +5381,8 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1">
       <c r="B5" s="74"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
       <c r="G5" s="65"/>
@@ -5366,8 +5390,8 @@
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1">
       <c r="B6" s="74"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
       <c r="E6" s="42"/>
       <c r="F6" s="66"/>
       <c r="G6" s="65"/>
@@ -5375,10 +5399,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1">
       <c r="B7" s="74"/>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="204" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="42"/>
@@ -5388,8 +5412,8 @@
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1">
       <c r="B8" s="74"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
       <c r="E8" s="42"/>
       <c r="F8" s="66"/>
       <c r="G8" s="65"/>
@@ -5432,8 +5456,8 @@
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1">
       <c r="B12" s="80"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="218"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="207"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="65"/>
@@ -5441,8 +5465,8 @@
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1">
       <c r="B13" s="80"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="218"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="207"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="65"/>
@@ -5450,8 +5474,8 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1">
       <c r="B14" s="80"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="218"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="207"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="65"/>
@@ -5459,8 +5483,8 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1">
       <c r="B15" s="80"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="218"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="207"/>
       <c r="E15" s="25"/>
       <c r="F15" s="68"/>
       <c r="G15" s="69"/>
@@ -5468,8 +5492,8 @@
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1">
       <c r="B16" s="80"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="218"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="207"/>
       <c r="E16" s="25"/>
       <c r="F16" s="68"/>
       <c r="G16" s="69"/>
@@ -5477,8 +5501,8 @@
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1">
       <c r="B17" s="80"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="218"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="207"/>
       <c r="E17" s="25"/>
       <c r="F17" s="68"/>
       <c r="G17" s="69"/>
@@ -5486,8 +5510,8 @@
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1">
       <c r="B18" s="80"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="218"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="207"/>
       <c r="E18" s="25"/>
       <c r="F18" s="68"/>
       <c r="G18" s="69"/>
@@ -5495,8 +5519,8 @@
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1">
       <c r="B19" s="80"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="218"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="207"/>
       <c r="E19" s="25"/>
       <c r="F19" s="68"/>
       <c r="G19" s="69"/>
@@ -5504,8 +5528,8 @@
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1">
       <c r="B20" s="80"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="218"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="207"/>
       <c r="E20" s="25"/>
       <c r="F20" s="68"/>
       <c r="G20" s="69"/>
@@ -5513,8 +5537,8 @@
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1">
       <c r="B21" s="80"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="218"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="207"/>
       <c r="E21" s="25"/>
       <c r="F21" s="68"/>
       <c r="G21" s="69"/>
@@ -5522,8 +5546,8 @@
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
       <c r="B22" s="80"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="219"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="208"/>
       <c r="E22" s="40"/>
       <c r="F22" s="64"/>
       <c r="G22" s="69"/>
@@ -5539,14 +5563,14 @@
       <c r="H23" s="85"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="198" t="s">
+      <c r="B25" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1">
       <c r="B26" s="70"/>
@@ -5580,8 +5604,8 @@
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1">
       <c r="B28" s="74"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="204"/>
       <c r="E28" s="86"/>
       <c r="F28" s="67"/>
       <c r="G28" s="65"/>
@@ -5589,8 +5613,8 @@
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="86"/>
       <c r="F29" s="66"/>
       <c r="G29" s="65"/>
@@ -5607,11 +5631,11 @@
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1">
       <c r="B31" s="74"/>
-      <c r="C31" s="215" t="s">
+      <c r="C31" s="203" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
       <c r="H31" s="76"/>
@@ -5637,8 +5661,8 @@
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1">
       <c r="B33" s="74"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="203"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="214"/>
       <c r="E33" s="91"/>
       <c r="F33" s="25"/>
       <c r="G33" s="90"/>
@@ -5646,8 +5670,8 @@
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1">
       <c r="B34" s="74"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="213"/>
       <c r="E34" s="92"/>
       <c r="F34" s="87"/>
       <c r="G34" s="88"/>
@@ -5655,8 +5679,8 @@
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1">
       <c r="B35" s="74"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="197"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="213"/>
       <c r="E35" s="93"/>
       <c r="F35" s="25"/>
       <c r="G35" s="65"/>
@@ -5664,8 +5688,8 @@
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1">
       <c r="B36" s="74"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="197"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="213"/>
       <c r="E36" s="93"/>
       <c r="F36" s="25"/>
       <c r="G36" s="65"/>
@@ -5673,8 +5697,8 @@
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1">
       <c r="B37" s="80"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="197"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="213"/>
       <c r="E37" s="93"/>
       <c r="F37" s="68"/>
       <c r="G37" s="69"/>
@@ -5682,8 +5706,8 @@
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1">
       <c r="B38" s="80"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="197"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="213"/>
       <c r="E38" s="93"/>
       <c r="F38" s="68"/>
       <c r="G38" s="69"/>
@@ -5691,8 +5715,8 @@
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1">
       <c r="B39" s="80"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="197"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="213"/>
       <c r="E39" s="93"/>
       <c r="F39" s="68"/>
       <c r="G39" s="69"/>
@@ -5700,8 +5724,8 @@
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1">
       <c r="B40" s="80"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="197"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="213"/>
       <c r="E40" s="93"/>
       <c r="F40" s="68"/>
       <c r="G40" s="69"/>
@@ -5709,8 +5733,8 @@
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
       <c r="B41" s="80"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="197"/>
+      <c r="C41" s="212"/>
+      <c r="D41" s="213"/>
       <c r="E41" s="93"/>
       <c r="F41" s="68"/>
       <c r="G41" s="69"/>
@@ -5718,8 +5742,8 @@
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
       <c r="B42" s="80"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="197"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="213"/>
       <c r="E42" s="93"/>
       <c r="F42" s="68"/>
       <c r="G42" s="69"/>
@@ -5727,8 +5751,8 @@
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1">
       <c r="B43" s="80"/>
-      <c r="C43" s="196"/>
-      <c r="D43" s="197"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="213"/>
       <c r="E43" s="93"/>
       <c r="F43" s="68"/>
       <c r="G43" s="69"/>
@@ -5736,8 +5760,8 @@
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1">
       <c r="B44" s="80"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="197"/>
+      <c r="C44" s="212"/>
+      <c r="D44" s="213"/>
       <c r="E44" s="93"/>
       <c r="F44" s="68"/>
       <c r="G44" s="69"/>
@@ -5753,10 +5777,10 @@
       <c r="H45" s="85"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B47" s="204" t="s">
+      <c r="B47" s="215" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="205"/>
+      <c r="C47" s="216"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
       <c r="B48" s="95"/>
@@ -5790,8 +5814,8 @@
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
       <c r="B50" s="80"/>
-      <c r="C50" s="209"/>
-      <c r="D50" s="212"/>
+      <c r="C50" s="220"/>
+      <c r="D50" s="223"/>
       <c r="E50" s="91"/>
       <c r="F50" s="25"/>
       <c r="G50" s="90"/>
@@ -5799,8 +5823,8 @@
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
       <c r="B51" s="80"/>
-      <c r="C51" s="210"/>
-      <c r="D51" s="213"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="224"/>
       <c r="E51" s="92"/>
       <c r="F51" s="87"/>
       <c r="G51" s="65"/>
@@ -5808,8 +5832,8 @@
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
       <c r="B52" s="80"/>
-      <c r="C52" s="210"/>
-      <c r="D52" s="213"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="224"/>
       <c r="E52" s="93"/>
       <c r="F52" s="87"/>
       <c r="G52" s="69"/>
@@ -5817,8 +5841,8 @@
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
       <c r="B53" s="80"/>
-      <c r="C53" s="210"/>
-      <c r="D53" s="213"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="224"/>
       <c r="E53" s="93"/>
       <c r="F53" s="87"/>
       <c r="G53" s="69"/>
@@ -5826,8 +5850,8 @@
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
       <c r="B54" s="80"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="213"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="224"/>
       <c r="E54" s="93"/>
       <c r="F54" s="87"/>
       <c r="G54" s="69"/>
@@ -5835,8 +5859,8 @@
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
       <c r="B55" s="80"/>
-      <c r="C55" s="210"/>
-      <c r="D55" s="213"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="224"/>
       <c r="E55" s="93"/>
       <c r="F55" s="68"/>
       <c r="G55" s="69"/>
@@ -5844,8 +5868,8 @@
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
       <c r="B56" s="80"/>
-      <c r="C56" s="210"/>
-      <c r="D56" s="213"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="224"/>
       <c r="E56" s="93"/>
       <c r="F56" s="87"/>
       <c r="G56" s="69"/>
@@ -5853,8 +5877,8 @@
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
       <c r="B57" s="80"/>
-      <c r="C57" s="210"/>
-      <c r="D57" s="213"/>
+      <c r="C57" s="221"/>
+      <c r="D57" s="224"/>
       <c r="E57" s="93"/>
       <c r="F57" s="87"/>
       <c r="G57" s="69"/>
@@ -5862,8 +5886,8 @@
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
       <c r="B58" s="80"/>
-      <c r="C58" s="210"/>
-      <c r="D58" s="213"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="224"/>
       <c r="E58" s="93"/>
       <c r="F58" s="87"/>
       <c r="G58" s="69"/>
@@ -5871,8 +5895,8 @@
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
       <c r="B59" s="80"/>
-      <c r="C59" s="211"/>
-      <c r="D59" s="214"/>
+      <c r="C59" s="222"/>
+      <c r="D59" s="225"/>
       <c r="E59" s="93"/>
       <c r="F59" s="87"/>
       <c r="G59" s="69"/>
@@ -5910,8 +5934,8 @@
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
       <c r="B63" s="80"/>
-      <c r="C63" s="202"/>
-      <c r="D63" s="206"/>
+      <c r="C63" s="204"/>
+      <c r="D63" s="217"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="65"/>
@@ -5919,8 +5943,8 @@
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
       <c r="B64" s="80"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="207"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="218"/>
       <c r="E64" s="25"/>
       <c r="F64" s="40"/>
       <c r="G64" s="65"/>
@@ -5958,8 +5982,8 @@
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1">
       <c r="B68" s="80"/>
-      <c r="C68" s="202"/>
-      <c r="D68" s="208"/>
+      <c r="C68" s="204"/>
+      <c r="D68" s="219"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="65"/>
@@ -5967,8 +5991,8 @@
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1">
       <c r="B69" s="80"/>
-      <c r="C69" s="201"/>
-      <c r="D69" s="207"/>
+      <c r="C69" s="211"/>
+      <c r="D69" s="218"/>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
       <c r="G69" s="65"/>
@@ -6006,8 +6030,8 @@
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1">
       <c r="B73" s="80"/>
-      <c r="C73" s="196"/>
-      <c r="D73" s="197"/>
+      <c r="C73" s="212"/>
+      <c r="D73" s="213"/>
       <c r="E73" s="89"/>
       <c r="F73" s="99"/>
       <c r="G73" s="90"/>
@@ -6015,8 +6039,8 @@
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1">
       <c r="B74" s="80"/>
-      <c r="C74" s="196"/>
-      <c r="D74" s="197"/>
+      <c r="C74" s="212"/>
+      <c r="D74" s="213"/>
       <c r="E74" s="99"/>
       <c r="F74" s="99"/>
       <c r="G74" s="65"/>
@@ -6024,8 +6048,8 @@
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1">
       <c r="B75" s="80"/>
-      <c r="C75" s="196"/>
-      <c r="D75" s="197"/>
+      <c r="C75" s="212"/>
+      <c r="D75" s="213"/>
       <c r="E75" s="99"/>
       <c r="F75" s="99"/>
       <c r="G75" s="69"/>
@@ -6033,8 +6057,8 @@
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1">
       <c r="B76" s="80"/>
-      <c r="C76" s="196"/>
-      <c r="D76" s="197"/>
+      <c r="C76" s="212"/>
+      <c r="D76" s="213"/>
       <c r="E76" s="99"/>
       <c r="F76" s="99"/>
       <c r="G76" s="69"/>
@@ -6042,8 +6066,8 @@
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1">
       <c r="B77" s="80"/>
-      <c r="C77" s="196"/>
-      <c r="D77" s="197"/>
+      <c r="C77" s="212"/>
+      <c r="D77" s="213"/>
       <c r="E77" s="99"/>
       <c r="F77" s="99"/>
       <c r="G77" s="69"/>
@@ -6060,14 +6084,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C12:C22"/>
-    <mergeCell ref="D12:D22"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="C73:C77"/>
     <mergeCell ref="D73:D77"/>
     <mergeCell ref="B25:G25"/>
@@ -6082,6 +6098,14 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="C50:C59"/>
     <mergeCell ref="D50:D59"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C12:C22"/>
+    <mergeCell ref="D12:D22"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6094,10 +6118,10 @@
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -6134,7 +6158,7 @@
     <row r="3" spans="2:19" ht="15.75" customHeight="1">
       <c r="B3" s="118"/>
       <c r="C3" s="182" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="120"/>
       <c r="E3" s="121"/>
@@ -6167,7 +6191,7 @@
         <v>52</v>
       </c>
       <c r="I4" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J4" s="160"/>
       <c r="R4"/>
@@ -6200,7 +6224,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
@@ -6221,7 +6245,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="113"/>
       <c r="F7" s="113" t="s">
@@ -6244,7 +6268,7 @@
         <v>105</v>
       </c>
       <c r="D8" s="111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="113"/>
       <c r="F8" s="113" t="s">
@@ -6263,7 +6287,7 @@
         <v>106</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="113"/>
       <c r="F9" s="113" t="s">
@@ -6279,20 +6303,22 @@
     <row r="10" spans="2:19" ht="15.75" customHeight="1">
       <c r="B10" s="118"/>
       <c r="C10" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>154</v>
+        <v>277</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>278</v>
       </c>
       <c r="E10" s="113"/>
       <c r="F10" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="188"/>
-      <c r="I10" s="129"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J10" s="161"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" customHeight="1">
@@ -6301,7 +6327,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="113"/>
       <c r="F11" s="113"/>
@@ -6315,10 +6341,10 @@
     <row r="12" spans="2:19" ht="15.75" customHeight="1">
       <c r="B12" s="118"/>
       <c r="C12" s="114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" s="194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="113"/>
       <c r="F12" s="113"/>
@@ -6333,7 +6359,7 @@
         <v>128</v>
       </c>
       <c r="D13" s="194" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="113"/>
       <c r="F13" s="113"/>
@@ -6345,10 +6371,10 @@
     <row r="14" spans="2:19" ht="15" customHeight="1">
       <c r="B14" s="118"/>
       <c r="C14" s="114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="194" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="113"/>
@@ -6360,7 +6386,7 @@
     <row r="15" spans="2:19" ht="15" customHeight="1">
       <c r="B15" s="118"/>
       <c r="C15" s="114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="113"/>
@@ -6423,7 +6449,7 @@
         <v>52</v>
       </c>
       <c r="I19" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J19" s="161"/>
       <c r="R19"/>
@@ -6456,7 +6482,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="113"/>
       <c r="F21" s="113"/>
@@ -6475,7 +6501,7 @@
         <v>131</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E22" s="113"/>
       <c r="F22" s="113"/>
@@ -6491,10 +6517,10 @@
     <row r="23" spans="2:19" ht="15.75" customHeight="1">
       <c r="B23" s="125"/>
       <c r="C23" s="111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="113"/>
       <c r="F23" s="113"/>
@@ -6502,7 +6528,7 @@
         <v>134</v>
       </c>
       <c r="H23" s="188" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I23" s="153" t="s">
         <v>54</v>
@@ -6544,7 +6570,7 @@
     <row r="26" spans="2:19" ht="17" customHeight="1">
       <c r="B26" s="125"/>
       <c r="C26" s="119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="120"/>
       <c r="E26" s="121"/>
@@ -6577,7 +6603,7 @@
         <v>52</v>
       </c>
       <c r="I27" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J27" s="162"/>
       <c r="R27"/>
@@ -6610,7 +6636,7 @@
         <v>103</v>
       </c>
       <c r="D29" s="112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="113"/>
       <c r="F29" s="113"/>
@@ -6626,10 +6652,10 @@
     <row r="30" spans="2:19" ht="17" customHeight="1">
       <c r="B30" s="125"/>
       <c r="C30" s="111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="113"/>
       <c r="F30" s="113"/>
@@ -6637,7 +6663,7 @@
         <v>134</v>
       </c>
       <c r="H30" s="188" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I30" s="153" t="s">
         <v>54</v>
@@ -6649,10 +6675,10 @@
     <row r="31" spans="2:19" ht="15.75" customHeight="1">
       <c r="B31" s="125"/>
       <c r="C31" s="111" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="111" t="s">
         <v>234</v>
-      </c>
-      <c r="D31" s="111" t="s">
-        <v>235</v>
       </c>
       <c r="E31" s="113"/>
       <c r="F31" s="113"/>
@@ -6660,7 +6686,7 @@
         <v>134</v>
       </c>
       <c r="H31" s="188" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I31" s="153" t="s">
         <v>54</v>
@@ -6701,7 +6727,7 @@
     <row r="34" spans="2:19" ht="15.75" customHeight="1">
       <c r="B34" s="125"/>
       <c r="C34" s="119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" s="120"/>
       <c r="E34" s="121"/>
@@ -6734,7 +6760,7 @@
         <v>52</v>
       </c>
       <c r="I35" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J35" s="162"/>
       <c r="R35"/>
@@ -6767,7 +6793,7 @@
         <v>103</v>
       </c>
       <c r="D37" s="112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="113"/>
       <c r="F37" s="113"/>
@@ -6786,7 +6812,7 @@
         <v>128</v>
       </c>
       <c r="D38" s="111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E38" s="113"/>
       <c r="F38" s="113"/>
@@ -6794,7 +6820,7 @@
         <v>134</v>
       </c>
       <c r="H38" s="188" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I38" s="153" t="s">
         <v>54</v>
@@ -6806,10 +6832,10 @@
     <row r="39" spans="2:19" ht="15.75" customHeight="1">
       <c r="B39" s="125"/>
       <c r="C39" s="111" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="111" t="s">
         <v>234</v>
-      </c>
-      <c r="D39" s="111" t="s">
-        <v>235</v>
       </c>
       <c r="E39" s="113"/>
       <c r="F39" s="113"/>
@@ -6817,7 +6843,7 @@
         <v>134</v>
       </c>
       <c r="H39" s="188" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I39" s="153" t="s">
         <v>54</v>
@@ -6900,14 +6926,14 @@
         <v>52</v>
       </c>
       <c r="I45" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J45" s="161"/>
     </row>
     <row r="46" spans="2:19" ht="15" customHeight="1">
       <c r="B46" s="118"/>
       <c r="C46" s="147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D46" s="109" t="s">
         <v>147</v>
@@ -6929,51 +6955,51 @@
         <v>103</v>
       </c>
       <c r="D47" s="112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" s="113"/>
       <c r="F47" s="113"/>
       <c r="G47" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="243"/>
+      <c r="H47" s="197"/>
       <c r="I47" s="129"/>
       <c r="J47" s="161"/>
     </row>
     <row r="48" spans="2:19" ht="15" customHeight="1">
       <c r="B48" s="118"/>
       <c r="C48" s="111" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="112" t="s">
         <v>270</v>
-      </c>
-      <c r="D48" s="112" t="s">
-        <v>271</v>
       </c>
       <c r="E48" s="113"/>
       <c r="F48" s="113"/>
-      <c r="G48" s="242" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" s="245"/>
+      <c r="G48" s="196" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="199"/>
       <c r="I48" s="129"/>
       <c r="J48" s="161"/>
     </row>
     <row r="49" spans="2:19" ht="15" customHeight="1">
       <c r="B49" s="118"/>
       <c r="C49" s="111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D49" s="111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E49" s="113"/>
       <c r="F49" s="113"/>
       <c r="G49" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="H49" s="244" t="s">
-        <v>248</v>
-      </c>
-      <c r="I49" s="241" t="s">
+      <c r="H49" s="198" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="195" t="s">
         <v>54</v>
       </c>
       <c r="J49" s="161"/>
@@ -6990,7 +7016,7 @@
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
       <c r="H50" s="189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I50" s="153" t="s">
         <v>54</v>
@@ -7024,7 +7050,7 @@
         <v>116</v>
       </c>
       <c r="D52" s="111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
@@ -7056,7 +7082,7 @@
         <v>118</v>
       </c>
       <c r="D54" s="111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
@@ -7087,10 +7113,10 @@
     <row r="56" spans="2:19" ht="15" customHeight="1">
       <c r="B56" s="125"/>
       <c r="C56" s="114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D56" s="111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
@@ -7105,7 +7131,7 @@
         <v>140</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E57" s="113"/>
       <c r="F57" s="113" t="s">
@@ -7113,9 +7139,9 @@
       </c>
       <c r="G57" s="113"/>
       <c r="H57" s="190" t="s">
-        <v>222</v>
-      </c>
-      <c r="I57" s="241" t="s">
+        <v>221</v>
+      </c>
+      <c r="I57" s="195" t="s">
         <v>54</v>
       </c>
       <c r="J57" s="161"/>
@@ -7123,10 +7149,10 @@
     <row r="58" spans="2:19" ht="15" customHeight="1">
       <c r="B58" s="125"/>
       <c r="C58" s="114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D58" s="111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E58" s="113"/>
       <c r="F58" s="113" t="s">
@@ -7143,7 +7169,7 @@
         <v>121</v>
       </c>
       <c r="D59" s="111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E59" s="113"/>
       <c r="F59" s="113" t="s">
@@ -7193,7 +7219,7 @@
     <row r="63" spans="2:19" ht="15" customHeight="1">
       <c r="B63" s="125"/>
       <c r="C63" s="120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
@@ -7224,7 +7250,7 @@
         <v>52</v>
       </c>
       <c r="I64" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J64" s="185"/>
       <c r="K64" s="145"/>
@@ -7259,7 +7285,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="134"/>
       <c r="F66" s="134"/>
@@ -7279,7 +7305,7 @@
         <v>141</v>
       </c>
       <c r="D67" s="111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E67" s="134"/>
       <c r="F67" s="134"/>
@@ -7356,7 +7382,7 @@
     <row r="72" spans="2:19" ht="15" customHeight="1">
       <c r="B72" s="125"/>
       <c r="C72" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -7389,7 +7415,7 @@
         <v>52</v>
       </c>
       <c r="I73" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J73" s="160"/>
       <c r="K73"/>
@@ -7422,7 +7448,7 @@
         <v>103</v>
       </c>
       <c r="D75" s="136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E75" s="134"/>
       <c r="F75" s="134"/>
@@ -7443,7 +7469,7 @@
         <v>104</v>
       </c>
       <c r="D76" s="129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" s="134"/>
       <c r="F76" s="134" t="s">
@@ -7467,7 +7493,7 @@
         <v>105</v>
       </c>
       <c r="D77" s="129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E77" s="134"/>
       <c r="F77" s="134" t="s">
@@ -7489,7 +7515,7 @@
         <v>106</v>
       </c>
       <c r="D78" s="129" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E78" s="134"/>
       <c r="F78" s="134" t="s">
@@ -7505,19 +7531,17 @@
     </row>
     <row r="79" spans="2:19" ht="15" customHeight="1">
       <c r="B79" s="125"/>
-      <c r="C79" s="129" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="129" t="s">
-        <v>149</v>
+      <c r="C79" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="111" t="s">
+        <v>153</v>
       </c>
       <c r="E79" s="134"/>
       <c r="F79" s="134"/>
       <c r="G79" s="134"/>
-      <c r="H79" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="I79" s="153"/>
+      <c r="H79" s="129"/>
+      <c r="I79" s="129"/>
       <c r="J79" s="161"/>
       <c r="K79"/>
       <c r="R79"/>
@@ -7525,17 +7549,23 @@
     </row>
     <row r="80" spans="2:19" ht="15" customHeight="1">
       <c r="B80" s="125"/>
-      <c r="C80" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="111" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80" s="134"/>
-      <c r="F80" s="134"/>
-      <c r="G80" s="134"/>
-      <c r="H80" s="129"/>
-      <c r="I80" s="129"/>
+      <c r="C80" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="129" t="s">
+        <v>278</v>
+      </c>
+      <c r="E80" s="113"/>
+      <c r="F80" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="113"/>
+      <c r="H80" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="I80" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J80" s="161"/>
       <c r="K80"/>
       <c r="R80"/>
@@ -7543,21 +7573,17 @@
     </row>
     <row r="81" spans="2:19" ht="15" customHeight="1">
       <c r="B81" s="125"/>
-      <c r="C81" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="D81" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" s="113"/>
-      <c r="F81" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="G81" s="113"/>
+      <c r="C81" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" s="129" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
       <c r="H81" s="129"/>
-      <c r="I81" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="I81" s="129"/>
       <c r="J81" s="161"/>
       <c r="K81"/>
       <c r="R81"/>
@@ -7565,15 +7591,17 @@
     </row>
     <row r="82" spans="2:19" ht="15" customHeight="1">
       <c r="B82" s="125"/>
-      <c r="C82" s="136" t="s">
-        <v>227</v>
+      <c r="C82" s="193" t="s">
+        <v>259</v>
       </c>
       <c r="D82" s="129" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E82" s="134"/>
       <c r="F82" s="134"/>
-      <c r="G82" s="134"/>
+      <c r="G82" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="H82" s="129"/>
       <c r="I82" s="129"/>
       <c r="J82" s="161"/>
@@ -7583,17 +7611,15 @@
     </row>
     <row r="83" spans="2:19" ht="15" customHeight="1">
       <c r="B83" s="125"/>
-      <c r="C83" s="193" t="s">
-        <v>260</v>
-      </c>
-      <c r="D83" s="129" t="s">
-        <v>259</v>
+      <c r="C83" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="136" t="s">
+        <v>145</v>
       </c>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
-      <c r="G83" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="G83" s="134"/>
       <c r="H83" s="129"/>
       <c r="I83" s="129"/>
       <c r="J83" s="161"/>
@@ -7603,90 +7629,92 @@
     </row>
     <row r="84" spans="2:19" ht="15" customHeight="1">
       <c r="B84" s="125"/>
-      <c r="C84" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D84" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="129"/>
-      <c r="I84" s="129"/>
-      <c r="J84" s="161"/>
+      <c r="J84" s="162"/>
       <c r="K84"/>
       <c r="R84"/>
       <c r="S84"/>
     </row>
     <row r="85" spans="2:19" ht="15" customHeight="1">
       <c r="B85" s="125"/>
-      <c r="J85" s="162"/>
+      <c r="C85" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85" s="104"/>
       <c r="K85"/>
       <c r="R85"/>
       <c r="S85"/>
     </row>
     <row r="86" spans="2:19" ht="15" customHeight="1">
       <c r="B86" s="125"/>
-      <c r="C86" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86" s="104"/>
+      <c r="C86" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I86" s="131" t="s">
+        <v>249</v>
+      </c>
+      <c r="J86" s="160"/>
       <c r="K86"/>
       <c r="R86"/>
       <c r="S86"/>
     </row>
     <row r="87" spans="2:19" ht="15" customHeight="1">
       <c r="B87" s="125"/>
-      <c r="C87" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D87" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E87" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F87" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G87" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H87" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I87" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="J87" s="160"/>
+      <c r="C87" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F87" s="133"/>
+      <c r="G87" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H87" s="132"/>
+      <c r="I87" s="132"/>
+      <c r="J87" s="161"/>
       <c r="K87"/>
       <c r="R87"/>
       <c r="S87"/>
     </row>
     <row r="88" spans="2:19" ht="15" customHeight="1">
       <c r="B88" s="125"/>
-      <c r="C88" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E88" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F88" s="133"/>
-      <c r="G88" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H88" s="132"/>
-      <c r="I88" s="132"/>
+      <c r="C88" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="136" t="s">
+        <v>244</v>
+      </c>
+      <c r="E88" s="134"/>
+      <c r="F88" s="134"/>
+      <c r="G88" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" s="129"/>
+      <c r="I88" s="129"/>
       <c r="J88" s="161"/>
       <c r="K88"/>
       <c r="R88"/>
@@ -7695,18 +7723,22 @@
     <row r="89" spans="2:19" ht="15" customHeight="1">
       <c r="B89" s="125"/>
       <c r="C89" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="136" t="s">
-        <v>245</v>
+        <v>120</v>
+      </c>
+      <c r="D89" s="111" t="s">
+        <v>148</v>
       </c>
       <c r="E89" s="134"/>
       <c r="F89" s="134"/>
       <c r="G89" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="H89" s="129"/>
-      <c r="I89" s="129"/>
+      <c r="H89" s="129" t="s">
+        <v>218</v>
+      </c>
+      <c r="I89" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J89" s="161"/>
       <c r="K89"/>
       <c r="R89"/>
@@ -7714,195 +7746,184 @@
     </row>
     <row r="90" spans="2:19" ht="15" customHeight="1">
       <c r="B90" s="125"/>
-      <c r="C90" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="111" t="s">
-        <v>148</v>
+      <c r="C90" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E90" s="134"/>
       <c r="F90" s="134"/>
-      <c r="G90" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H90" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="I90" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="G90" s="134"/>
+      <c r="H90" s="129"/>
+      <c r="I90" s="129"/>
       <c r="J90" s="161"/>
       <c r="K90"/>
       <c r="R90"/>
-      <c r="S90"/>
-    </row>
-    <row r="91" spans="2:19" ht="15" customHeight="1">
-      <c r="B91" s="125"/>
-      <c r="C91" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D91" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" s="134"/>
-      <c r="F91" s="134"/>
-      <c r="G91" s="134"/>
-      <c r="H91" s="129"/>
-      <c r="I91" s="129"/>
-      <c r="J91" s="161"/>
+    </row>
+    <row r="91" spans="2:19" ht="15" customHeight="1" thickBot="1">
+      <c r="B91" s="126"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="106"/>
       <c r="K91"/>
       <c r="R91"/>
+      <c r="S91"/>
     </row>
     <row r="92" spans="2:19" ht="15" customHeight="1" thickBot="1">
-      <c r="B92" s="126"/>
-      <c r="C92" s="105"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="105"/>
-      <c r="I92" s="105"/>
-      <c r="J92" s="106"/>
-      <c r="K92"/>
-      <c r="R92"/>
       <c r="S92"/>
     </row>
-    <row r="93" spans="2:19" ht="15" customHeight="1" thickBot="1">
+    <row r="93" spans="2:19" ht="15" customHeight="1">
+      <c r="B93" s="183" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="184"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="102"/>
+      <c r="I93" s="102"/>
+      <c r="J93" s="103"/>
       <c r="S93"/>
     </row>
     <row r="94" spans="2:19" ht="15" customHeight="1">
-      <c r="B94" s="183" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" s="184"/>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
-      <c r="F94" s="102"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="102"/>
-      <c r="I94" s="102"/>
-      <c r="J94" s="103"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" s="104"/>
       <c r="S94"/>
     </row>
     <row r="95" spans="2:19" ht="15" customHeight="1">
       <c r="B95" s="146"/>
-      <c r="C95" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
+      <c r="C95" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G95" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H95" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I95" s="131" t="s">
+        <v>249</v>
+      </c>
       <c r="J95" s="104"/>
       <c r="S95"/>
     </row>
     <row r="96" spans="2:19" ht="15" customHeight="1">
       <c r="B96" s="146"/>
-      <c r="C96" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D96" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F96" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G96" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H96" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I96" s="131" t="s">
-        <v>250</v>
-      </c>
+      <c r="C96" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F96" s="133"/>
+      <c r="G96" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H96" s="132"/>
+      <c r="I96" s="132"/>
       <c r="J96" s="104"/>
       <c r="S96"/>
     </row>
     <row r="97" spans="2:19" ht="15" customHeight="1">
       <c r="B97" s="146"/>
-      <c r="C97" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D97" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E97" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F97" s="133"/>
-      <c r="G97" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H97" s="132"/>
-      <c r="I97" s="132"/>
+      <c r="C97" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="134"/>
+      <c r="F97" s="134"/>
+      <c r="G97" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H97" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="I97" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J97" s="104"/>
-      <c r="S97"/>
+      <c r="R97"/>
     </row>
     <row r="98" spans="2:19" ht="15" customHeight="1">
       <c r="B98" s="146"/>
       <c r="C98" s="129" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D98" s="111" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E98" s="134"/>
       <c r="F98" s="134"/>
-      <c r="G98" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="G98" s="134"/>
       <c r="H98" s="129" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="I98" s="153" t="s">
         <v>54</v>
       </c>
       <c r="J98" s="104"/>
-      <c r="R98"/>
     </row>
     <row r="99" spans="2:19" ht="15" customHeight="1">
       <c r="B99" s="146"/>
-      <c r="C99" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" s="111" t="s">
-        <v>148</v>
+      <c r="C99" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E99" s="134"/>
       <c r="F99" s="134"/>
       <c r="G99" s="134"/>
-      <c r="H99" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="I99" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="H99" s="129"/>
+      <c r="I99" s="129"/>
       <c r="J99" s="104"/>
     </row>
     <row r="100" spans="2:19" ht="15" customHeight="1">
       <c r="B100" s="146"/>
-      <c r="C100" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D100" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="134"/>
-      <c r="F100" s="134"/>
-      <c r="G100" s="134"/>
-      <c r="H100" s="129"/>
-      <c r="I100" s="129"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
       <c r="J100" s="104"/>
     </row>
     <row r="101" spans="2:19" ht="15" customHeight="1">
       <c r="B101" s="146"/>
-      <c r="C101"/>
+      <c r="C101" s="57" t="s">
+        <v>224</v>
+      </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
@@ -7913,68 +7934,76 @@
     </row>
     <row r="102" spans="2:19" ht="15" customHeight="1">
       <c r="B102" s="146"/>
-      <c r="C102" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
+      <c r="C102" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G102" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I102" s="131" t="s">
+        <v>249</v>
+      </c>
       <c r="J102" s="104"/>
     </row>
     <row r="103" spans="2:19" ht="15" customHeight="1">
       <c r="B103" s="146"/>
-      <c r="C103" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D103" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F103" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G103" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H103" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I103" s="131" t="s">
-        <v>250</v>
-      </c>
+      <c r="C103" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E103" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F103" s="133"/>
+      <c r="G103" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H103" s="132"/>
+      <c r="I103" s="132"/>
       <c r="J103" s="104"/>
     </row>
     <row r="104" spans="2:19" ht="15" customHeight="1">
       <c r="B104" s="146"/>
-      <c r="C104" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E104" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F104" s="133"/>
-      <c r="G104" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H104" s="132"/>
-      <c r="I104" s="132"/>
+      <c r="C104" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D104" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="134"/>
+      <c r="F104" s="134"/>
+      <c r="G104" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H104" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="I104" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J104" s="104"/>
     </row>
     <row r="105" spans="2:19" ht="15" customHeight="1">
       <c r="B105" s="146"/>
       <c r="C105" s="129" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D105" s="111" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E105" s="134"/>
       <c r="F105" s="134"/>
@@ -7982,7 +8011,7 @@
         <v>134</v>
       </c>
       <c r="H105" s="129" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="I105" s="153" t="s">
         <v>54</v>
@@ -7991,44 +8020,37 @@
     </row>
     <row r="106" spans="2:19" ht="15" customHeight="1">
       <c r="B106" s="146"/>
-      <c r="C106" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" s="111" t="s">
-        <v>148</v>
+      <c r="C106" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E106" s="134"/>
       <c r="F106" s="134"/>
-      <c r="G106" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H106" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="I106" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="G106" s="134"/>
+      <c r="H106" s="129"/>
+      <c r="I106" s="129"/>
       <c r="J106" s="104"/>
+      <c r="S106"/>
     </row>
     <row r="107" spans="2:19" ht="15" customHeight="1">
       <c r="B107" s="146"/>
-      <c r="C107" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D107" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E107" s="134"/>
-      <c r="F107" s="134"/>
-      <c r="G107" s="134"/>
-      <c r="H107" s="129"/>
-      <c r="I107" s="129"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
       <c r="J107" s="104"/>
       <c r="S107"/>
     </row>
     <row r="108" spans="2:19" ht="15" customHeight="1">
       <c r="B108" s="146"/>
-      <c r="C108"/>
+      <c r="C108" s="108" t="s">
+        <v>227</v>
+      </c>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
@@ -8039,70 +8061,77 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="2:19" ht="15" customHeight="1">
-      <c r="B109" s="146"/>
-      <c r="C109" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109" s="104"/>
-      <c r="S109"/>
+      <c r="B109" s="125"/>
+      <c r="C109" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G109" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H109" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I109" s="131" t="s">
+        <v>249</v>
+      </c>
+      <c r="J109" s="162"/>
     </row>
     <row r="110" spans="2:19" ht="15" customHeight="1">
       <c r="B110" s="125"/>
-      <c r="C110" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D110" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F110" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G110" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H110" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I110" s="131" t="s">
-        <v>250</v>
-      </c>
+      <c r="C110" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E110" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="133"/>
+      <c r="G110" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H110" s="132"/>
+      <c r="I110" s="132"/>
       <c r="J110" s="162"/>
     </row>
     <row r="111" spans="2:19" ht="15" customHeight="1">
       <c r="B111" s="125"/>
-      <c r="C111" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D111" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F111" s="133"/>
-      <c r="G111" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H111" s="132"/>
-      <c r="I111" s="132"/>
+      <c r="C111" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="134"/>
+      <c r="F111" s="134"/>
+      <c r="G111" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="I111" s="153" t="s">
+        <v>54</v>
+      </c>
       <c r="J111" s="162"/>
     </row>
     <row r="112" spans="2:19" ht="15" customHeight="1">
       <c r="B112" s="125"/>
       <c r="C112" s="129" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D112" s="111" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E112" s="134"/>
       <c r="F112" s="134"/>
@@ -8110,7 +8139,7 @@
         <v>134</v>
       </c>
       <c r="H112" s="129" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="I112" s="153" t="s">
         <v>54</v>
@@ -8119,108 +8148,102 @@
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1">
       <c r="B113" s="125"/>
-      <c r="C113" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="111" t="s">
-        <v>148</v>
+      <c r="C113" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E113" s="134"/>
       <c r="F113" s="134"/>
-      <c r="G113" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="H113" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="I113" s="153" t="s">
-        <v>54</v>
-      </c>
+      <c r="G113" s="134"/>
+      <c r="H113" s="129"/>
+      <c r="I113" s="129"/>
       <c r="J113" s="162"/>
     </row>
-    <row r="114" spans="2:10" ht="15" customHeight="1">
-      <c r="B114" s="125"/>
-      <c r="C114" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D114" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E114" s="134"/>
-      <c r="F114" s="134"/>
-      <c r="G114" s="134"/>
-      <c r="H114" s="129"/>
-      <c r="I114" s="129"/>
-      <c r="J114" s="162"/>
-    </row>
-    <row r="115" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B115" s="126"/>
-      <c r="C115" s="127"/>
-      <c r="D115" s="127"/>
-      <c r="E115" s="127"/>
-      <c r="F115" s="127"/>
-      <c r="G115" s="127"/>
-      <c r="H115" s="127"/>
-      <c r="I115" s="127"/>
-      <c r="J115" s="164"/>
+    <row r="114" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B114" s="126"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
+      <c r="H114" s="127"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="164"/>
+    </row>
+    <row r="117" spans="2:10" ht="15" customHeight="1">
+      <c r="C117" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" s="120"/>
+      <c r="E117" s="121"/>
+      <c r="F117" s="121"/>
+      <c r="G117" s="121"/>
+      <c r="H117" s="120"/>
+      <c r="I117" s="120"/>
     </row>
     <row r="118" spans="2:10" ht="15" customHeight="1">
-      <c r="C118" s="119" t="s">
-        <v>138</v>
-      </c>
-      <c r="D118" s="120"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="121"/>
-      <c r="G118" s="121"/>
-      <c r="H118" s="120"/>
-      <c r="I118" s="120"/>
+      <c r="C118" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="G118" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="H118" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="I118" s="131" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1">
-      <c r="C119" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="D119" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="E119" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="F119" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="G119" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="H119" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="I119" s="131" t="s">
-        <v>250</v>
-      </c>
+      <c r="C119" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E119" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F119" s="110"/>
+      <c r="G119" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="H119" s="187"/>
+      <c r="I119" s="132"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1">
-      <c r="C120" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E120" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="F120" s="110"/>
-      <c r="G120" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="H120" s="187"/>
-      <c r="I120" s="132"/>
+      <c r="C120" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" s="113"/>
+      <c r="F120" s="113"/>
+      <c r="G120" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="H120" s="188"/>
+      <c r="I120" s="129"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1">
       <c r="C121" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="D121" s="112" t="s">
-        <v>152</v>
+        <v>129</v>
+      </c>
+      <c r="D121" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E121" s="113"/>
       <c r="F121" s="113"/>
@@ -8231,22 +8254,18 @@
       <c r="I121" s="129"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1">
-      <c r="C122" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="D122" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E122" s="113"/>
-      <c r="F122" s="113"/>
-      <c r="G122" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="H122" s="188"/>
-      <c r="I122" s="129"/>
+      <c r="C122" s="120"/>
+      <c r="D122" s="120"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
+      <c r="G122" s="121"/>
+      <c r="H122" s="120"/>
+      <c r="I122" s="120"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1">
-      <c r="C123" s="120"/>
+      <c r="C123" s="119" t="s">
+        <v>221</v>
+      </c>
       <c r="D123" s="120"/>
       <c r="E123" s="121"/>
       <c r="F123" s="121"/>
@@ -8255,62 +8274,64 @@
       <c r="I123" s="120"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1">
-      <c r="C124" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="D124" s="120"/>
-      <c r="E124" s="121"/>
-      <c r="F124" s="121"/>
-      <c r="G124" s="121"/>
-      <c r="H124" s="120"/>
-      <c r="I124" s="120"/>
+      <c r="C124" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F124" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G124" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H124" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I124" s="131" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1">
-      <c r="C125" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E125" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F125" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G125" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H125" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I125" s="131" t="s">
-        <v>249</v>
-      </c>
+      <c r="C125" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F125" s="133"/>
+      <c r="G125" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H125" s="132"/>
+      <c r="I125" s="132"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1">
-      <c r="C126" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D126" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E126" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F126" s="133"/>
-      <c r="G126" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H126" s="132"/>
-      <c r="I126" s="132"/>
+      <c r="C126" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="D126" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126" s="134"/>
+      <c r="F126" s="134"/>
+      <c r="G126" s="134"/>
+      <c r="H126" s="129"/>
+      <c r="I126" s="129"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1">
       <c r="C127" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="D127" s="112" t="s">
-        <v>156</v>
+        <v>129</v>
+      </c>
+      <c r="D127" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E127" s="134"/>
       <c r="F127" s="134"/>
@@ -8319,21 +8340,19 @@
       <c r="I127" s="129"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1">
-      <c r="C128" s="129" t="s">
-        <v>129</v>
-      </c>
-      <c r="D128" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E128" s="134"/>
-      <c r="F128" s="134"/>
-      <c r="G128" s="134"/>
-      <c r="H128" s="129"/>
-      <c r="I128" s="129"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="107"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
     </row>
     <row r="129" spans="3:9" ht="15" customHeight="1">
-      <c r="C129" s="107"/>
-      <c r="D129" s="107"/>
+      <c r="C129" s="108" t="s">
+        <v>219</v>
+      </c>
+      <c r="D129"/>
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129"/>
@@ -8341,302 +8360,308 @@
       <c r="I129"/>
     </row>
     <row r="130" spans="3:9" ht="15" customHeight="1">
-      <c r="C130" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
+      <c r="C130" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F130" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G130" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H130" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I130" s="131" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="131" spans="3:9" ht="15" customHeight="1">
-      <c r="C131" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D131" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E131" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F131" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G131" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H131" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I131" s="131" t="s">
-        <v>249</v>
-      </c>
+      <c r="C131" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F131" s="133"/>
+      <c r="G131" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H131" s="132"/>
+      <c r="I131" s="132"/>
     </row>
     <row r="132" spans="3:9" ht="15" customHeight="1">
-      <c r="C132" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D132" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E132" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F132" s="133"/>
-      <c r="G132" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H132" s="132"/>
-      <c r="I132" s="132"/>
+      <c r="C132" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132" s="134"/>
+      <c r="F132" s="134"/>
+      <c r="G132" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H132" s="129"/>
+      <c r="I132" s="129"/>
     </row>
     <row r="133" spans="3:9" ht="15" customHeight="1">
       <c r="C133" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="D133" s="136" t="s">
-        <v>164</v>
+        <v>141</v>
+      </c>
+      <c r="D133" s="111" t="s">
+        <v>154</v>
       </c>
       <c r="E133" s="134"/>
       <c r="F133" s="134"/>
       <c r="G133" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="H133" s="129"/>
+      <c r="H133" s="129" t="s">
+        <v>142</v>
+      </c>
       <c r="I133" s="129"/>
     </row>
     <row r="134" spans="3:9" ht="15" customHeight="1">
       <c r="C134" s="129" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D134" s="111" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E134" s="134"/>
       <c r="F134" s="134"/>
-      <c r="G134" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="G134" s="134"/>
       <c r="H134" s="129" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="I134" s="129"/>
     </row>
     <row r="135" spans="3:9" ht="15" customHeight="1">
-      <c r="C135" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D135" s="111" t="s">
-        <v>148</v>
+      <c r="C135" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E135" s="134"/>
       <c r="F135" s="134"/>
       <c r="G135" s="134"/>
-      <c r="H135" s="129" t="s">
-        <v>219</v>
-      </c>
+      <c r="H135" s="129"/>
       <c r="I135" s="129"/>
     </row>
-    <row r="136" spans="3:9" ht="15" customHeight="1">
-      <c r="C136" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D136" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E136" s="134"/>
-      <c r="F136" s="134"/>
-      <c r="G136" s="134"/>
-      <c r="H136" s="129"/>
-      <c r="I136" s="129"/>
+    <row r="138" spans="3:9" ht="15" customHeight="1">
+      <c r="C138" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
     </row>
     <row r="139" spans="3:9" ht="15" customHeight="1">
-      <c r="C139" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
+      <c r="C139" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D139" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F139" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G139" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H139" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I139" s="131" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="140" spans="3:9" ht="15" customHeight="1">
-      <c r="C140" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D140" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E140" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F140" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G140" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H140" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I140" s="131" t="s">
-        <v>249</v>
-      </c>
+      <c r="C140" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F140" s="133"/>
+      <c r="G140" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H140" s="132"/>
+      <c r="I140" s="132"/>
     </row>
     <row r="141" spans="3:9" ht="15" customHeight="1">
-      <c r="C141" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D141" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E141" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F141" s="133"/>
-      <c r="G141" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H141" s="132"/>
-      <c r="I141" s="132"/>
+      <c r="C141" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" s="136" t="s">
+        <v>246</v>
+      </c>
+      <c r="E141" s="134"/>
+      <c r="F141" s="134"/>
+      <c r="G141" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H141" s="129"/>
+      <c r="I141" s="129"/>
     </row>
     <row r="142" spans="3:9" ht="15" customHeight="1">
       <c r="C142" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="D142" s="136" t="s">
-        <v>247</v>
+        <v>141</v>
+      </c>
+      <c r="D142" s="111" t="s">
+        <v>154</v>
       </c>
       <c r="E142" s="134"/>
       <c r="F142" s="134"/>
       <c r="G142" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="H142" s="129"/>
+      <c r="H142" s="129" t="s">
+        <v>142</v>
+      </c>
       <c r="I142" s="129"/>
     </row>
     <row r="143" spans="3:9" ht="15" customHeight="1">
       <c r="C143" s="129" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D143" s="111" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="E143" s="134"/>
       <c r="F143" s="134"/>
-      <c r="G143" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="G143" s="134"/>
       <c r="H143" s="129" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="I143" s="129"/>
     </row>
     <row r="144" spans="3:9" ht="15" customHeight="1">
       <c r="C144" s="129" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D144" s="111" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="E144" s="134"/>
       <c r="F144" s="134"/>
       <c r="G144" s="134"/>
       <c r="H144" s="129" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I144" s="129"/>
     </row>
     <row r="145" spans="3:9" ht="15" customHeight="1">
-      <c r="C145" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D145" s="111" t="s">
-        <v>148</v>
+      <c r="C145" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D145" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E145" s="134"/>
       <c r="F145" s="134"/>
       <c r="G145" s="134"/>
-      <c r="H145" s="129" t="s">
-        <v>219</v>
-      </c>
+      <c r="H145" s="129"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="3:9" ht="15" customHeight="1">
-      <c r="C146" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D146" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E146" s="134"/>
-      <c r="F146" s="134"/>
-      <c r="G146" s="134"/>
-      <c r="H146" s="129"/>
-      <c r="I146" s="129"/>
+    <row r="147" spans="3:9" ht="15" customHeight="1">
+      <c r="C147" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
     </row>
     <row r="148" spans="3:9" ht="15" customHeight="1">
-      <c r="C148" s="108" t="s">
+      <c r="C148" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D148" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E148" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F148" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G148" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H148" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I148" s="131" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" ht="15" customHeight="1">
+      <c r="C149" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D149" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F149" s="133"/>
+      <c r="G149" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H149" s="132"/>
+      <c r="I149" s="132"/>
+    </row>
+    <row r="150" spans="3:9" ht="15" customHeight="1">
+      <c r="C150" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D150" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
-    </row>
-    <row r="149" spans="3:9" ht="15" customHeight="1">
-      <c r="C149" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D149" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E149" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F149" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G149" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H149" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I149" s="131" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="150" spans="3:9" ht="15" customHeight="1">
-      <c r="C150" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D150" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E150" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F150" s="133"/>
-      <c r="G150" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H150" s="132"/>
-      <c r="I150" s="132"/>
+      <c r="E150" s="134"/>
+      <c r="F150" s="134"/>
+      <c r="G150" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H150" s="129"/>
+      <c r="I150" s="153"/>
     </row>
     <row r="151" spans="3:9" ht="15" customHeight="1">
       <c r="C151" s="129" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D151" s="111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E151" s="134"/>
-      <c r="F151" s="134"/>
+      <c r="F151" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="G151" s="134" t="s">
         <v>134</v>
       </c>
@@ -8645,15 +8670,13 @@
     </row>
     <row r="152" spans="3:9" ht="15" customHeight="1">
       <c r="C152" s="129" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D152" s="111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E152" s="134"/>
-      <c r="F152" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="F152" s="134"/>
       <c r="G152" s="134" t="s">
         <v>134</v>
       </c>
@@ -8661,93 +8684,95 @@
       <c r="I152" s="153"/>
     </row>
     <row r="153" spans="3:9" ht="15" customHeight="1">
-      <c r="C153" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="D153" s="111" t="s">
-        <v>258</v>
+      <c r="C153" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D153" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E153" s="134"/>
       <c r="F153" s="134"/>
-      <c r="G153" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="G153" s="134"/>
       <c r="H153" s="129"/>
-      <c r="I153" s="153"/>
-    </row>
-    <row r="154" spans="3:9" ht="15" customHeight="1">
-      <c r="C154" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D154" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E154" s="134"/>
-      <c r="F154" s="134"/>
-      <c r="G154" s="134"/>
-      <c r="H154" s="129"/>
-      <c r="I154" s="129"/>
+      <c r="I153" s="129"/>
+    </row>
+    <row r="155" spans="3:9" ht="15" customHeight="1">
+      <c r="C155" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
     </row>
     <row r="156" spans="3:9" ht="15" customHeight="1">
-      <c r="C156" s="108" t="s">
-        <v>256</v>
-      </c>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
+      <c r="C156" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E156" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F156" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G156" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H156" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I156" s="131" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="157" spans="3:9" ht="15" customHeight="1">
-      <c r="C157" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="D157" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E157" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F157" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G157" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H157" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="I157" s="131" t="s">
-        <v>250</v>
-      </c>
+      <c r="C157" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E157" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F157" s="133"/>
+      <c r="G157" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H157" s="132"/>
+      <c r="I157" s="132"/>
     </row>
     <row r="158" spans="3:9" ht="15" customHeight="1">
-      <c r="C158" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D158" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="E158" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F158" s="133"/>
-      <c r="G158" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H158" s="132"/>
-      <c r="I158" s="132"/>
+      <c r="C158" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="E158" s="134"/>
+      <c r="F158" s="134"/>
+      <c r="G158" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H158" s="129"/>
+      <c r="I158" s="153"/>
     </row>
     <row r="159" spans="3:9" ht="15" customHeight="1">
       <c r="C159" s="129" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D159" s="111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E159" s="134"/>
-      <c r="F159" s="134"/>
+      <c r="F159" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="G159" s="134" t="s">
         <v>134</v>
       </c>
@@ -8756,15 +8781,13 @@
     </row>
     <row r="160" spans="3:9" ht="15" customHeight="1">
       <c r="C160" s="129" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D160" s="111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E160" s="134"/>
-      <c r="F160" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="F160" s="134"/>
       <c r="G160" s="134" t="s">
         <v>134</v>
       </c>
@@ -8772,32 +8795,130 @@
       <c r="I160" s="153"/>
     </row>
     <row r="161" spans="3:9" ht="15" customHeight="1">
-      <c r="C161" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="D161" s="111" t="s">
-        <v>258</v>
+      <c r="C161" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D161" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="E161" s="134"/>
       <c r="F161" s="134"/>
-      <c r="G161" s="134" t="s">
-        <v>134</v>
-      </c>
+      <c r="G161" s="134"/>
       <c r="H161" s="129"/>
-      <c r="I161" s="153"/>
-    </row>
-    <row r="162" spans="3:9" ht="15" customHeight="1">
-      <c r="C162" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="D162" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E162" s="134"/>
-      <c r="F162" s="134"/>
-      <c r="G162" s="134"/>
-      <c r="H162" s="129"/>
-      <c r="I162" s="129"/>
+      <c r="I161" s="129"/>
+    </row>
+    <row r="163" spans="3:9" ht="15" customHeight="1">
+      <c r="C163" s="108" t="s">
+        <v>276</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+    </row>
+    <row r="164" spans="3:9" ht="15" customHeight="1">
+      <c r="C164" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D164" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E164" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="F164" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="G164" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H164" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I164" s="131" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" ht="15" customHeight="1">
+      <c r="C165" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D165" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E165" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F165" s="133"/>
+      <c r="G165" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H165" s="132"/>
+      <c r="I165" s="132"/>
+    </row>
+    <row r="166" spans="3:9" ht="15" customHeight="1">
+      <c r="C166" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="D166" s="111" t="s">
+        <v>272</v>
+      </c>
+      <c r="E166" s="134"/>
+      <c r="F166" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="G166" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H166" s="129"/>
+      <c r="I166" s="153"/>
+    </row>
+    <row r="167" spans="3:9" ht="15" customHeight="1">
+      <c r="C167" s="129" t="s">
+        <v>273</v>
+      </c>
+      <c r="D167" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="E167" s="134"/>
+      <c r="F167" s="134"/>
+      <c r="G167" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H167" s="129"/>
+      <c r="I167" s="153"/>
+    </row>
+    <row r="168" spans="3:9" ht="15" customHeight="1">
+      <c r="C168" s="129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D168" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="E168" s="134"/>
+      <c r="F168" s="134"/>
+      <c r="G168" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H168" s="129"/>
+      <c r="I168" s="153"/>
+    </row>
+    <row r="169" spans="3:9" ht="15" customHeight="1">
+      <c r="C169" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="D169" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="E169" s="134"/>
+      <c r="F169" s="134"/>
+      <c r="G169" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="H169" s="129"/>
+      <c r="I169" s="129"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17"/>
@@ -8826,8 +8947,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="195"/>
-      <c r="B1" s="195"/>
+      <c r="A1" s="200"/>
+      <c r="B1" s="200"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
@@ -8843,97 +8964,97 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="B3" s="191" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="192"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="B4" s="150" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="192"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="B5" s="150" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="150"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="B6" s="150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="150"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="150"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="B8" s="150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="150"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="B9" s="150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="150"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="B10" s="150" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="150"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="B11" s="150" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="150"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="B12" s="150" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="150"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="B13" s="150" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="150"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="B14" s="150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="150"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="B15" s="150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="150"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="B16" s="150" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="150"/>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1">
       <c r="B17" s="150" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="150"/>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1">
       <c r="B18" s="150" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="150"/>
     </row>
@@ -8968,8 +9089,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="195"/>
-      <c r="B1" s="195"/>
+      <c r="A1" s="200"/>
+      <c r="B1" s="200"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="1"/>
@@ -8996,57 +9117,57 @@
       <c r="D4" s="151"/>
     </row>
     <row r="5" spans="1:5" ht="90" customHeight="1">
-      <c r="B5" s="221"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="155"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="90" customHeight="1">
-      <c r="B6" s="222"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="155"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="90" customHeight="1">
-      <c r="B7" s="222"/>
+      <c r="B7" s="227"/>
       <c r="C7" s="155"/>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="90" customHeight="1">
-      <c r="B8" s="222"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="155"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="90" customHeight="1">
-      <c r="B9" s="222"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="155"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="90" customHeight="1">
-      <c r="B10" s="223"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="156"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="90" customHeight="1">
-      <c r="B11" s="221"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="94"/>
       <c r="D11" s="157"/>
     </row>
     <row r="12" spans="1:5" ht="90" customHeight="1">
-      <c r="B12" s="221"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="94"/>
       <c r="D12" s="158"/>
     </row>
     <row r="13" spans="1:5" ht="90" customHeight="1">
-      <c r="B13" s="221"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="94"/>
       <c r="D13" s="159"/>
     </row>
     <row r="14" spans="1:5" ht="90" customHeight="1">
-      <c r="B14" s="221"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="94"/>
       <c r="D14" s="158"/>
     </row>
     <row r="15" spans="1:5" ht="90" customHeight="1">
-      <c r="B15" s="221"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="94"/>
       <c r="D15" s="158"/>
     </row>
@@ -9098,10 +9219,10 @@
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B5" s="224" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="195"/>
+      <c r="B5" s="229" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="200"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
